--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6A3C2-0D4D-1441-A959-E8A57810A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D8283-1682-4E2E-92C3-7DB26A0F98B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="-31500" windowWidth="38400" windowHeight="31500" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Setup 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Test Setup</t>
   </si>
@@ -84,9 +84,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>Win11</t>
-  </si>
-  <si>
     <t>WSL2</t>
   </si>
 </sst>
@@ -94,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,7 +154,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,28 +466,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,7 +501,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,7 +509,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -526,17 +529,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -576,26 +570,8 @@
       <c r="M7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -617,8 +593,26 @@
       <c r="G8">
         <v>28432</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>113</v>
+      </c>
+      <c r="I8">
+        <v>88376.86</v>
+      </c>
+      <c r="J8">
+        <v>1.41</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>66</v>
+      </c>
+      <c r="M8">
+        <v>80596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
@@ -640,8 +634,26 @@
       <c r="G9">
         <v>28400</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>111</v>
+      </c>
+      <c r="I9">
+        <v>89640.82</v>
+      </c>
+      <c r="J9">
+        <v>1.39</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>101</v>
+      </c>
+      <c r="M9">
+        <v>70180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3</v>
       </c>
@@ -663,8 +675,26 @@
       <c r="G10">
         <v>28416</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>86345.97</v>
+      </c>
+      <c r="J10">
+        <v>1.44</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="M10">
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
@@ -686,8 +716,26 @@
       <c r="G11">
         <v>28480</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>109</v>
+      </c>
+      <c r="I11">
+        <v>91026.98</v>
+      </c>
+      <c r="J11">
+        <v>1.37</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <v>70028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
@@ -709,8 +757,26 @@
       <c r="G12">
         <v>28480</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>111</v>
+      </c>
+      <c r="I12">
+        <v>89623.28</v>
+      </c>
+      <c r="J12">
+        <v>1.39</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>72608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>6</v>
       </c>
@@ -732,8 +798,26 @@
       <c r="G13">
         <v>28650</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>103</v>
+      </c>
+      <c r="I13">
+        <v>96231.23</v>
+      </c>
+      <c r="J13">
+        <v>1.3</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>69404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>7</v>
       </c>
@@ -755,8 +839,26 @@
       <c r="G14">
         <v>28304</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>104</v>
+      </c>
+      <c r="I14">
+        <v>95817.84</v>
+      </c>
+      <c r="J14">
+        <v>1.3</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>101</v>
+      </c>
+      <c r="M14">
+        <v>82844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>8</v>
       </c>
@@ -778,8 +880,26 @@
       <c r="G15">
         <v>28512</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>109</v>
+      </c>
+      <c r="I15">
+        <v>91343.1</v>
+      </c>
+      <c r="J15">
+        <v>1.37</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>101</v>
+      </c>
+      <c r="M15">
+        <v>69980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>9</v>
       </c>
@@ -801,8 +921,26 @@
       <c r="G16">
         <v>28560</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>103</v>
+      </c>
+      <c r="I16">
+        <v>96874.27</v>
+      </c>
+      <c r="J16">
+        <v>1.29</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>101</v>
+      </c>
+      <c r="M16">
+        <v>66404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
@@ -824,8 +962,26 @@
       <c r="G17">
         <v>28480</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>106</v>
+      </c>
+      <c r="I17">
+        <v>93845.51</v>
+      </c>
+      <c r="J17">
+        <v>1.33</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>101</v>
+      </c>
+      <c r="M17">
+        <v>65872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -845,17 +1001,8 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -895,76 +1042,238 @@
       <c r="M20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>193</v>
+      </c>
+      <c r="C21">
+        <v>51715.99</v>
+      </c>
+      <c r="D21">
+        <v>2.42</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>79</v>
+      </c>
+      <c r="G21">
+        <v>84048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>193</v>
+      </c>
+      <c r="C22">
+        <v>51626.61</v>
+      </c>
+      <c r="D22">
+        <v>2.42</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>83104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>194</v>
+      </c>
+      <c r="C23">
+        <v>51499.01</v>
+      </c>
+      <c r="D23">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <v>84496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>193</v>
+      </c>
+      <c r="C24">
+        <v>51575.94</v>
+      </c>
+      <c r="D24">
+        <v>2.42</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>84928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>193</v>
+      </c>
+      <c r="C25">
+        <v>51715.89</v>
+      </c>
+      <c r="D25">
+        <v>2.42</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>83584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>193</v>
+      </c>
+      <c r="C26">
+        <v>51751.95</v>
+      </c>
+      <c r="D26">
+        <v>2.41</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>84336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>193</v>
+      </c>
+      <c r="C27">
+        <v>51739.01</v>
+      </c>
+      <c r="D27">
+        <v>2.31</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>81</v>
+      </c>
+      <c r="G27">
+        <v>84624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>193</v>
+      </c>
+      <c r="C28">
+        <v>51832.58</v>
+      </c>
+      <c r="D28">
+        <v>2.41</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>82</v>
+      </c>
+      <c r="G28">
+        <v>84096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>193</v>
+      </c>
+      <c r="C29">
+        <v>51581.57</v>
+      </c>
+      <c r="D29">
+        <v>2.42</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>80</v>
+      </c>
+      <c r="G29">
+        <v>83648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>197</v>
+      </c>
+      <c r="C30">
+        <v>50706.23</v>
+      </c>
+      <c r="D30">
+        <v>2.46</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>83246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -984,17 +1293,8 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -1034,86 +1334,245 @@
       <c r="M33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>187</v>
+      </c>
+      <c r="C34">
+        <v>53397.98</v>
+      </c>
+      <c r="D34">
+        <v>2.34</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>82</v>
+      </c>
+      <c r="G34">
+        <v>79088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>189</v>
+      </c>
+      <c r="C35">
+        <v>52817.16</v>
+      </c>
+      <c r="D35">
+        <v>2.37</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>82</v>
+      </c>
+      <c r="G35">
+        <v>79520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>191</v>
+      </c>
+      <c r="C36">
+        <v>52188.49</v>
+      </c>
+      <c r="D36">
+        <v>2.39</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>85</v>
+      </c>
+      <c r="G36">
+        <v>79840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>188</v>
+      </c>
+      <c r="C37">
+        <v>53005.33</v>
+      </c>
+      <c r="D37">
+        <v>2.36</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>79136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>187</v>
+      </c>
+      <c r="C38">
+        <v>53467.01</v>
+      </c>
+      <c r="D38">
+        <v>2.34</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>83</v>
+      </c>
+      <c r="G38">
+        <v>78544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>188</v>
+      </c>
+      <c r="C39">
+        <v>52967.96</v>
+      </c>
+      <c r="D39">
+        <v>2.36</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>78736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>189</v>
+      </c>
+      <c r="C40">
+        <v>52839.1</v>
+      </c>
+      <c r="D40">
+        <v>2.37</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>84</v>
+      </c>
+      <c r="G40">
+        <v>79296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>189</v>
+      </c>
+      <c r="C41">
+        <v>52799.25</v>
+      </c>
+      <c r="D41">
+        <v>2.37</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>84</v>
+      </c>
+      <c r="G41">
+        <v>78384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>190</v>
+      </c>
+      <c r="C42">
+        <v>52589.67</v>
+      </c>
+      <c r="D42">
+        <v>2.38</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>81</v>
+      </c>
+      <c r="G42">
+        <v>78960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>10</v>
       </c>
+      <c r="B43">
+        <v>189</v>
+      </c>
+      <c r="C43">
+        <v>52739.19</v>
+      </c>
+      <c r="D43">
+        <v>2.37</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>83</v>
+      </c>
+      <c r="G43">
+        <v>78960</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H32:M32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1126,9 +1585,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C12175-0C9F-2948-8B79-E6398ABD1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDD11C-710E-9845-BD04-CC17D10F7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Setup 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Setup 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
+    <sheet name="File Server" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibonacci" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
   <si>
     <t>Test Setup</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>macOS</t>
+  </si>
+  <si>
+    <t>Zahl</t>
+  </si>
+  <si>
+    <t>Ausführungszeit (s)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +484,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506776CC-B6C8-BB4A-88D0-81938826640D}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,4 +2286,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.31</v>
+      </c>
+      <c r="C5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.31</v>
+      </c>
+      <c r="C6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.31</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.31</v>
+      </c>
+      <c r="C8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.31</v>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.62</v>
+      </c>
+      <c r="C13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.62</v>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.62</v>
+      </c>
+      <c r="C15">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.62</v>
+      </c>
+      <c r="C16">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.62</v>
+      </c>
+      <c r="C17">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
+      <c r="C22">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="C24">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A726241-FFF1-D041-BEC1-16A529F6AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF6B1F4-20D1-40B4-A48B-99C2148CCD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
-    <sheet name="File Server" sheetId="2" r:id="rId2"/>
-    <sheet name="File Server Lastvergleich" sheetId="4" r:id="rId3"/>
-    <sheet name="Fibonacci" sheetId="3" r:id="rId4"/>
+    <sheet name="File Server Lastvergleich" sheetId="4" r:id="rId2"/>
+    <sheet name="Fibonacci" sheetId="3" r:id="rId3"/>
+    <sheet name="File Server" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,7 +176,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,39 +494,39 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,7 +543,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>47188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
@@ -748,7 +748,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
@@ -789,7 +789,7 @@
         <v>48484</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>93856</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>93212</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3</v>
       </c>
@@ -970,7 +970,7 @@
         <v>93144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>92928</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>93116</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>86652</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>86396</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>86280</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>86284</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1330,991 +1330,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506776CC-B6C8-BB4A-88D0-81938826640D}">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>500</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>23707.59</v>
-      </c>
-      <c r="C8">
-        <v>21.08</v>
-      </c>
-      <c r="D8">
-        <v>195.63</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>90</v>
-      </c>
-      <c r="G8">
-        <v>64264</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23899.18</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20.91</v>
-      </c>
-      <c r="J8" s="6">
-        <v>116.19</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
-      <c r="L8" s="5">
-        <v>96</v>
-      </c>
-      <c r="M8" s="5">
-        <v>82128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5">
-        <v>23920.81</v>
-      </c>
-      <c r="C9" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>239.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <v>86</v>
-      </c>
-      <c r="G9" s="5">
-        <v>65040</v>
-      </c>
-      <c r="H9" s="5">
-        <v>24201.74</v>
-      </c>
-      <c r="I9" s="5">
-        <v>20.65</v>
-      </c>
-      <c r="J9" s="5">
-        <v>108.4</v>
-      </c>
-      <c r="K9" s="5">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5">
-        <v>96</v>
-      </c>
-      <c r="M9" s="5">
-        <v>83196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>23909.89</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>204.46</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5">
-        <v>65024</v>
-      </c>
-      <c r="H10" s="5">
-        <v>24153.93</v>
-      </c>
-      <c r="I10" s="5">
-        <v>20.69</v>
-      </c>
-      <c r="J10" s="5">
-        <v>115.38</v>
-      </c>
-      <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>82692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5">
-        <v>23825.78</v>
-      </c>
-      <c r="C11" s="5">
-        <v>20.98</v>
-      </c>
-      <c r="D11" s="5">
-        <v>206.59</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5">
-        <v>89</v>
-      </c>
-      <c r="G11" s="5">
-        <v>64880</v>
-      </c>
-      <c r="H11" s="5">
-        <v>23658.7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>21.12</v>
-      </c>
-      <c r="J11" s="5">
-        <v>119.64</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5">
-        <v>98</v>
-      </c>
-      <c r="M11" s="5">
-        <v>82672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <v>23879.56</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20.93</v>
-      </c>
-      <c r="D12" s="5">
-        <v>220.08</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5">
-        <v>90</v>
-      </c>
-      <c r="G12" s="5">
-        <v>64880</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24399.08</v>
-      </c>
-      <c r="I12" s="5">
-        <v>20.5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>117.62</v>
-      </c>
-      <c r="K12" s="5">
-        <v>100</v>
-      </c>
-      <c r="L12" s="5">
-        <v>99</v>
-      </c>
-      <c r="M12" s="5">
-        <v>82948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>24363.11</v>
-      </c>
-      <c r="I13" s="5">
-        <v>20.51</v>
-      </c>
-      <c r="J13" s="5">
-        <v>120.77</v>
-      </c>
-      <c r="K13" s="5">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5">
-        <v>99</v>
-      </c>
-      <c r="M13" s="5">
-        <v>84116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14317.65</v>
-      </c>
-      <c r="C16" s="5">
-        <v>34.93</v>
-      </c>
-      <c r="D16" s="5">
-        <v>248.08</v>
-      </c>
-      <c r="E16" s="5">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <v>189</v>
-      </c>
-      <c r="G16" s="5">
-        <v>229776</v>
-      </c>
-      <c r="H16" s="5">
-        <v>7650.31</v>
-      </c>
-      <c r="I16" s="5">
-        <v>64.53</v>
-      </c>
-      <c r="J16" s="5">
-        <v>287.7</v>
-      </c>
-      <c r="K16" s="5">
-        <v>100</v>
-      </c>
-      <c r="L16" s="5">
-        <v>166</v>
-      </c>
-      <c r="M16" s="5">
-        <v>105356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5">
-        <v>14508.2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>34.46</v>
-      </c>
-      <c r="D17" s="5">
-        <v>231.62</v>
-      </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>197</v>
-      </c>
-      <c r="G17" s="5">
-        <v>198496</v>
-      </c>
-      <c r="H17" s="5">
-        <v>8460.4599999999991</v>
-      </c>
-      <c r="I17" s="5">
-        <v>58.41</v>
-      </c>
-      <c r="J17" s="5">
-        <v>305.45999999999998</v>
-      </c>
-      <c r="K17" s="5">
-        <v>100</v>
-      </c>
-      <c r="L17" s="5">
-        <v>176</v>
-      </c>
-      <c r="M17" s="5">
-        <v>106928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5">
-        <v>14466.72</v>
-      </c>
-      <c r="C18" s="5">
-        <v>34.56</v>
-      </c>
-      <c r="D18" s="5">
-        <v>214.82</v>
-      </c>
-      <c r="E18" s="5">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>185</v>
-      </c>
-      <c r="G18" s="5">
-        <v>208496</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8428.35</v>
-      </c>
-      <c r="I18" s="5">
-        <v>58.51</v>
-      </c>
-      <c r="J18" s="5">
-        <v>285.69</v>
-      </c>
-      <c r="K18" s="5">
-        <v>100</v>
-      </c>
-      <c r="L18" s="5">
-        <v>166</v>
-      </c>
-      <c r="M18" s="5">
-        <v>103704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5">
-        <v>14610.55</v>
-      </c>
-      <c r="C19" s="5">
-        <v>34.21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>198.59</v>
-      </c>
-      <c r="E19" s="5">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>176</v>
-      </c>
-      <c r="G19" s="5">
-        <v>212880</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8292.3700000000008</v>
-      </c>
-      <c r="I19" s="5">
-        <v>59.61</v>
-      </c>
-      <c r="J19" s="5">
-        <v>313.20999999999998</v>
-      </c>
-      <c r="K19" s="5">
-        <v>100</v>
-      </c>
-      <c r="L19" s="5">
-        <v>171</v>
-      </c>
-      <c r="M19" s="5">
-        <v>106108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5">
-        <v>14647.9</v>
-      </c>
-      <c r="C20" s="5">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="D20" s="5">
-        <v>238.61</v>
-      </c>
-      <c r="E20" s="5">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>190</v>
-      </c>
-      <c r="G20" s="5">
-        <v>209896</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8410.83</v>
-      </c>
-      <c r="I20" s="5">
-        <v>58.73</v>
-      </c>
-      <c r="J20" s="5">
-        <v>292.88</v>
-      </c>
-      <c r="K20" s="5">
-        <v>100</v>
-      </c>
-      <c r="L20" s="5">
-        <v>165</v>
-      </c>
-      <c r="M20" s="5">
-        <v>104264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <v>14790.27</v>
-      </c>
-      <c r="C24" s="5">
-        <v>33.81</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1720</v>
-      </c>
-      <c r="E24" s="5">
-        <v>99.5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>195</v>
-      </c>
-      <c r="G24" s="5">
-        <v>221728</v>
-      </c>
-      <c r="H24" s="5">
-        <v>10322.75</v>
-      </c>
-      <c r="I24" s="5">
-        <v>47.96</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1710</v>
-      </c>
-      <c r="K24" s="5">
-        <v>100</v>
-      </c>
-      <c r="L24" s="5">
-        <v>268</v>
-      </c>
-      <c r="M24" s="5">
-        <v>172996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>14729.2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>33.93</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1790</v>
-      </c>
-      <c r="E25" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="F25" s="5">
-        <v>194</v>
-      </c>
-      <c r="G25" s="5">
-        <v>219552</v>
-      </c>
-      <c r="H25" s="5">
-        <v>10462.030000000001</v>
-      </c>
-      <c r="I25" s="5">
-        <v>47.33</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K25" s="5">
-        <v>100</v>
-      </c>
-      <c r="L25" s="5">
-        <v>265</v>
-      </c>
-      <c r="M25" s="5">
-        <v>118604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5">
-        <v>14749.95</v>
-      </c>
-      <c r="C26" s="5">
-        <v>33.909999999999997</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1649</v>
-      </c>
-      <c r="E26" s="5">
-        <v>99.7</v>
-      </c>
-      <c r="F26" s="5">
-        <v>198</v>
-      </c>
-      <c r="G26" s="5">
-        <v>234800</v>
-      </c>
-      <c r="H26" s="5">
-        <v>10337.76</v>
-      </c>
-      <c r="I26" s="5">
-        <v>47.97</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1770</v>
-      </c>
-      <c r="K26" s="5">
-        <v>100</v>
-      </c>
-      <c r="L26" s="5">
-        <v>250</v>
-      </c>
-      <c r="M26" s="5">
-        <v>174576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5">
-        <v>14722.22</v>
-      </c>
-      <c r="C27" s="5">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1920</v>
-      </c>
-      <c r="E27" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>193</v>
-      </c>
-      <c r="G27" s="5">
-        <v>243920</v>
-      </c>
-      <c r="H27" s="5">
-        <v>10478.85</v>
-      </c>
-      <c r="I27" s="5">
-        <v>47.32</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K27" s="5">
-        <v>100</v>
-      </c>
-      <c r="L27" s="5">
-        <v>264</v>
-      </c>
-      <c r="M27" s="5">
-        <v>175628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5">
-        <v>14628.28</v>
-      </c>
-      <c r="C28" s="5">
-        <v>34.14</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1820</v>
-      </c>
-      <c r="E28" s="5">
-        <v>99.7</v>
-      </c>
-      <c r="F28" s="5">
-        <v>194</v>
-      </c>
-      <c r="G28" s="5">
-        <v>257200</v>
-      </c>
-      <c r="H28" s="5">
-        <v>10254</v>
-      </c>
-      <c r="I28" s="5">
-        <v>48.39</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K28" s="5">
-        <v>100</v>
-      </c>
-      <c r="L28" s="5">
-        <v>262</v>
-      </c>
-      <c r="M28" s="5">
-        <v>175036</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +1356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2352,7 +1386,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +1421,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -2452,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2517,7 +1551,7 @@
         <v>88056</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2582,7 +1616,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2647,7 +1681,7 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2712,7 +1746,7 @@
         <v>85144</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -2777,7 +1811,7 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2800,7 +1834,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +1869,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="4">
         <v>250</v>
       </c>
@@ -2900,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2965,7 +1999,7 @@
         <v>128460</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -3030,7 +2064,7 @@
         <v>124552</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -3095,7 +2129,7 @@
         <v>121192</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -3160,7 +2194,7 @@
         <v>121700</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
         <v>5</v>
       </c>
@@ -3225,7 +2259,7 @@
         <v>121488</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3248,7 +2282,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +2317,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="4">
         <v>500</v>
       </c>
@@ -3348,7 +2382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -3413,7 +2447,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -3478,7 +2512,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -3543,7 +2577,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -3608,7 +2642,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="5">
         <v>5</v>
       </c>
@@ -3673,7 +2707,7 @@
         <v>175036</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="B29" s="5">
         <v>24363.11</v>
       </c>
@@ -3693,7 +2727,7 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -3728,7 +2762,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="4">
         <v>1000</v>
       </c>
@@ -3793,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -3858,7 +2892,7 @@
         <v>213864</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -3923,7 +2957,7 @@
         <v>209776</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -3988,7 +3022,7 @@
         <v>209276</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="5">
         <v>4</v>
       </c>
@@ -4053,7 +3087,7 @@
         <v>211692</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="5">
         <v>5</v>
       </c>
@@ -4118,7 +3152,7 @@
         <v>213220</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
@@ -4148,12 +3182,12 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -4164,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4175,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
@@ -4183,7 +3217,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -4248,134 +3282,332 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="5">
         <v>1</v>
       </c>
+      <c r="B43">
+        <v>25276.77</v>
+      </c>
+      <c r="C43">
+        <v>1.98</v>
+      </c>
+      <c r="D43">
+        <v>18.82</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>92</v>
+      </c>
+      <c r="G43">
+        <v>67328</v>
+      </c>
       <c r="I43" s="5">
         <v>1</v>
       </c>
+      <c r="J43">
+        <v>21515</v>
+      </c>
+      <c r="K43">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L43">
+        <v>33.96</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>146</v>
+      </c>
+      <c r="O43">
+        <v>120544</v>
+      </c>
       <c r="Q43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>21553.66</v>
+      </c>
+      <c r="S43">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T43">
+        <v>81.25</v>
+      </c>
+      <c r="U43">
+        <v>100</v>
+      </c>
+      <c r="V43">
+        <v>146</v>
+      </c>
+      <c r="W43">
+        <v>117296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="5">
         <v>2</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="5">
+        <v>25302.77</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D44" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="E44" s="5">
+        <v>100</v>
+      </c>
+      <c r="F44" s="5">
+        <v>94</v>
+      </c>
+      <c r="G44" s="5">
+        <v>65744</v>
+      </c>
       <c r="I44" s="5">
         <v>2</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="J44" s="5">
+        <v>19785.3</v>
+      </c>
+      <c r="K44" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L44" s="5">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="M44" s="5">
+        <v>100</v>
+      </c>
+      <c r="N44" s="5">
+        <v>142</v>
+      </c>
+      <c r="O44" s="5">
+        <v>125616</v>
+      </c>
       <c r="Q44" s="5">
         <v>2</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R44" s="5">
+        <v>21499.51</v>
+      </c>
+      <c r="S44" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T44" s="5">
+        <v>61.8</v>
+      </c>
+      <c r="U44" s="5">
+        <v>100</v>
+      </c>
+      <c r="V44" s="5">
+        <v>148</v>
+      </c>
+      <c r="W44" s="5">
+        <v>109888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="5">
         <v>3</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="5">
+        <v>25293.360000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D45" s="5">
+        <v>14.06</v>
+      </c>
+      <c r="E45" s="5">
+        <v>100</v>
+      </c>
+      <c r="F45" s="5">
+        <v>95</v>
+      </c>
+      <c r="G45" s="5">
+        <v>65840</v>
+      </c>
       <c r="I45" s="5">
         <v>3</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="J45" s="5">
+        <v>19363.939999999999</v>
+      </c>
+      <c r="K45" s="5">
+        <v>2.58</v>
+      </c>
+      <c r="L45" s="5">
+        <v>33.9</v>
+      </c>
+      <c r="M45" s="5">
+        <v>100</v>
+      </c>
+      <c r="N45" s="5">
+        <v>143</v>
+      </c>
+      <c r="O45" s="5">
+        <v>124096</v>
+      </c>
       <c r="Q45" s="5">
         <v>3</v>
       </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R45" s="5">
+        <v>21808.63</v>
+      </c>
+      <c r="S45" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="T45" s="5">
+        <v>61.93</v>
+      </c>
+      <c r="U45" s="5">
+        <v>100</v>
+      </c>
+      <c r="V45" s="5">
+        <v>146</v>
+      </c>
+      <c r="W45" s="5">
+        <v>112464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="5">
         <v>4</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="5">
+        <v>25292.46</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D46" s="5">
+        <v>13.51</v>
+      </c>
+      <c r="E46" s="5">
+        <v>100</v>
+      </c>
+      <c r="F46" s="5">
+        <v>93</v>
+      </c>
+      <c r="G46" s="5">
+        <v>65956</v>
+      </c>
       <c r="I46" s="5">
         <v>4</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="J46" s="5">
+        <v>21722.080000000002</v>
+      </c>
+      <c r="K46" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L46" s="5">
+        <v>29.84</v>
+      </c>
+      <c r="M46" s="5">
+        <v>100</v>
+      </c>
+      <c r="N46" s="5">
+        <v>143</v>
+      </c>
+      <c r="O46" s="5">
+        <v>109568</v>
+      </c>
       <c r="Q46" s="5">
         <v>4</v>
       </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R46" s="5">
+        <v>21799.37</v>
+      </c>
+      <c r="S46" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="T46" s="5">
+        <v>63.66</v>
+      </c>
+      <c r="U46" s="5">
+        <v>100</v>
+      </c>
+      <c r="V46" s="5">
+        <v>144</v>
+      </c>
+      <c r="W46" s="5">
+        <v>119520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="5">
         <v>5</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="5">
+        <v>25330.78</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D47" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>100</v>
+      </c>
+      <c r="F47" s="5">
+        <v>94</v>
+      </c>
+      <c r="G47" s="5">
+        <v>654230</v>
+      </c>
       <c r="I47" s="5">
         <v>5</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="J47" s="5">
+        <v>21449.79</v>
+      </c>
+      <c r="K47" s="5">
+        <v>2.33</v>
+      </c>
+      <c r="L47" s="5">
+        <v>33.51</v>
+      </c>
+      <c r="M47" s="5">
+        <v>100</v>
+      </c>
+      <c r="N47" s="5">
+        <v>145</v>
+      </c>
+      <c r="O47" s="5">
+        <v>119792</v>
+      </c>
       <c r="Q47" s="5">
         <v>5</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R47" s="5">
+        <v>21519.05</v>
+      </c>
+      <c r="S47" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T47" s="5">
+        <v>60.17</v>
+      </c>
+      <c r="U47" s="5">
+        <v>100</v>
+      </c>
+      <c r="V47" s="5">
+        <v>148</v>
+      </c>
+      <c r="W47" s="5">
+        <v>115120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4398,12 +3630,12 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -4414,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -4425,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -4433,7 +3665,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="4">
         <v>250</v>
       </c>
@@ -4498,152 +3730,337 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="5">
         <v>1</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="B51" s="5">
+        <v>25464.61</v>
+      </c>
+      <c r="C51" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="D51" s="5">
+        <v>55.58</v>
+      </c>
+      <c r="E51" s="5">
+        <v>100</v>
+      </c>
+      <c r="F51" s="5">
+        <v>89</v>
+      </c>
+      <c r="G51" s="5">
+        <v>66698</v>
+      </c>
       <c r="I51" s="5">
         <v>1</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="J51" s="5">
+        <v>15917.54</v>
+      </c>
+      <c r="K51" s="5">
+        <v>15.55</v>
+      </c>
+      <c r="L51" s="5">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="M51" s="5">
+        <v>100</v>
+      </c>
+      <c r="N51" s="5">
+        <v>193</v>
+      </c>
+      <c r="O51" s="5">
+        <v>195552</v>
+      </c>
       <c r="Q51" s="5">
         <v>1</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R51" s="5">
+        <v>17388.28</v>
+      </c>
+      <c r="S51" s="5">
+        <v>14.38</v>
+      </c>
+      <c r="T51" s="5">
+        <v>469.75</v>
+      </c>
+      <c r="U51" s="6">
+        <f>100-48/(48+521755)*100</f>
+        <v>99.990801126095477</v>
+      </c>
+      <c r="V51" s="5">
+        <v>190</v>
+      </c>
+      <c r="W51" s="5">
+        <v>203264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="5">
         <v>2</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="5">
+        <v>25435.68</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9.83</v>
+      </c>
+      <c r="D52" s="5">
+        <v>52.12</v>
+      </c>
+      <c r="E52" s="5">
+        <v>100</v>
+      </c>
+      <c r="F52" s="5">
+        <v>92</v>
+      </c>
+      <c r="G52" s="5">
+        <v>66384</v>
+      </c>
       <c r="I52" s="5">
         <v>2</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="J52" s="5">
+        <v>16075.37</v>
+      </c>
+      <c r="K52" s="5">
+        <v>15.51</v>
+      </c>
+      <c r="L52" s="5">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="M52" s="5">
+        <v>100</v>
+      </c>
+      <c r="N52" s="5">
+        <v>186</v>
+      </c>
+      <c r="O52" s="5">
+        <v>168992</v>
+      </c>
       <c r="Q52" s="5">
         <v>2</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R52" s="5">
+        <v>17301.54</v>
+      </c>
+      <c r="S52" s="5">
+        <v>14.45</v>
+      </c>
+      <c r="T52" s="5">
+        <v>484.46</v>
+      </c>
+      <c r="U52" s="6">
+        <f>100-42/(42+519209)*100</f>
+        <v>99.991911426265915</v>
+      </c>
+      <c r="V52" s="5">
+        <v>191</v>
+      </c>
+      <c r="W52" s="5">
+        <v>202544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="5">
         <v>3</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="5">
+        <v>25476.74</v>
+      </c>
+      <c r="C53" s="5">
+        <v>9.81</v>
+      </c>
+      <c r="D53" s="5">
+        <v>50.91</v>
+      </c>
+      <c r="E53" s="5">
+        <v>100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>93</v>
+      </c>
+      <c r="G53" s="5">
+        <v>66464</v>
+      </c>
       <c r="I53" s="5">
         <v>3</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="J53" s="5">
+        <v>16074.26</v>
+      </c>
+      <c r="K53" s="5">
+        <v>15.55</v>
+      </c>
+      <c r="L53" s="5">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="M53" s="5">
+        <v>100</v>
+      </c>
+      <c r="N53" s="5">
+        <v>189</v>
+      </c>
+      <c r="O53" s="5">
+        <v>191920</v>
+      </c>
       <c r="Q53" s="5">
         <v>3</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R53" s="5">
+        <v>17374.5</v>
+      </c>
+      <c r="S53" s="5">
+        <v>14.39</v>
+      </c>
+      <c r="T53" s="5">
+        <v>455.17</v>
+      </c>
+      <c r="U53" s="6">
+        <f>100-26/(26+521380)*100</f>
+        <v>99.99501348277542</v>
+      </c>
+      <c r="V53" s="5">
+        <v>186</v>
+      </c>
+      <c r="W53" s="5">
+        <v>184224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="5">
         <v>4</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="5">
+        <v>25372.19</v>
+      </c>
+      <c r="C54" s="5">
+        <v>9.85</v>
+      </c>
+      <c r="D54" s="5">
+        <v>49.03</v>
+      </c>
+      <c r="E54" s="5">
+        <v>100</v>
+      </c>
+      <c r="F54" s="5">
+        <v>92</v>
+      </c>
+      <c r="G54" s="5">
+        <v>66640</v>
+      </c>
       <c r="I54" s="5">
         <v>4</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="J54" s="5">
+        <v>16111.43</v>
+      </c>
+      <c r="K54" s="5">
+        <v>15.51</v>
+      </c>
+      <c r="L54" s="5">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="M54" s="5">
+        <v>100</v>
+      </c>
+      <c r="N54" s="5">
+        <v>188</v>
+      </c>
+      <c r="O54" s="5">
+        <v>189536</v>
+      </c>
       <c r="Q54" s="5">
         <v>4</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R54" s="5">
+        <v>17193.03</v>
+      </c>
+      <c r="S54" s="5">
+        <v>14.54</v>
+      </c>
+      <c r="T54" s="5">
+        <v>478.6</v>
+      </c>
+      <c r="U54" s="6">
+        <f>100-37/(37+515922)*100</f>
+        <v>99.992828887566645</v>
+      </c>
+      <c r="V54" s="5">
+        <v>186</v>
+      </c>
+      <c r="W54" s="5">
+        <v>208992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="5">
         <v>5</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="5">
+        <v>25451.01</v>
+      </c>
+      <c r="C55" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="D55" s="5">
+        <v>49.88</v>
+      </c>
+      <c r="E55" s="5">
+        <v>100</v>
+      </c>
+      <c r="F55" s="5">
+        <v>93</v>
+      </c>
+      <c r="G55" s="5">
+        <v>66560</v>
+      </c>
       <c r="I55" s="5">
         <v>5</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="J55" s="5">
+        <v>15924.32</v>
+      </c>
+      <c r="K55" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="L55" s="5">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="M55" s="5">
+        <v>100</v>
+      </c>
+      <c r="N55" s="5">
+        <v>191</v>
+      </c>
+      <c r="O55" s="5">
+        <v>176272</v>
+      </c>
       <c r="Q55" s="5">
         <v>5</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R55" s="5">
+        <v>16918.400000000001</v>
+      </c>
+      <c r="S55" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="T55" s="5">
+        <v>492.5</v>
+      </c>
+      <c r="U55" s="6">
+        <f>100-24/(24+507669)*100</f>
+        <v>99.995272733719005</v>
+      </c>
+      <c r="V55" s="5">
+        <v>187</v>
+      </c>
+      <c r="W55" s="5">
+        <v>198144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4666,12 +4083,12 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -4682,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4693,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -4701,7 +4118,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="4">
         <v>500</v>
       </c>
@@ -4766,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -4821,7 +4238,7 @@
       <c r="T59" s="5">
         <v>1720</v>
       </c>
-      <c r="U59" s="5">
+      <c r="U59" s="6">
         <v>99.5</v>
       </c>
       <c r="V59" s="5">
@@ -4831,7 +4248,7 @@
         <v>221728</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" s="5">
         <v>2</v>
       </c>
@@ -4886,7 +4303,7 @@
       <c r="T60" s="5">
         <v>1790</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60" s="6">
         <v>99.4</v>
       </c>
       <c r="V60" s="5">
@@ -4896,7 +4313,7 @@
         <v>219552</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -4951,7 +4368,7 @@
       <c r="T61" s="5">
         <v>1649</v>
       </c>
-      <c r="U61" s="5">
+      <c r="U61" s="6">
         <v>99.7</v>
       </c>
       <c r="V61" s="5">
@@ -4961,7 +4378,7 @@
         <v>234800</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23">
       <c r="A62" s="5">
         <v>4</v>
       </c>
@@ -5016,7 +4433,7 @@
       <c r="T62" s="5">
         <v>1920</v>
       </c>
-      <c r="U62" s="5">
+      <c r="U62" s="6">
         <v>99.4</v>
       </c>
       <c r="V62" s="5">
@@ -5026,7 +4443,7 @@
         <v>243920</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23">
       <c r="A63" s="5">
         <v>5</v>
       </c>
@@ -5081,7 +4498,7 @@
       <c r="T63" s="5">
         <v>1820</v>
       </c>
-      <c r="U63" s="5">
+      <c r="U63" s="6">
         <v>99.7</v>
       </c>
       <c r="V63" s="5">
@@ -5091,7 +4508,7 @@
         <v>257200</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -5099,12 +4516,12 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5115,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5126,7 +4543,7 @@
         <v>9</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -5134,7 +4551,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23">
       <c r="A66" s="4">
         <v>1000</v>
       </c>
@@ -5157,7 +4574,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>13</v>
@@ -5178,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="Q66" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="R66" s="4" t="s">
         <v>13</v>
@@ -5199,176 +4616,348 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23">
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="5">
+        <v>24846.18</v>
+      </c>
+      <c r="C67" s="5">
+        <v>40.22</v>
+      </c>
+      <c r="D67" s="5">
+        <v>451.41</v>
+      </c>
+      <c r="E67" s="6">
+        <f>100-329/(329+745934)*100</f>
+        <v>99.955913665825591</v>
+      </c>
+      <c r="F67" s="5">
+        <v>91</v>
+      </c>
+      <c r="G67" s="5">
+        <v>68192</v>
+      </c>
       <c r="I67" s="5">
         <v>1</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+      <c r="J67" s="5">
+        <v>14970.63</v>
+      </c>
+      <c r="K67" s="5">
+        <v>66.75</v>
+      </c>
+      <c r="L67" s="5">
+        <v>511.17</v>
+      </c>
+      <c r="M67" s="6">
+        <f>100-350/(350+449644)*100</f>
+        <v>99.922221185171352</v>
+      </c>
+      <c r="N67" s="5">
+        <v>193</v>
+      </c>
+      <c r="O67" s="5">
+        <v>284000</v>
+      </c>
       <c r="Q67" s="5">
         <v>1</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R67" s="5">
+        <v>14937.53</v>
+      </c>
+      <c r="S67" s="5">
+        <v>66.91</v>
+      </c>
+      <c r="T67" s="5">
+        <v>6000</v>
+      </c>
+      <c r="U67" s="6">
+        <f>100-580/(580+448210)*100</f>
+        <v>99.870763608814812</v>
+      </c>
+      <c r="V67" s="5">
+        <v>210</v>
+      </c>
+      <c r="W67" s="5">
+        <v>283264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="B68" s="5">
+        <v>24776.04</v>
+      </c>
+      <c r="C68" s="5">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="D68" s="5">
+        <v>466.86</v>
+      </c>
+      <c r="E68" s="6">
+        <f>100-347/(347+743735)*100</f>
+        <v>99.953365354893677</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68" s="5">
+        <v>67472</v>
+      </c>
       <c r="I68" s="5">
         <v>2</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
+      <c r="J68" s="5">
+        <v>14629.17</v>
+      </c>
+      <c r="K68" s="5">
+        <v>68.36</v>
+      </c>
+      <c r="L68" s="5">
+        <v>452.81</v>
+      </c>
+      <c r="M68" s="6">
+        <f>100-310/(310+439125)*100</f>
+        <v>99.929454868183001</v>
+      </c>
+      <c r="N68" s="5">
+        <v>198</v>
+      </c>
+      <c r="O68" s="5">
+        <v>300096</v>
+      </c>
       <c r="Q68" s="5">
         <v>2</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R68" s="5">
+        <v>14518.01</v>
+      </c>
+      <c r="S68" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="T68" s="5">
+        <v>5140</v>
+      </c>
+      <c r="U68" s="6">
+        <f>100-2256/(2556+434115)*100</f>
+        <v>99.483363905549027</v>
+      </c>
+      <c r="V68" s="5">
+        <v>206</v>
+      </c>
+      <c r="W68" s="5">
+        <v>366512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="B69" s="5">
+        <v>24789.88</v>
+      </c>
+      <c r="C69" s="5">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="D69" s="5">
+        <v>479.3</v>
+      </c>
+      <c r="E69" s="6">
+        <f>100-341/(744119+341)*100</f>
+        <v>99.954194986970421</v>
+      </c>
+      <c r="F69" s="5">
+        <v>91</v>
+      </c>
+      <c r="G69" s="5">
+        <v>67280</v>
+      </c>
       <c r="I69" s="5">
         <v>3</v>
       </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
+      <c r="J69" s="5">
+        <v>14524.19</v>
+      </c>
+      <c r="K69" s="5">
+        <v>68.75</v>
+      </c>
+      <c r="L69" s="5">
+        <v>594.74</v>
+      </c>
+      <c r="M69" s="6">
+        <f>100-350/(350+436354)*100</f>
+        <v>99.919854180405949</v>
+      </c>
+      <c r="N69" s="5">
+        <v>195</v>
+      </c>
+      <c r="O69" s="5">
+        <v>286704</v>
+      </c>
       <c r="Q69" s="5">
         <v>3</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R69" s="5">
+        <v>14594.26</v>
+      </c>
+      <c r="S69" s="5">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="T69" s="5">
+        <v>4350</v>
+      </c>
+      <c r="U69" s="6">
+        <f>100-2366/(2366+436629)*100</f>
+        <v>99.461041697513636</v>
+      </c>
+      <c r="V69" s="5">
+        <v>203</v>
+      </c>
+      <c r="W69" s="5">
+        <v>317392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="B70" s="5">
+        <v>24746.3</v>
+      </c>
+      <c r="C70" s="5">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="D70" s="5">
+        <v>479.3</v>
+      </c>
+      <c r="E70" s="6">
+        <f>100-322/(322+742886)*100</f>
+        <v>99.956674309210882</v>
+      </c>
+      <c r="F70" s="5">
+        <v>90</v>
+      </c>
+      <c r="G70" s="5">
+        <v>6824</v>
+      </c>
       <c r="I70" s="5">
         <v>4</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
+      <c r="J70" s="5">
+        <v>14274.59</v>
+      </c>
+      <c r="K70" s="5">
+        <v>69.98</v>
+      </c>
+      <c r="L70" s="5">
+        <v>572.30999999999995</v>
+      </c>
+      <c r="M70" s="6">
+        <f>100-337/(337+428541)*100</f>
+        <v>99.921422875503055</v>
+      </c>
+      <c r="N70" s="5">
+        <v>199</v>
+      </c>
+      <c r="O70" s="5">
+        <v>294704</v>
+      </c>
       <c r="Q70" s="5">
         <v>4</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R70" s="5">
+        <v>14719.55</v>
+      </c>
+      <c r="S70" s="5">
+        <v>68.2</v>
+      </c>
+      <c r="T70" s="5">
+        <v>4540</v>
+      </c>
+      <c r="U70" s="6">
+        <f>100-2739/(2739+439861)*100</f>
+        <v>99.381156800723005</v>
+      </c>
+      <c r="V70" s="5">
+        <v>198</v>
+      </c>
+      <c r="W70" s="5">
+        <v>361280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="B71" s="5">
+        <v>24773.9</v>
+      </c>
+      <c r="C71" s="5">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="D71" s="5">
+        <v>462.65</v>
+      </c>
+      <c r="E71" s="6">
+        <f>100-321/(321+743725)*100</f>
+        <v>99.956857506121935</v>
+      </c>
+      <c r="F71" s="5">
+        <v>91</v>
+      </c>
+      <c r="G71" s="5">
+        <v>67952</v>
+      </c>
       <c r="I71" s="5">
         <v>5</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
+      <c r="J71" s="5">
+        <v>13378.25</v>
+      </c>
+      <c r="K71" s="5">
+        <v>74.77</v>
+      </c>
+      <c r="L71" s="5">
+        <v>550.02</v>
+      </c>
+      <c r="M71" s="6">
+        <f>100-336/(336+401120)*100</f>
+        <v>99.916304651070107</v>
+      </c>
+      <c r="N71" s="5">
+        <v>190</v>
+      </c>
+      <c r="O71" s="5">
+        <v>311296</v>
+      </c>
       <c r="Q71" s="5">
         <v>5</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
+      <c r="R71" s="5">
+        <v>14651.76</v>
+      </c>
+      <c r="S71" s="5">
+        <v>68.2</v>
+      </c>
+      <c r="T71" s="5">
+        <v>4540</v>
+      </c>
+      <c r="U71" s="3">
+        <f>100-2214/(2214+438230)*100</f>
+        <v>99.49732542616087</v>
+      </c>
+      <c r="V71" s="5">
+        <v>206</v>
+      </c>
+      <c r="W71" s="5">
+        <v>323952</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="R57:W57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="R65:W65"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R14:W14"/>
     <mergeCell ref="R22:W22"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B14:G14"/>
@@ -5376,13 +4965,36 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J14:O14"/>
     <mergeCell ref="J22:O22"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="J65:O65"/>
+    <mergeCell ref="R65:W65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5390,13 +5002,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5404,7 +5016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +5024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5423,7 +5035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5434,7 +5046,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5445,7 +5057,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5456,7 +5068,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5467,7 +5079,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5478,7 +5090,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -5486,7 +5098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5508,7 +5120,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5519,7 +5131,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5530,7 +5142,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5541,7 +5153,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5552,7 +5164,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>14</v>
       </c>
@@ -5560,7 +5172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +5183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5582,7 +5194,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5593,7 +5205,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5604,7 +5216,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5615,7 +5227,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5630,4 +5242,970 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506776CC-B6C8-BB4A-88D0-81938826640D}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>500</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>23707.59</v>
+      </c>
+      <c r="C8">
+        <v>21.08</v>
+      </c>
+      <c r="D8">
+        <v>195.63</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>64264</v>
+      </c>
+      <c r="H8" s="2">
+        <v>23899.18</v>
+      </c>
+      <c r="I8" s="6">
+        <v>20.91</v>
+      </c>
+      <c r="J8" s="6">
+        <v>116.19</v>
+      </c>
+      <c r="K8" s="5">
+        <v>100</v>
+      </c>
+      <c r="L8" s="5">
+        <v>96</v>
+      </c>
+      <c r="M8" s="5">
+        <v>82128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>23920.81</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>239.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
+        <v>86</v>
+      </c>
+      <c r="G9" s="5">
+        <v>65040</v>
+      </c>
+      <c r="H9" s="5">
+        <v>24201.74</v>
+      </c>
+      <c r="I9" s="5">
+        <v>20.65</v>
+      </c>
+      <c r="J9" s="5">
+        <v>108.4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5">
+        <v>96</v>
+      </c>
+      <c r="M9" s="5">
+        <v>83196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>23909.89</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>204.46</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5">
+        <v>65024</v>
+      </c>
+      <c r="H10" s="5">
+        <v>24153.93</v>
+      </c>
+      <c r="I10" s="5">
+        <v>20.69</v>
+      </c>
+      <c r="J10" s="5">
+        <v>115.38</v>
+      </c>
+      <c r="K10" s="5">
+        <v>100</v>
+      </c>
+      <c r="L10" s="5">
+        <v>100</v>
+      </c>
+      <c r="M10" s="5">
+        <v>82692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>23825.78</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20.98</v>
+      </c>
+      <c r="D11" s="5">
+        <v>206.59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>89</v>
+      </c>
+      <c r="G11" s="5">
+        <v>64880</v>
+      </c>
+      <c r="H11" s="5">
+        <v>23658.7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>21.12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>119.64</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5">
+        <v>98</v>
+      </c>
+      <c r="M11" s="5">
+        <v>82672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>23879.56</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20.93</v>
+      </c>
+      <c r="D12" s="5">
+        <v>220.08</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5">
+        <v>90</v>
+      </c>
+      <c r="G12" s="5">
+        <v>64880</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24399.08</v>
+      </c>
+      <c r="I12" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>117.62</v>
+      </c>
+      <c r="K12" s="5">
+        <v>100</v>
+      </c>
+      <c r="L12" s="5">
+        <v>99</v>
+      </c>
+      <c r="M12" s="5">
+        <v>82948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>24363.11</v>
+      </c>
+      <c r="I13" s="5">
+        <v>20.51</v>
+      </c>
+      <c r="J13" s="5">
+        <v>120.77</v>
+      </c>
+      <c r="K13" s="5">
+        <v>100</v>
+      </c>
+      <c r="L13" s="5">
+        <v>99</v>
+      </c>
+      <c r="M13" s="5">
+        <v>84116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14317.65</v>
+      </c>
+      <c r="C16" s="5">
+        <v>34.93</v>
+      </c>
+      <c r="D16" s="5">
+        <v>248.08</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>189</v>
+      </c>
+      <c r="G16" s="5">
+        <v>229776</v>
+      </c>
+      <c r="H16" s="5">
+        <v>7650.31</v>
+      </c>
+      <c r="I16" s="5">
+        <v>64.53</v>
+      </c>
+      <c r="J16" s="5">
+        <v>287.7</v>
+      </c>
+      <c r="K16" s="5">
+        <v>100</v>
+      </c>
+      <c r="L16" s="5">
+        <v>166</v>
+      </c>
+      <c r="M16" s="5">
+        <v>105356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>14508.2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>34.46</v>
+      </c>
+      <c r="D17" s="5">
+        <v>231.62</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>197</v>
+      </c>
+      <c r="G17" s="5">
+        <v>198496</v>
+      </c>
+      <c r="H17" s="5">
+        <v>8460.4599999999991</v>
+      </c>
+      <c r="I17" s="5">
+        <v>58.41</v>
+      </c>
+      <c r="J17" s="5">
+        <v>305.45999999999998</v>
+      </c>
+      <c r="K17" s="5">
+        <v>100</v>
+      </c>
+      <c r="L17" s="5">
+        <v>176</v>
+      </c>
+      <c r="M17" s="5">
+        <v>106928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14466.72</v>
+      </c>
+      <c r="C18" s="5">
+        <v>34.56</v>
+      </c>
+      <c r="D18" s="5">
+        <v>214.82</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>185</v>
+      </c>
+      <c r="G18" s="5">
+        <v>208496</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8428.35</v>
+      </c>
+      <c r="I18" s="5">
+        <v>58.51</v>
+      </c>
+      <c r="J18" s="5">
+        <v>285.69</v>
+      </c>
+      <c r="K18" s="5">
+        <v>100</v>
+      </c>
+      <c r="L18" s="5">
+        <v>166</v>
+      </c>
+      <c r="M18" s="5">
+        <v>103704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>14610.55</v>
+      </c>
+      <c r="C19" s="5">
+        <v>34.21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>198.59</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5">
+        <v>212880</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8292.3700000000008</v>
+      </c>
+      <c r="I19" s="5">
+        <v>59.61</v>
+      </c>
+      <c r="J19" s="5">
+        <v>313.20999999999998</v>
+      </c>
+      <c r="K19" s="5">
+        <v>100</v>
+      </c>
+      <c r="L19" s="5">
+        <v>171</v>
+      </c>
+      <c r="M19" s="5">
+        <v>106108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>14647.9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>238.61</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>190</v>
+      </c>
+      <c r="G20" s="5">
+        <v>209896</v>
+      </c>
+      <c r="H20" s="5">
+        <v>8410.83</v>
+      </c>
+      <c r="I20" s="5">
+        <v>58.73</v>
+      </c>
+      <c r="J20" s="5">
+        <v>292.88</v>
+      </c>
+      <c r="K20" s="5">
+        <v>100</v>
+      </c>
+      <c r="L20" s="5">
+        <v>165</v>
+      </c>
+      <c r="M20" s="5">
+        <v>104264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>14790.27</v>
+      </c>
+      <c r="C24" s="5">
+        <v>33.81</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1720</v>
+      </c>
+      <c r="E24" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>195</v>
+      </c>
+      <c r="G24" s="5">
+        <v>221728</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10322.75</v>
+      </c>
+      <c r="I24" s="5">
+        <v>47.96</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1710</v>
+      </c>
+      <c r="K24" s="5">
+        <v>100</v>
+      </c>
+      <c r="L24" s="5">
+        <v>268</v>
+      </c>
+      <c r="M24" s="5">
+        <v>172996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>14729.2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>33.93</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1790</v>
+      </c>
+      <c r="E25" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>194</v>
+      </c>
+      <c r="G25" s="5">
+        <v>219552</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10462.030000000001</v>
+      </c>
+      <c r="I25" s="5">
+        <v>47.33</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1740</v>
+      </c>
+      <c r="K25" s="5">
+        <v>100</v>
+      </c>
+      <c r="L25" s="5">
+        <v>265</v>
+      </c>
+      <c r="M25" s="5">
+        <v>118604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>14749.95</v>
+      </c>
+      <c r="C26" s="5">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1649</v>
+      </c>
+      <c r="E26" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>198</v>
+      </c>
+      <c r="G26" s="5">
+        <v>234800</v>
+      </c>
+      <c r="H26" s="5">
+        <v>10337.76</v>
+      </c>
+      <c r="I26" s="5">
+        <v>47.97</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1770</v>
+      </c>
+      <c r="K26" s="5">
+        <v>100</v>
+      </c>
+      <c r="L26" s="5">
+        <v>250</v>
+      </c>
+      <c r="M26" s="5">
+        <v>174576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>14722.22</v>
+      </c>
+      <c r="C27" s="5">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1920</v>
+      </c>
+      <c r="E27" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>193</v>
+      </c>
+      <c r="G27" s="5">
+        <v>243920</v>
+      </c>
+      <c r="H27" s="5">
+        <v>10478.85</v>
+      </c>
+      <c r="I27" s="5">
+        <v>47.32</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1740</v>
+      </c>
+      <c r="K27" s="5">
+        <v>100</v>
+      </c>
+      <c r="L27" s="5">
+        <v>264</v>
+      </c>
+      <c r="M27" s="5">
+        <v>175628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>14628.28</v>
+      </c>
+      <c r="C28" s="5">
+        <v>34.14</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1820</v>
+      </c>
+      <c r="E28" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>194</v>
+      </c>
+      <c r="G28" s="5">
+        <v>257200</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10254</v>
+      </c>
+      <c r="I28" s="5">
+        <v>48.39</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1740</v>
+      </c>
+      <c r="K28" s="5">
+        <v>100</v>
+      </c>
+      <c r="L28" s="5">
+        <v>262</v>
+      </c>
+      <c r="M28" s="5">
+        <v>175036</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDD11C-710E-9845-BD04-CC17D10F7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A726241-FFF1-D041-BEC1-16A529F6AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
     <sheet name="File Server" sheetId="2" r:id="rId2"/>
-    <sheet name="Fibonacci" sheetId="3" r:id="rId3"/>
+    <sheet name="File Server Lastvergleich" sheetId="4" r:id="rId3"/>
+    <sheet name="Fibonacci" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="18">
   <si>
     <t>Test Setup</t>
   </si>
@@ -89,6 +90,9 @@
   </si>
   <si>
     <t>Ausführungszeit (s)</t>
+  </si>
+  <si>
+    <t>Node.js Latest</t>
   </si>
 </sst>
 </file>
@@ -153,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,6 +169,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1334,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1978,7 @@
         <v>190</v>
       </c>
       <c r="G20" s="5">
-        <v>2098960</v>
+        <v>209896</v>
       </c>
       <c r="H20" s="5">
         <v>8410.83</v>
@@ -2289,11 +2296,3098 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
+  <dimension ref="A1:W71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="Q6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>50</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>24555.25</v>
+      </c>
+      <c r="C8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D8">
+        <v>25.73</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>98</v>
+      </c>
+      <c r="G8">
+        <v>83484</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>11853.46</v>
+      </c>
+      <c r="K8">
+        <v>4.22</v>
+      </c>
+      <c r="L8">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>137</v>
+      </c>
+      <c r="O8">
+        <v>69480</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>14237.06</v>
+      </c>
+      <c r="S8">
+        <v>3.51</v>
+      </c>
+      <c r="T8">
+        <v>116.84</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>174</v>
+      </c>
+      <c r="W8">
+        <v>88056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>24688.31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5">
+        <v>82824</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>11924.96</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4.08</v>
+      </c>
+      <c r="L9" s="5">
+        <v>71.56</v>
+      </c>
+      <c r="M9" s="5">
+        <v>100</v>
+      </c>
+      <c r="N9" s="5">
+        <v>135</v>
+      </c>
+      <c r="O9" s="5">
+        <v>71184</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>14305.85</v>
+      </c>
+      <c r="S9" s="5">
+        <v>3.49</v>
+      </c>
+      <c r="T9" s="5">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="U9" s="5">
+        <v>100</v>
+      </c>
+      <c r="V9" s="5">
+        <v>194</v>
+      </c>
+      <c r="W9" s="5">
+        <v>84784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>25083.61</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30.04</v>
+      </c>
+      <c r="E10" s="5">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <v>98</v>
+      </c>
+      <c r="G10" s="5">
+        <v>83876</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>12253.47</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4.08</v>
+      </c>
+      <c r="L10" s="5">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="M10" s="5">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5">
+        <v>135</v>
+      </c>
+      <c r="O10" s="5">
+        <v>74640</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5">
+        <v>14685.7</v>
+      </c>
+      <c r="S10" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="T10" s="5">
+        <v>146.91999999999999</v>
+      </c>
+      <c r="U10" s="5">
+        <v>100</v>
+      </c>
+      <c r="V10" s="5">
+        <v>193</v>
+      </c>
+      <c r="W10" s="5">
+        <v>82028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>24978.84</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>25.65</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5">
+        <v>101</v>
+      </c>
+      <c r="G11" s="5">
+        <v>83756</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>11806.59</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L11" s="5">
+        <v>64.23</v>
+      </c>
+      <c r="M11" s="5">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5">
+        <v>134</v>
+      </c>
+      <c r="O11" s="5">
+        <v>71224</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>4</v>
+      </c>
+      <c r="R11" s="5">
+        <v>14253.49</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="T11" s="5">
+        <v>161.68</v>
+      </c>
+      <c r="U11" s="5">
+        <v>100</v>
+      </c>
+      <c r="V11" s="5">
+        <v>193</v>
+      </c>
+      <c r="W11" s="5">
+        <v>85144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>24503.56</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="D12" s="5">
+        <v>29.26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5">
+        <v>98</v>
+      </c>
+      <c r="G12" s="5">
+        <v>82056</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>11819.12</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L12" s="5">
+        <v>73.19</v>
+      </c>
+      <c r="M12" s="5">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5">
+        <v>133</v>
+      </c>
+      <c r="O12" s="5">
+        <v>76260</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>14690.78</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="T12" s="5">
+        <v>127.55</v>
+      </c>
+      <c r="U12" s="5">
+        <v>100</v>
+      </c>
+      <c r="V12" s="5">
+        <v>197</v>
+      </c>
+      <c r="W12" s="5">
+        <v>86808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="Q14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>250</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4">
+        <v>250</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>250</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>24585.85</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10.17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>100.97</v>
+      </c>
+      <c r="E16" s="5">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>98</v>
+      </c>
+      <c r="G16" s="5">
+        <v>82372</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>9454.0400000000009</v>
+      </c>
+      <c r="K16" s="5">
+        <v>26.38</v>
+      </c>
+      <c r="L16" s="5">
+        <v>249.57</v>
+      </c>
+      <c r="M16" s="5">
+        <v>100</v>
+      </c>
+      <c r="N16" s="5">
+        <v>169</v>
+      </c>
+      <c r="O16" s="5">
+        <v>115504</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>12075.16</v>
+      </c>
+      <c r="S16" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="T16" s="5">
+        <v>860</v>
+      </c>
+      <c r="U16" s="5">
+        <v>100</v>
+      </c>
+      <c r="V16" s="5">
+        <v>222</v>
+      </c>
+      <c r="W16" s="5">
+        <v>128460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>24988.13</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>96.19</v>
+      </c>
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <v>97</v>
+      </c>
+      <c r="G17" s="5">
+        <v>83272</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>9395.36</v>
+      </c>
+      <c r="K17" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="L17" s="5">
+        <v>221.37</v>
+      </c>
+      <c r="M17" s="5">
+        <v>100</v>
+      </c>
+      <c r="N17" s="5">
+        <v>169</v>
+      </c>
+      <c r="O17" s="5">
+        <v>121036</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>12006.8</v>
+      </c>
+      <c r="S17" s="5">
+        <v>20.81</v>
+      </c>
+      <c r="T17" s="5">
+        <v>816.63</v>
+      </c>
+      <c r="U17" s="5">
+        <v>100</v>
+      </c>
+      <c r="V17" s="5">
+        <v>218</v>
+      </c>
+      <c r="W17" s="5">
+        <v>124552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>24290.11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10.29</v>
+      </c>
+      <c r="D18" s="5">
+        <v>73.98</v>
+      </c>
+      <c r="E18" s="5">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>97</v>
+      </c>
+      <c r="G18" s="5">
+        <v>83132</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9276.2000000000007</v>
+      </c>
+      <c r="K18" s="5">
+        <v>26.89</v>
+      </c>
+      <c r="L18" s="5">
+        <v>215.68</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
+      <c r="N18" s="5">
+        <v>173</v>
+      </c>
+      <c r="O18" s="5">
+        <v>112908</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3</v>
+      </c>
+      <c r="R18" s="5">
+        <v>12038.16</v>
+      </c>
+      <c r="S18" s="5">
+        <v>20.76</v>
+      </c>
+      <c r="T18" s="5">
+        <v>880</v>
+      </c>
+      <c r="U18" s="5">
+        <v>100</v>
+      </c>
+      <c r="V18" s="5">
+        <v>220</v>
+      </c>
+      <c r="W18" s="5">
+        <v>121192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>24399.87</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="D19" s="5">
+        <v>105.26</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>98</v>
+      </c>
+      <c r="G19" s="5">
+        <v>82808</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>9379.2000000000007</v>
+      </c>
+      <c r="K19" s="5">
+        <v>26.59</v>
+      </c>
+      <c r="L19" s="5">
+        <v>192.39</v>
+      </c>
+      <c r="M19" s="5">
+        <v>100</v>
+      </c>
+      <c r="N19" s="5">
+        <v>167</v>
+      </c>
+      <c r="O19" s="5">
+        <v>122620</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>4</v>
+      </c>
+      <c r="R19" s="5">
+        <v>11927.89</v>
+      </c>
+      <c r="S19" s="5">
+        <v>20.95</v>
+      </c>
+      <c r="T19" s="5">
+        <v>845.54</v>
+      </c>
+      <c r="U19" s="5">
+        <v>100</v>
+      </c>
+      <c r="V19" s="5">
+        <v>221</v>
+      </c>
+      <c r="W19" s="5">
+        <v>121700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>24926.9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>97</v>
+      </c>
+      <c r="G20" s="5">
+        <v>84088</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>9362.02</v>
+      </c>
+      <c r="K20" s="5">
+        <v>26.64</v>
+      </c>
+      <c r="L20" s="5">
+        <v>223.04</v>
+      </c>
+      <c r="M20" s="5">
+        <v>100</v>
+      </c>
+      <c r="N20" s="5">
+        <v>171</v>
+      </c>
+      <c r="O20" s="5">
+        <v>114472</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5</v>
+      </c>
+      <c r="R20" s="5">
+        <v>12158.18</v>
+      </c>
+      <c r="S20" s="5">
+        <v>20.56</v>
+      </c>
+      <c r="T20" s="5">
+        <v>860</v>
+      </c>
+      <c r="U20" s="5">
+        <v>100</v>
+      </c>
+      <c r="V20" s="5">
+        <v>221</v>
+      </c>
+      <c r="W20" s="5">
+        <v>121488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="Q22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>500</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>500</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>500</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>23899.18</v>
+      </c>
+      <c r="C24" s="6">
+        <v>20.91</v>
+      </c>
+      <c r="D24" s="6">
+        <v>116.19</v>
+      </c>
+      <c r="E24" s="5">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5">
+        <v>96</v>
+      </c>
+      <c r="G24" s="5">
+        <v>82128</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>7650.31</v>
+      </c>
+      <c r="K24" s="5">
+        <v>64.53</v>
+      </c>
+      <c r="L24" s="5">
+        <v>287.7</v>
+      </c>
+      <c r="M24" s="5">
+        <v>100</v>
+      </c>
+      <c r="N24" s="5">
+        <v>166</v>
+      </c>
+      <c r="O24" s="5">
+        <v>105356</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5">
+        <v>10322.75</v>
+      </c>
+      <c r="S24" s="5">
+        <v>47.96</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1710</v>
+      </c>
+      <c r="U24" s="5">
+        <v>100</v>
+      </c>
+      <c r="V24" s="5">
+        <v>268</v>
+      </c>
+      <c r="W24" s="5">
+        <v>172996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24201.74</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20.65</v>
+      </c>
+      <c r="D25" s="5">
+        <v>108.4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5">
+        <v>96</v>
+      </c>
+      <c r="G25" s="5">
+        <v>83196</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>8460.4599999999991</v>
+      </c>
+      <c r="K25" s="5">
+        <v>58.41</v>
+      </c>
+      <c r="L25" s="5">
+        <v>305.45999999999998</v>
+      </c>
+      <c r="M25" s="5">
+        <v>100</v>
+      </c>
+      <c r="N25" s="5">
+        <v>176</v>
+      </c>
+      <c r="O25" s="5">
+        <v>106928</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>10462.030000000001</v>
+      </c>
+      <c r="S25" s="5">
+        <v>47.33</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1740</v>
+      </c>
+      <c r="U25" s="5">
+        <v>100</v>
+      </c>
+      <c r="V25" s="5">
+        <v>265</v>
+      </c>
+      <c r="W25" s="5">
+        <v>118604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24153.93</v>
+      </c>
+      <c r="C26" s="5">
+        <v>20.69</v>
+      </c>
+      <c r="D26" s="5">
+        <v>115.38</v>
+      </c>
+      <c r="E26" s="5">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>82692</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8428.35</v>
+      </c>
+      <c r="K26" s="5">
+        <v>58.51</v>
+      </c>
+      <c r="L26" s="5">
+        <v>285.69</v>
+      </c>
+      <c r="M26" s="5">
+        <v>100</v>
+      </c>
+      <c r="N26" s="5">
+        <v>166</v>
+      </c>
+      <c r="O26" s="5">
+        <v>103704</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>3</v>
+      </c>
+      <c r="R26" s="5">
+        <v>10337.76</v>
+      </c>
+      <c r="S26" s="5">
+        <v>47.97</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1770</v>
+      </c>
+      <c r="U26" s="5">
+        <v>100</v>
+      </c>
+      <c r="V26" s="5">
+        <v>250</v>
+      </c>
+      <c r="W26" s="5">
+        <v>174576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>23658.7</v>
+      </c>
+      <c r="C27" s="5">
+        <v>21.12</v>
+      </c>
+      <c r="D27" s="5">
+        <v>119.64</v>
+      </c>
+      <c r="E27" s="5">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5">
+        <v>98</v>
+      </c>
+      <c r="G27" s="5">
+        <v>82672</v>
+      </c>
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
+        <v>8292.3700000000008</v>
+      </c>
+      <c r="K27" s="5">
+        <v>59.61</v>
+      </c>
+      <c r="L27" s="5">
+        <v>313.20999999999998</v>
+      </c>
+      <c r="M27" s="5">
+        <v>100</v>
+      </c>
+      <c r="N27" s="5">
+        <v>171</v>
+      </c>
+      <c r="O27" s="5">
+        <v>106108</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>4</v>
+      </c>
+      <c r="R27" s="5">
+        <v>10478.85</v>
+      </c>
+      <c r="S27" s="5">
+        <v>47.32</v>
+      </c>
+      <c r="T27" s="5">
+        <v>1740</v>
+      </c>
+      <c r="U27" s="5">
+        <v>100</v>
+      </c>
+      <c r="V27" s="5">
+        <v>264</v>
+      </c>
+      <c r="W27" s="5">
+        <v>175628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>24399.08</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>117.62</v>
+      </c>
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5">
+        <v>99</v>
+      </c>
+      <c r="G28" s="5">
+        <v>82948</v>
+      </c>
+      <c r="I28" s="5">
+        <v>5</v>
+      </c>
+      <c r="J28" s="5">
+        <v>8410.83</v>
+      </c>
+      <c r="K28" s="5">
+        <v>58.73</v>
+      </c>
+      <c r="L28" s="5">
+        <v>292.88</v>
+      </c>
+      <c r="M28" s="5">
+        <v>100</v>
+      </c>
+      <c r="N28" s="5">
+        <v>165</v>
+      </c>
+      <c r="O28" s="5">
+        <v>104264</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>5</v>
+      </c>
+      <c r="R28" s="5">
+        <v>10254</v>
+      </c>
+      <c r="S28" s="5">
+        <v>48.39</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1740</v>
+      </c>
+      <c r="U28" s="5">
+        <v>100</v>
+      </c>
+      <c r="V28" s="5">
+        <v>262</v>
+      </c>
+      <c r="W28" s="5">
+        <v>175036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>24363.11</v>
+      </c>
+      <c r="C29" s="5">
+        <v>20.51</v>
+      </c>
+      <c r="D29" s="5">
+        <v>120.77</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5">
+        <v>99</v>
+      </c>
+      <c r="G29" s="5">
+        <v>84116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="I30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="Q30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4">
+        <v>500</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>500</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5">
+        <v>23963.96</v>
+      </c>
+      <c r="C32" s="5">
+        <v>41.81</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1230</v>
+      </c>
+      <c r="E32" s="5">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5">
+        <v>98</v>
+      </c>
+      <c r="G32" s="5">
+        <v>82180</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>8491.34</v>
+      </c>
+      <c r="K32" s="5">
+        <v>118.31</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M32" s="5">
+        <v>100</v>
+      </c>
+      <c r="N32" s="5">
+        <v>170</v>
+      </c>
+      <c r="O32" s="5">
+        <v>140472</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>8535.43</v>
+      </c>
+      <c r="S32" s="5">
+        <v>116.42</v>
+      </c>
+      <c r="T32" s="5">
+        <v>4240</v>
+      </c>
+      <c r="U32" s="5">
+        <v>100</v>
+      </c>
+      <c r="V32" s="5">
+        <v>278</v>
+      </c>
+      <c r="W32" s="5">
+        <v>213864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>23684.71</v>
+      </c>
+      <c r="C33" s="5">
+        <v>42.25</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1160</v>
+      </c>
+      <c r="E33" s="5">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5">
+        <v>95</v>
+      </c>
+      <c r="G33" s="5">
+        <v>81876</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>7656.16</v>
+      </c>
+      <c r="K33" s="5">
+        <v>130.41999999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M33" s="5">
+        <v>100</v>
+      </c>
+      <c r="N33" s="5">
+        <v>178</v>
+      </c>
+      <c r="O33" s="5">
+        <v>143180</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>2</v>
+      </c>
+      <c r="R33" s="5">
+        <v>8553.51</v>
+      </c>
+      <c r="S33" s="5">
+        <v>116.28</v>
+      </c>
+      <c r="T33" s="5">
+        <v>3810</v>
+      </c>
+      <c r="U33" s="5">
+        <v>100</v>
+      </c>
+      <c r="V33" s="5">
+        <v>279</v>
+      </c>
+      <c r="W33" s="5">
+        <v>209776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5">
+        <v>23702.16</v>
+      </c>
+      <c r="C34" s="5">
+        <v>42.25</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1170</v>
+      </c>
+      <c r="E34" s="5">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5">
+        <v>93</v>
+      </c>
+      <c r="G34" s="5">
+        <v>83052</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5">
+        <v>7714.78</v>
+      </c>
+      <c r="K34" s="5">
+        <v>129.41999999999999</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1270</v>
+      </c>
+      <c r="M34" s="5">
+        <v>100</v>
+      </c>
+      <c r="N34" s="5">
+        <v>160</v>
+      </c>
+      <c r="O34" s="5">
+        <v>178588</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>3</v>
+      </c>
+      <c r="R34" s="5">
+        <v>8573.2199999999993</v>
+      </c>
+      <c r="S34" s="5">
+        <v>115.88</v>
+      </c>
+      <c r="T34" s="5">
+        <v>4240</v>
+      </c>
+      <c r="U34" s="5">
+        <v>100</v>
+      </c>
+      <c r="V34" s="5">
+        <v>277</v>
+      </c>
+      <c r="W34" s="5">
+        <v>209276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
+        <v>23546.82</v>
+      </c>
+      <c r="C35" s="5">
+        <v>42.53</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1160</v>
+      </c>
+      <c r="E35" s="5">
+        <v>100</v>
+      </c>
+      <c r="F35" s="5">
+        <v>98</v>
+      </c>
+      <c r="G35" s="5">
+        <v>82880</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5">
+        <v>8174.67</v>
+      </c>
+      <c r="K35" s="5">
+        <v>123.02</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1270</v>
+      </c>
+      <c r="M35" s="5">
+        <v>100</v>
+      </c>
+      <c r="N35" s="5">
+        <v>152</v>
+      </c>
+      <c r="O35" s="5">
+        <v>149484</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>4</v>
+      </c>
+      <c r="R35" s="5">
+        <v>8655.02</v>
+      </c>
+      <c r="S35" s="5">
+        <v>114.96</v>
+      </c>
+      <c r="T35" s="5">
+        <v>4100</v>
+      </c>
+      <c r="U35" s="5">
+        <v>100</v>
+      </c>
+      <c r="V35" s="5">
+        <v>281</v>
+      </c>
+      <c r="W35" s="5">
+        <v>211692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5">
+        <v>24036.35</v>
+      </c>
+      <c r="C36" s="5">
+        <v>41.63</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1130</v>
+      </c>
+      <c r="E36" s="5">
+        <v>100</v>
+      </c>
+      <c r="F36" s="5">
+        <v>97</v>
+      </c>
+      <c r="G36" s="5">
+        <v>83320</v>
+      </c>
+      <c r="I36" s="5">
+        <v>5</v>
+      </c>
+      <c r="J36" s="5">
+        <v>7698.82</v>
+      </c>
+      <c r="K36" s="5">
+        <v>129.62</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M36" s="5">
+        <v>100</v>
+      </c>
+      <c r="N36" s="5">
+        <v>177</v>
+      </c>
+      <c r="O36" s="5">
+        <v>147612</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>5</v>
+      </c>
+      <c r="R36" s="5">
+        <v>8630.1</v>
+      </c>
+      <c r="S36" s="5">
+        <v>115.3</v>
+      </c>
+      <c r="T36" s="5">
+        <v>4070</v>
+      </c>
+      <c r="U36" s="5">
+        <v>100</v>
+      </c>
+      <c r="V36" s="5">
+        <v>283</v>
+      </c>
+      <c r="W36" s="5">
+        <v>213220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="Q40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="I41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="Q41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4">
+        <v>50</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>50</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="Q44" s="5">
+        <v>2</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="I45" s="5">
+        <v>3</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="Q45" s="5">
+        <v>3</v>
+      </c>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="I46" s="5">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="Q46" s="5">
+        <v>4</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="I47" s="5">
+        <v>5</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="Q47" s="5">
+        <v>5</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="I49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="Q49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>250</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>250</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>250</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="Q51" s="5">
+        <v>1</v>
+      </c>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="5">
+        <v>2</v>
+      </c>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="Q53" s="5">
+        <v>3</v>
+      </c>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="I54" s="5">
+        <v>4</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="Q54" s="5">
+        <v>4</v>
+      </c>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="I55" s="5">
+        <v>5</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="Q55" s="5">
+        <v>5</v>
+      </c>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="I57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="Q57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>500</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="4">
+        <v>500</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>500</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>23707.59</v>
+      </c>
+      <c r="C59">
+        <v>21.08</v>
+      </c>
+      <c r="D59">
+        <v>195.63</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59">
+        <v>90</v>
+      </c>
+      <c r="G59">
+        <v>64264</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>14317.65</v>
+      </c>
+      <c r="K59" s="5">
+        <v>34.93</v>
+      </c>
+      <c r="L59" s="5">
+        <v>248.08</v>
+      </c>
+      <c r="M59" s="5">
+        <v>100</v>
+      </c>
+      <c r="N59" s="5">
+        <v>189</v>
+      </c>
+      <c r="O59" s="5">
+        <v>229776</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>1</v>
+      </c>
+      <c r="R59" s="5">
+        <v>14790.27</v>
+      </c>
+      <c r="S59" s="5">
+        <v>33.81</v>
+      </c>
+      <c r="T59" s="5">
+        <v>1720</v>
+      </c>
+      <c r="U59" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="V59" s="5">
+        <v>195</v>
+      </c>
+      <c r="W59" s="5">
+        <v>221728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>2</v>
+      </c>
+      <c r="B60" s="5">
+        <v>23920.81</v>
+      </c>
+      <c r="C60" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="D60" s="5">
+        <v>239.5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>100</v>
+      </c>
+      <c r="F60" s="5">
+        <v>86</v>
+      </c>
+      <c r="G60" s="5">
+        <v>65040</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2</v>
+      </c>
+      <c r="J60" s="5">
+        <v>14508.2</v>
+      </c>
+      <c r="K60" s="5">
+        <v>34.46</v>
+      </c>
+      <c r="L60" s="5">
+        <v>231.62</v>
+      </c>
+      <c r="M60" s="5">
+        <v>100</v>
+      </c>
+      <c r="N60" s="5">
+        <v>197</v>
+      </c>
+      <c r="O60" s="5">
+        <v>198496</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>2</v>
+      </c>
+      <c r="R60" s="5">
+        <v>14729.2</v>
+      </c>
+      <c r="S60" s="5">
+        <v>33.93</v>
+      </c>
+      <c r="T60" s="5">
+        <v>1790</v>
+      </c>
+      <c r="U60" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="V60" s="5">
+        <v>194</v>
+      </c>
+      <c r="W60" s="5">
+        <v>219552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5">
+        <v>23909.89</v>
+      </c>
+      <c r="C61" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="D61" s="5">
+        <v>204.46</v>
+      </c>
+      <c r="E61" s="5">
+        <v>100</v>
+      </c>
+      <c r="F61" s="5">
+        <v>90</v>
+      </c>
+      <c r="G61" s="5">
+        <v>65024</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3</v>
+      </c>
+      <c r="J61" s="5">
+        <v>14466.72</v>
+      </c>
+      <c r="K61" s="5">
+        <v>34.56</v>
+      </c>
+      <c r="L61" s="5">
+        <v>214.82</v>
+      </c>
+      <c r="M61" s="5">
+        <v>100</v>
+      </c>
+      <c r="N61" s="5">
+        <v>185</v>
+      </c>
+      <c r="O61" s="5">
+        <v>208496</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>3</v>
+      </c>
+      <c r="R61" s="5">
+        <v>14749.95</v>
+      </c>
+      <c r="S61" s="5">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="T61" s="5">
+        <v>1649</v>
+      </c>
+      <c r="U61" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="V61" s="5">
+        <v>198</v>
+      </c>
+      <c r="W61" s="5">
+        <v>234800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5">
+        <v>23825.78</v>
+      </c>
+      <c r="C62" s="5">
+        <v>20.98</v>
+      </c>
+      <c r="D62" s="5">
+        <v>206.59</v>
+      </c>
+      <c r="E62" s="5">
+        <v>100</v>
+      </c>
+      <c r="F62" s="5">
+        <v>89</v>
+      </c>
+      <c r="G62" s="5">
+        <v>64880</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4</v>
+      </c>
+      <c r="J62" s="5">
+        <v>14610.55</v>
+      </c>
+      <c r="K62" s="5">
+        <v>34.21</v>
+      </c>
+      <c r="L62" s="5">
+        <v>198.59</v>
+      </c>
+      <c r="M62" s="5">
+        <v>100</v>
+      </c>
+      <c r="N62" s="5">
+        <v>176</v>
+      </c>
+      <c r="O62" s="5">
+        <v>212880</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>4</v>
+      </c>
+      <c r="R62" s="5">
+        <v>14722.22</v>
+      </c>
+      <c r="S62" s="5">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="T62" s="5">
+        <v>1920</v>
+      </c>
+      <c r="U62" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="V62" s="5">
+        <v>193</v>
+      </c>
+      <c r="W62" s="5">
+        <v>243920</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>5</v>
+      </c>
+      <c r="B63" s="5">
+        <v>23879.56</v>
+      </c>
+      <c r="C63" s="5">
+        <v>20.93</v>
+      </c>
+      <c r="D63" s="5">
+        <v>220.08</v>
+      </c>
+      <c r="E63" s="5">
+        <v>100</v>
+      </c>
+      <c r="F63" s="5">
+        <v>90</v>
+      </c>
+      <c r="G63" s="5">
+        <v>64880</v>
+      </c>
+      <c r="I63" s="5">
+        <v>5</v>
+      </c>
+      <c r="J63" s="5">
+        <v>14647.9</v>
+      </c>
+      <c r="K63" s="5">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="L63" s="5">
+        <v>238.61</v>
+      </c>
+      <c r="M63" s="5">
+        <v>100</v>
+      </c>
+      <c r="N63" s="5">
+        <v>190</v>
+      </c>
+      <c r="O63" s="5">
+        <v>209896</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>5</v>
+      </c>
+      <c r="R63" s="5">
+        <v>14628.28</v>
+      </c>
+      <c r="S63" s="5">
+        <v>34.14</v>
+      </c>
+      <c r="T63" s="5">
+        <v>1820</v>
+      </c>
+      <c r="U63" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="V63" s="5">
+        <v>194</v>
+      </c>
+      <c r="W63" s="5">
+        <v>257200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="I65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="Q65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="4">
+        <v>500</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>500</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>1</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="Q67" s="5">
+        <v>1</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>2</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="I68" s="5">
+        <v>2</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="Q68" s="5">
+        <v>2</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="I69" s="5">
+        <v>3</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="Q69" s="5">
+        <v>3</v>
+      </c>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>4</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="I70" s="5">
+        <v>4</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="Q70" s="5">
+        <v>4</v>
+      </c>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>5</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="I71" s="5">
+        <v>5</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="Q71" s="5">
+        <v>5</v>
+      </c>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="J65:O65"/>
+    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J22:O22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF6B1F4-20D1-40B4-A48B-99C2148CCD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301B95C-F737-4E72-99C2-C9304752AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="87" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -4998,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -5013,7 +5013,7 @@
         <v>15</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.31</v>
+        <v>3.21</v>
       </c>
       <c r="C5">
         <v>0.41</v>
@@ -5051,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.31</v>
+        <v>3.21</v>
       </c>
       <c r="C6">
         <v>0.41</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.31</v>
+        <v>3.21</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.31</v>
+        <v>3.22</v>
       </c>
       <c r="C8">
         <v>0.42</v>
@@ -5084,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.31</v>
+        <v>3.21</v>
       </c>
       <c r="C9">
         <v>0.42</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.62</v>
+        <v>6.46</v>
       </c>
       <c r="C13">
         <v>0.68</v>
@@ -5125,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.62</v>
+        <v>6.47</v>
       </c>
       <c r="C14">
         <v>0.68</v>
@@ -5136,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.62</v>
+        <v>6.46</v>
       </c>
       <c r="C15">
         <v>0.69</v>
@@ -5147,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0.62</v>
+        <v>6.46</v>
       </c>
       <c r="C16">
         <v>0.67</v>
@@ -5158,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0.62</v>
+        <v>6.46</v>
       </c>
       <c r="C17">
         <v>0.69</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="C21">
         <v>0.66</v>
@@ -5199,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="C22">
         <v>0.67</v>
@@ -5210,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="C23">
         <v>0.67</v>
@@ -5221,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>6.29</v>
       </c>
       <c r="C24">
         <v>0.67</v>
@@ -5232,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>6.29</v>
       </c>
       <c r="C25">
         <v>0.69</v>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301B95C-F737-4E72-99C2-C9304752AD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB372B78-BC07-3E4F-BCFF-AC4E536C2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="19">
   <si>
     <t>Test Setup</t>
   </si>
@@ -94,12 +94,15 @@
   <si>
     <t>Node.js Latest</t>
   </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,9 +177,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,45 +494,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,7 +555,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -625,7 +637,7 @@
         <v>47188</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -666,7 +678,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -707,7 +719,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -748,7 +760,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -789,117 +801,129 @@
         <v>48484</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <f>AVERAGE(B8:B12)</f>
+        <v>75685.819999999992</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:M13" si="0">AVERAGE(C8:C12)</f>
+        <v>6.6079999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>167.7</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>82.6</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>28902.400000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>103215.08199999999</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>103.06799999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>95.4</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>47986.400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>46037.35</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>10.36</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>180.79</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>84</v>
-      </c>
-      <c r="G16">
-        <v>93536</v>
-      </c>
-      <c r="H16">
-        <v>30421.51</v>
-      </c>
-      <c r="I16">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="J16">
-        <v>230.8</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>96</v>
-      </c>
-      <c r="M16">
-        <v>93856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>46323.8</v>
-      </c>
-      <c r="C17">
-        <v>10.86</v>
-      </c>
-      <c r="D17">
-        <v>202.56</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -908,16 +932,16 @@
         <v>84</v>
       </c>
       <c r="G17">
-        <v>94432</v>
+        <v>93536</v>
       </c>
       <c r="H17">
-        <v>30448.93</v>
+        <v>30421.51</v>
       </c>
       <c r="I17">
-        <v>16.420000000000002</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="J17">
-        <v>208.43</v>
+        <v>230.8</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -926,325 +950,337 @@
         <v>96</v>
       </c>
       <c r="M17">
+        <v>93856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>46323.8</v>
+      </c>
+      <c r="C18">
+        <v>10.86</v>
+      </c>
+      <c r="D18">
+        <v>202.56</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>94432</v>
+      </c>
+      <c r="H18">
+        <v>30448.93</v>
+      </c>
+      <c r="I18">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="J18">
+        <v>208.43</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>96</v>
+      </c>
+      <c r="M18">
         <v>93212</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>45762.3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>10.92</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>199.71</v>
       </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
         <v>85</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>93456</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>29999.89</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>16.670000000000002</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>215.64</v>
       </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
         <v>95</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>93144</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>45035.39</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>11.1</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>195.63</v>
       </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
         <v>86</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>93584</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>30122.16</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>16.59</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>176.54</v>
       </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19">
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
         <v>94</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>92928</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>45776.81</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>10.92</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>144.27000000000001</v>
       </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
         <v>85</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>94016</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>30488.92</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>16.39</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>199.07</v>
       </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20">
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
         <v>96</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>93116</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(B17:B21)</f>
+        <v>45787.130000000005</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22" si="1">AVERAGE(C17:C21)</f>
+        <v>10.832000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22" si="2">AVERAGE(D17:D21)</f>
+        <v>184.59200000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="3">AVERAGE(E17:E21)</f>
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22" si="4">AVERAGE(F17:F21)</f>
+        <v>84.8</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ref="G22" si="5">AVERAGE(G17:G21)</f>
+        <v>93804.800000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ref="H22" si="6">AVERAGE(H17:H21)</f>
+        <v>30296.281999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ref="I22" si="7">AVERAGE(I17:I21)</f>
+        <v>16.502000000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ref="J22" si="8">AVERAGE(J17:J21)</f>
+        <v>206.096</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22" si="9">AVERAGE(K17:K21)</f>
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ref="L22" si="10">AVERAGE(L17:L21)</f>
+        <v>95.4</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22" si="11">AVERAGE(M17:M21)</f>
+        <v>93251.199999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>45680.37</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>10.94</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>1840</v>
       </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
         <v>86</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>85584</v>
       </c>
-      <c r="H24">
+      <c r="H26">
         <v>32358.13</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <v>15.45</v>
       </c>
-      <c r="J24">
+      <c r="J26">
         <v>7960</v>
       </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
-      </c>
-      <c r="M24">
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
         <v>86652</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>45880.89</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>10.89</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>1860</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>86</v>
-      </c>
-      <c r="G25">
-        <v>85520</v>
-      </c>
-      <c r="H25">
-        <v>31700.99</v>
-      </c>
-      <c r="I25">
-        <v>15.78</v>
-      </c>
-      <c r="J25">
-        <v>8340</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
-        <v>90</v>
-      </c>
-      <c r="M25">
-        <v>86396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>45939.12</v>
-      </c>
-      <c r="C26">
-        <v>10.88</v>
-      </c>
-      <c r="D26">
-        <v>1570</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>85</v>
-      </c>
-      <c r="G26">
-        <v>84386</v>
-      </c>
-      <c r="H26">
-        <v>32244.05</v>
-      </c>
-      <c r="I26">
-        <v>15.51</v>
-      </c>
-      <c r="J26">
-        <v>9280</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>95</v>
-      </c>
-      <c r="M26">
-        <v>86280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>45932.14</v>
-      </c>
-      <c r="C27">
-        <v>10.88</v>
-      </c>
-      <c r="D27">
-        <v>1650</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -1253,39 +1289,39 @@
         <v>86</v>
       </c>
       <c r="G27">
-        <v>83616</v>
+        <v>85520</v>
       </c>
       <c r="H27">
-        <v>32856.68</v>
+        <v>31700.99</v>
       </c>
       <c r="I27">
-        <v>15.21</v>
+        <v>15.78</v>
       </c>
       <c r="J27">
-        <v>8210</v>
+        <v>8340</v>
       </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M27">
-        <v>86284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>86396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>45974.99</v>
+        <v>45939.12</v>
       </c>
       <c r="C28">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="D28">
-        <v>1120</v>
+        <v>1570</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1294,35 +1330,170 @@
         <v>85</v>
       </c>
       <c r="G28">
+        <v>84386</v>
+      </c>
+      <c r="H28">
+        <v>32244.05</v>
+      </c>
+      <c r="I28">
+        <v>15.51</v>
+      </c>
+      <c r="J28">
+        <v>9280</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>95</v>
+      </c>
+      <c r="M28">
+        <v>86280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>45932.14</v>
+      </c>
+      <c r="C29">
+        <v>10.88</v>
+      </c>
+      <c r="D29">
+        <v>1650</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>86</v>
+      </c>
+      <c r="G29">
+        <v>83616</v>
+      </c>
+      <c r="H29">
+        <v>32856.68</v>
+      </c>
+      <c r="I29">
+        <v>15.21</v>
+      </c>
+      <c r="J29">
+        <v>8210</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>99</v>
+      </c>
+      <c r="M29">
+        <v>86284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>45974.99</v>
+      </c>
+      <c r="C30">
+        <v>10.87</v>
+      </c>
+      <c r="D30">
+        <v>1120</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30">
         <v>85680</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>32269.21</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>15.5</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>8440</v>
       </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
         <v>98</v>
       </c>
-      <c r="M28">
+      <c r="M30">
         <v>86636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <f>AVERAGE(B26:B30)</f>
+        <v>45881.502</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31" si="12">AVERAGE(C26:C30)</f>
+        <v>10.891999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="13">AVERAGE(D26:D30)</f>
+        <v>1608</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31" si="14">AVERAGE(E26:E30)</f>
+        <v>100</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31" si="15">AVERAGE(F26:F30)</f>
+        <v>85.6</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31" si="16">AVERAGE(G26:G30)</f>
+        <v>84957.2</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31" si="17">AVERAGE(H26:H30)</f>
+        <v>32285.811999999998</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31" si="18">AVERAGE(I26:I30)</f>
+        <v>15.489999999999998</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" ref="J31" si="19">AVERAGE(J26:J30)</f>
+        <v>8446</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" ref="K31" si="20">AVERAGE(K26:K30)</f>
+        <v>100</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ref="L31" si="21">AVERAGE(L26:L30)</f>
+        <v>96.4</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31" si="22">AVERAGE(M26:M30)</f>
+        <v>86449.600000000006</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H24:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1331,32 +1502,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1557,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1592,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -1486,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1551,7 +1722,7 @@
         <v>88056</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1616,7 +1787,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1681,7 +1852,7 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1746,7 +1917,7 @@
         <v>85144</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1811,227 +1982,245 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <f>AVERAGE(B8:B12)</f>
+        <v>24761.913999999997</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13" si="0">AVERAGE(C8:C12)</f>
+        <v>2.0159999999999996</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
+        <v>30.225999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
+        <v>100</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
+        <v>99</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
+        <v>83199.199999999997</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6">
+        <f>AVERAGE(J8:J12)</f>
+        <v>11931.52</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" ref="K13" si="5">AVERAGE(K8:K12)</f>
+        <v>4.1680000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" ref="L13" si="6">AVERAGE(L8:L12)</f>
+        <v>71.806000000000012</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" ref="M13" si="7">AVERAGE(M8:M12)</f>
+        <v>100</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" ref="N13" si="8">AVERAGE(N8:N12)</f>
+        <v>134.80000000000001</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" ref="O13" si="9">AVERAGE(O8:O12)</f>
+        <v>72557.600000000006</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="6">
+        <f>AVERAGE(R8:R12)</f>
+        <v>14434.576000000001</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" ref="S13" si="10">AVERAGE(S8:S12)</f>
+        <v>3.4619999999999997</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" ref="T13" si="11">AVERAGE(T8:T12)</f>
+        <v>137.62599999999998</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" ref="U13" si="12">AVERAGE(U8:U12)</f>
+        <v>100</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13" si="13">AVERAGE(V8:V12)</f>
+        <v>190.2</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" ref="W13" si="14">AVERAGE(W8:W12)</f>
+        <v>85364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="I14" s="4" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="Q14" s="4" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="Q15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="4">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>250</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>250</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q16" s="4">
         <v>250</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="5">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>24585.85</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>10.17</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>100.97</v>
       </c>
-      <c r="E16" s="5">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E17" s="5">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
         <v>98</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <v>82372</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>1</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>9454.0400000000009</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>26.38</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L17" s="5">
         <v>249.57</v>
-      </c>
-      <c r="M16" s="5">
-        <v>100</v>
-      </c>
-      <c r="N16" s="5">
-        <v>169</v>
-      </c>
-      <c r="O16" s="5">
-        <v>115504</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1</v>
-      </c>
-      <c r="R16" s="5">
-        <v>12075.16</v>
-      </c>
-      <c r="S16" s="5">
-        <v>20.7</v>
-      </c>
-      <c r="T16" s="5">
-        <v>860</v>
-      </c>
-      <c r="U16" s="5">
-        <v>100</v>
-      </c>
-      <c r="V16" s="5">
-        <v>222</v>
-      </c>
-      <c r="W16" s="5">
-        <v>128460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5">
-        <v>24988.13</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <v>96.19</v>
-      </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>97</v>
-      </c>
-      <c r="G17" s="5">
-        <v>83272</v>
-      </c>
-      <c r="I17" s="5">
-        <v>2</v>
-      </c>
-      <c r="J17" s="5">
-        <v>9395.36</v>
-      </c>
-      <c r="K17" s="5">
-        <v>26.55</v>
-      </c>
-      <c r="L17" s="5">
-        <v>221.37</v>
       </c>
       <c r="M17" s="5">
         <v>100</v>
@@ -2040,42 +2229,42 @@
         <v>169</v>
       </c>
       <c r="O17" s="5">
-        <v>121036</v>
+        <v>115504</v>
       </c>
       <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>12075.16</v>
+      </c>
+      <c r="S17" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="T17" s="5">
+        <v>860</v>
+      </c>
+      <c r="U17" s="5">
+        <v>100</v>
+      </c>
+      <c r="V17" s="5">
+        <v>222</v>
+      </c>
+      <c r="W17" s="5">
+        <v>128460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="R17" s="5">
-        <v>12006.8</v>
-      </c>
-      <c r="S17" s="5">
-        <v>20.81</v>
-      </c>
-      <c r="T17" s="5">
-        <v>816.63</v>
-      </c>
-      <c r="U17" s="5">
-        <v>100</v>
-      </c>
-      <c r="V17" s="5">
-        <v>218</v>
-      </c>
-      <c r="W17" s="5">
-        <v>124552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
       <c r="B18" s="5">
-        <v>24290.11</v>
+        <v>24988.13</v>
       </c>
       <c r="C18" s="5">
-        <v>10.29</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>73.98</v>
+        <v>96.19</v>
       </c>
       <c r="E18" s="5">
         <v>100</v>
@@ -2084,170 +2273,170 @@
         <v>97</v>
       </c>
       <c r="G18" s="5">
+        <v>83272</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9395.36</v>
+      </c>
+      <c r="K18" s="5">
+        <v>26.55</v>
+      </c>
+      <c r="L18" s="5">
+        <v>221.37</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
+      <c r="N18" s="5">
+        <v>169</v>
+      </c>
+      <c r="O18" s="5">
+        <v>121036</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>12006.8</v>
+      </c>
+      <c r="S18" s="5">
+        <v>20.81</v>
+      </c>
+      <c r="T18" s="5">
+        <v>816.63</v>
+      </c>
+      <c r="U18" s="5">
+        <v>100</v>
+      </c>
+      <c r="V18" s="5">
+        <v>218</v>
+      </c>
+      <c r="W18" s="5">
+        <v>124552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>24290.11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10.29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>73.98</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>97</v>
+      </c>
+      <c r="G19" s="5">
         <v>83132</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <v>3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>9276.2000000000007</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>26.89</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="5">
         <v>215.68</v>
       </c>
-      <c r="M18" s="5">
-        <v>100</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="M19" s="5">
+        <v>100</v>
+      </c>
+      <c r="N19" s="5">
         <v>173</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O19" s="5">
         <v>112908</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q19" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R19" s="5">
         <v>12038.16</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S19" s="5">
         <v>20.76</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T19" s="5">
         <v>880</v>
       </c>
-      <c r="U18" s="5">
-        <v>100</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="U19" s="5">
+        <v>100</v>
+      </c>
+      <c r="V19" s="5">
         <v>220</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W19" s="5">
         <v>121192</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="5">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>24399.87</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>10.24</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>105.26</v>
       </c>
-      <c r="E19" s="5">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E20" s="5">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
         <v>98</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>82808</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <v>4</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <v>9379.2000000000007</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <v>26.59</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>192.39</v>
       </c>
-      <c r="M19" s="5">
-        <v>100</v>
-      </c>
-      <c r="N19" s="5">
+      <c r="M20" s="5">
+        <v>100</v>
+      </c>
+      <c r="N20" s="5">
         <v>167</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O20" s="5">
         <v>122620</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q20" s="5">
         <v>4</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R20" s="5">
         <v>11927.89</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S20" s="5">
         <v>20.95</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T20" s="5">
         <v>845.54</v>
-      </c>
-      <c r="U19" s="5">
-        <v>100</v>
-      </c>
-      <c r="V19" s="5">
-        <v>221</v>
-      </c>
-      <c r="W19" s="5">
-        <v>121700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5">
-        <v>24926.9</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <v>80.569999999999993</v>
-      </c>
-      <c r="E20" s="5">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>97</v>
-      </c>
-      <c r="G20" s="5">
-        <v>84088</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5</v>
-      </c>
-      <c r="J20" s="5">
-        <v>9362.02</v>
-      </c>
-      <c r="K20" s="5">
-        <v>26.64</v>
-      </c>
-      <c r="L20" s="5">
-        <v>223.04</v>
-      </c>
-      <c r="M20" s="5">
-        <v>100</v>
-      </c>
-      <c r="N20" s="5">
-        <v>171</v>
-      </c>
-      <c r="O20" s="5">
-        <v>114472</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>5</v>
-      </c>
-      <c r="R20" s="5">
-        <v>12158.18</v>
-      </c>
-      <c r="S20" s="5">
-        <v>20.56</v>
-      </c>
-      <c r="T20" s="5">
-        <v>860</v>
       </c>
       <c r="U20" s="5">
         <v>100</v>
@@ -2256,295 +2445,313 @@
         <v>221</v>
       </c>
       <c r="W20" s="5">
+        <v>121700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>24926.9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>80.569999999999993</v>
+      </c>
+      <c r="E21" s="5">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <v>97</v>
+      </c>
+      <c r="G21" s="5">
+        <v>84088</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>9362.02</v>
+      </c>
+      <c r="K21" s="5">
+        <v>26.64</v>
+      </c>
+      <c r="L21" s="5">
+        <v>223.04</v>
+      </c>
+      <c r="M21" s="5">
+        <v>100</v>
+      </c>
+      <c r="N21" s="5">
+        <v>171</v>
+      </c>
+      <c r="O21" s="5">
+        <v>114472</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>5</v>
+      </c>
+      <c r="R21" s="5">
+        <v>12158.18</v>
+      </c>
+      <c r="S21" s="5">
+        <v>20.56</v>
+      </c>
+      <c r="T21" s="5">
+        <v>860</v>
+      </c>
+      <c r="U21" s="5">
+        <v>100</v>
+      </c>
+      <c r="V21" s="5">
+        <v>221</v>
+      </c>
+      <c r="W21" s="5">
         <v>121488</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <f>AVERAGE(B17:B21)</f>
+        <v>24638.171999999999</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22" si="15">AVERAGE(C17:C21)</f>
+        <v>10.146000000000001</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22" si="16">AVERAGE(D17:D21)</f>
+        <v>91.393999999999991</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22" si="17">AVERAGE(E17:E21)</f>
+        <v>100</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22" si="18">AVERAGE(F17:F21)</f>
+        <v>97.4</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22" si="19">AVERAGE(G17:G21)</f>
+        <v>83134.399999999994</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="12">
+        <f>AVERAGE(J17:J21)</f>
+        <v>9373.3640000000014</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" ref="K22" si="20">AVERAGE(K17:K21)</f>
+        <v>26.610000000000003</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" ref="L22" si="21">AVERAGE(L17:L21)</f>
+        <v>220.41</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" ref="M22" si="22">AVERAGE(M17:M21)</f>
+        <v>100</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" ref="N22" si="23">AVERAGE(N17:N21)</f>
+        <v>169.8</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" ref="O22" si="24">AVERAGE(O17:O21)</f>
+        <v>117308</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="12">
+        <f>AVERAGE(R17:R21)</f>
+        <v>12041.237999999999</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" ref="S22" si="25">AVERAGE(S17:S21)</f>
+        <v>20.756</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" ref="T22" si="26">AVERAGE(T17:T21)</f>
+        <v>852.43399999999997</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" ref="U22" si="27">AVERAGE(U17:U21)</f>
+        <v>100</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" ref="V22" si="28">AVERAGE(V17:V21)</f>
+        <v>220.4</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" ref="W22" si="29">AVERAGE(W17:W21)</f>
+        <v>123478.39999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="4" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="Q22" s="4" t="s">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="Q24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="4">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>500</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I25" s="4">
         <v>500</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q25" s="4">
         <v>500</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="5">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B26" s="5">
         <v>23899.18</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C26" s="6">
         <v>20.91</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D26" s="6">
         <v>116.19</v>
       </c>
-      <c r="E24" s="5">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E26" s="5">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5">
         <v>96</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G26" s="5">
         <v>82128</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J26" s="5">
         <v>7650.31</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K26" s="5">
         <v>64.53</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L26" s="5">
         <v>287.7</v>
-      </c>
-      <c r="M24" s="5">
-        <v>100</v>
-      </c>
-      <c r="N24" s="5">
-        <v>166</v>
-      </c>
-      <c r="O24" s="5">
-        <v>105356</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>1</v>
-      </c>
-      <c r="R24" s="5">
-        <v>10322.75</v>
-      </c>
-      <c r="S24" s="5">
-        <v>47.96</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1710</v>
-      </c>
-      <c r="U24" s="5">
-        <v>100</v>
-      </c>
-      <c r="V24" s="5">
-        <v>268</v>
-      </c>
-      <c r="W24" s="5">
-        <v>172996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>24201.74</v>
-      </c>
-      <c r="C25" s="5">
-        <v>20.65</v>
-      </c>
-      <c r="D25" s="5">
-        <v>108.4</v>
-      </c>
-      <c r="E25" s="5">
-        <v>100</v>
-      </c>
-      <c r="F25" s="5">
-        <v>96</v>
-      </c>
-      <c r="G25" s="5">
-        <v>83196</v>
-      </c>
-      <c r="I25" s="5">
-        <v>2</v>
-      </c>
-      <c r="J25" s="5">
-        <v>8460.4599999999991</v>
-      </c>
-      <c r="K25" s="5">
-        <v>58.41</v>
-      </c>
-      <c r="L25" s="5">
-        <v>305.45999999999998</v>
-      </c>
-      <c r="M25" s="5">
-        <v>100</v>
-      </c>
-      <c r="N25" s="5">
-        <v>176</v>
-      </c>
-      <c r="O25" s="5">
-        <v>106928</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>2</v>
-      </c>
-      <c r="R25" s="5">
-        <v>10462.030000000001</v>
-      </c>
-      <c r="S25" s="5">
-        <v>47.33</v>
-      </c>
-      <c r="T25" s="5">
-        <v>1740</v>
-      </c>
-      <c r="U25" s="5">
-        <v>100</v>
-      </c>
-      <c r="V25" s="5">
-        <v>265</v>
-      </c>
-      <c r="W25" s="5">
-        <v>118604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="5">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5">
-        <v>24153.93</v>
-      </c>
-      <c r="C26" s="5">
-        <v>20.69</v>
-      </c>
-      <c r="D26" s="5">
-        <v>115.38</v>
-      </c>
-      <c r="E26" s="5">
-        <v>100</v>
-      </c>
-      <c r="F26" s="5">
-        <v>100</v>
-      </c>
-      <c r="G26" s="5">
-        <v>82692</v>
-      </c>
-      <c r="I26" s="5">
-        <v>3</v>
-      </c>
-      <c r="J26" s="5">
-        <v>8428.35</v>
-      </c>
-      <c r="K26" s="5">
-        <v>58.51</v>
-      </c>
-      <c r="L26" s="5">
-        <v>285.69</v>
       </c>
       <c r="M26" s="5">
         <v>100</v>
@@ -2553,81 +2760,81 @@
         <v>166</v>
       </c>
       <c r="O26" s="5">
-        <v>103704</v>
+        <v>105356</v>
       </c>
       <c r="Q26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" s="5">
-        <v>10337.76</v>
+        <v>10322.75</v>
       </c>
       <c r="S26" s="5">
-        <v>47.97</v>
+        <v>47.96</v>
       </c>
       <c r="T26" s="5">
-        <v>1770</v>
+        <v>1710</v>
       </c>
       <c r="U26" s="5">
         <v>100</v>
       </c>
       <c r="V26" s="5">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="W26" s="5">
-        <v>174576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>172996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5">
-        <v>23658.7</v>
+        <v>24201.74</v>
       </c>
       <c r="C27" s="5">
-        <v>21.12</v>
+        <v>20.65</v>
       </c>
       <c r="D27" s="5">
-        <v>119.64</v>
+        <v>108.4</v>
       </c>
       <c r="E27" s="5">
         <v>100</v>
       </c>
       <c r="F27" s="5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="5">
-        <v>82672</v>
+        <v>83196</v>
       </c>
       <c r="I27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" s="5">
-        <v>8292.3700000000008</v>
+        <v>8460.4599999999991</v>
       </c>
       <c r="K27" s="5">
-        <v>59.61</v>
+        <v>58.41</v>
       </c>
       <c r="L27" s="5">
-        <v>313.20999999999998</v>
+        <v>305.45999999999998</v>
       </c>
       <c r="M27" s="5">
         <v>100</v>
       </c>
       <c r="N27" s="5">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O27" s="5">
-        <v>106108</v>
+        <v>106928</v>
       </c>
       <c r="Q27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R27" s="5">
-        <v>10478.85</v>
+        <v>10462.030000000001</v>
       </c>
       <c r="S27" s="5">
-        <v>47.32</v>
+        <v>47.33</v>
       </c>
       <c r="T27" s="5">
         <v>1740</v>
@@ -2636,487 +2843,448 @@
         <v>100</v>
       </c>
       <c r="V27" s="5">
+        <v>265</v>
+      </c>
+      <c r="W27" s="5">
+        <v>118604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>24153.93</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20.69</v>
+      </c>
+      <c r="D28" s="5">
+        <v>115.38</v>
+      </c>
+      <c r="E28" s="5">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5">
+        <v>82692</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5">
+        <v>8428.35</v>
+      </c>
+      <c r="K28" s="5">
+        <v>58.51</v>
+      </c>
+      <c r="L28" s="5">
+        <v>285.69</v>
+      </c>
+      <c r="M28" s="5">
+        <v>100</v>
+      </c>
+      <c r="N28" s="5">
+        <v>166</v>
+      </c>
+      <c r="O28" s="5">
+        <v>103704</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>3</v>
+      </c>
+      <c r="R28" s="5">
+        <v>10337.76</v>
+      </c>
+      <c r="S28" s="5">
+        <v>47.97</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1770</v>
+      </c>
+      <c r="U28" s="5">
+        <v>100</v>
+      </c>
+      <c r="V28" s="5">
+        <v>250</v>
+      </c>
+      <c r="W28" s="5">
+        <v>174576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5">
+        <v>23658.7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>21.12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>119.64</v>
+      </c>
+      <c r="E29" s="5">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5">
+        <v>98</v>
+      </c>
+      <c r="G29" s="5">
+        <v>82672</v>
+      </c>
+      <c r="I29" s="5">
+        <v>4</v>
+      </c>
+      <c r="J29" s="5">
+        <v>8292.3700000000008</v>
+      </c>
+      <c r="K29" s="5">
+        <v>59.61</v>
+      </c>
+      <c r="L29" s="5">
+        <v>313.20999999999998</v>
+      </c>
+      <c r="M29" s="5">
+        <v>100</v>
+      </c>
+      <c r="N29" s="5">
+        <v>171</v>
+      </c>
+      <c r="O29" s="5">
+        <v>106108</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>4</v>
+      </c>
+      <c r="R29" s="5">
+        <v>10478.85</v>
+      </c>
+      <c r="S29" s="5">
+        <v>47.32</v>
+      </c>
+      <c r="T29" s="5">
+        <v>1740</v>
+      </c>
+      <c r="U29" s="5">
+        <v>100</v>
+      </c>
+      <c r="V29" s="5">
         <v>264</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W29" s="5">
         <v>175628</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="5">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>5</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B30" s="5">
         <v>24399.08</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C30" s="5">
         <v>20.5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D30" s="5">
         <v>117.62</v>
       </c>
-      <c r="E28" s="5">
-        <v>100</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
+      <c r="F30" s="5">
         <v>99</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G30" s="5">
         <v>82948</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I30" s="5">
         <v>5</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J30" s="5">
         <v>8410.83</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K30" s="5">
         <v>58.73</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L30" s="5">
         <v>292.88</v>
       </c>
-      <c r="M28" s="5">
-        <v>100</v>
-      </c>
-      <c r="N28" s="5">
+      <c r="M30" s="5">
+        <v>100</v>
+      </c>
+      <c r="N30" s="5">
         <v>165</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O30" s="5">
         <v>104264</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q30" s="5">
         <v>5</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R30" s="5">
         <v>10254</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S30" s="5">
         <v>48.39</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T30" s="5">
         <v>1740</v>
       </c>
-      <c r="U28" s="5">
-        <v>100</v>
-      </c>
-      <c r="V28" s="5">
+      <c r="U30" s="5">
+        <v>100</v>
+      </c>
+      <c r="V30" s="5">
         <v>262</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W30" s="5">
         <v>175036</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="B29" s="5">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
         <v>24363.11</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C31" s="5">
         <v>20.51</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D31" s="5">
         <v>120.77</v>
       </c>
-      <c r="E29" s="5">
-        <v>100</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E31" s="5">
+        <v>100</v>
+      </c>
+      <c r="F31" s="5">
         <v>99</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G31" s="5">
         <v>84116</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12">
+        <f>AVERAGE(B27:B31)</f>
+        <v>24155.311999999998</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32" si="30">AVERAGE(C27:C31)</f>
+        <v>20.694000000000003</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" ref="D32" si="31">AVERAGE(D27:D31)</f>
+        <v>116.36200000000001</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" ref="E32" si="32">AVERAGE(E27:E31)</f>
+        <v>100</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32" si="33">AVERAGE(F27:F31)</f>
+        <v>98.4</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" ref="G32" si="34">AVERAGE(G27:G31)</f>
+        <v>83124.800000000003</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="12">
+        <f>AVERAGE(J27:J31)</f>
+        <v>8398.0025000000005</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" ref="K32" si="35">AVERAGE(K27:K31)</f>
+        <v>58.814999999999991</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" ref="L32" si="36">AVERAGE(L27:L31)</f>
+        <v>299.30999999999995</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" ref="M32" si="37">AVERAGE(M27:M31)</f>
+        <v>100</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" ref="N32" si="38">AVERAGE(N27:N31)</f>
+        <v>169.5</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" ref="O32" si="39">AVERAGE(O27:O31)</f>
+        <v>105251</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="12">
+        <f>AVERAGE(R27:R31)</f>
+        <v>10383.16</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" ref="S32" si="40">AVERAGE(S27:S31)</f>
+        <v>47.752499999999998</v>
+      </c>
+      <c r="T32" s="12">
+        <f t="shared" ref="T32" si="41">AVERAGE(T27:T31)</f>
+        <v>1747.5</v>
+      </c>
+      <c r="U32" s="12">
+        <f t="shared" ref="U32" si="42">AVERAGE(U27:U31)</f>
+        <v>100</v>
+      </c>
+      <c r="V32" s="12">
+        <f t="shared" ref="V32" si="43">AVERAGE(V27:V31)</f>
+        <v>260.25</v>
+      </c>
+      <c r="W32" s="12">
+        <f t="shared" ref="W32" si="44">AVERAGE(W27:W31)</f>
+        <v>160961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="I30" s="4" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="I34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="Q30" s="4" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="Q34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="4">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>1000</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I35" s="4">
         <v>500</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q35" s="4">
         <v>500</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="T35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="V35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="5">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>1</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B36" s="5">
         <v>23963.96</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C36" s="5">
         <v>41.81</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D36" s="5">
         <v>1230</v>
       </c>
-      <c r="E32" s="5">
-        <v>100</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E36" s="5">
+        <v>100</v>
+      </c>
+      <c r="F36" s="5">
         <v>98</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G36" s="5">
         <v>82180</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I36" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J36" s="5">
         <v>8491.34</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K36" s="5">
         <v>118.31</v>
-      </c>
-      <c r="L32" s="5">
-        <v>1260</v>
-      </c>
-      <c r="M32" s="5">
-        <v>100</v>
-      </c>
-      <c r="N32" s="5">
-        <v>170</v>
-      </c>
-      <c r="O32" s="5">
-        <v>140472</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>1</v>
-      </c>
-      <c r="R32" s="5">
-        <v>8535.43</v>
-      </c>
-      <c r="S32" s="5">
-        <v>116.42</v>
-      </c>
-      <c r="T32" s="5">
-        <v>4240</v>
-      </c>
-      <c r="U32" s="5">
-        <v>100</v>
-      </c>
-      <c r="V32" s="5">
-        <v>278</v>
-      </c>
-      <c r="W32" s="5">
-        <v>213864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="5">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5">
-        <v>23684.71</v>
-      </c>
-      <c r="C33" s="5">
-        <v>42.25</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1160</v>
-      </c>
-      <c r="E33" s="5">
-        <v>100</v>
-      </c>
-      <c r="F33" s="5">
-        <v>95</v>
-      </c>
-      <c r="G33" s="5">
-        <v>81876</v>
-      </c>
-      <c r="I33" s="5">
-        <v>2</v>
-      </c>
-      <c r="J33" s="5">
-        <v>7656.16</v>
-      </c>
-      <c r="K33" s="5">
-        <v>130.41999999999999</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1260</v>
-      </c>
-      <c r="M33" s="5">
-        <v>100</v>
-      </c>
-      <c r="N33" s="5">
-        <v>178</v>
-      </c>
-      <c r="O33" s="5">
-        <v>143180</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>2</v>
-      </c>
-      <c r="R33" s="5">
-        <v>8553.51</v>
-      </c>
-      <c r="S33" s="5">
-        <v>116.28</v>
-      </c>
-      <c r="T33" s="5">
-        <v>3810</v>
-      </c>
-      <c r="U33" s="5">
-        <v>100</v>
-      </c>
-      <c r="V33" s="5">
-        <v>279</v>
-      </c>
-      <c r="W33" s="5">
-        <v>209776</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="5">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5">
-        <v>23702.16</v>
-      </c>
-      <c r="C34" s="5">
-        <v>42.25</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1170</v>
-      </c>
-      <c r="E34" s="5">
-        <v>100</v>
-      </c>
-      <c r="F34" s="5">
-        <v>93</v>
-      </c>
-      <c r="G34" s="5">
-        <v>83052</v>
-      </c>
-      <c r="I34" s="5">
-        <v>3</v>
-      </c>
-      <c r="J34" s="5">
-        <v>7714.78</v>
-      </c>
-      <c r="K34" s="5">
-        <v>129.41999999999999</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1270</v>
-      </c>
-      <c r="M34" s="5">
-        <v>100</v>
-      </c>
-      <c r="N34" s="5">
-        <v>160</v>
-      </c>
-      <c r="O34" s="5">
-        <v>178588</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>3</v>
-      </c>
-      <c r="R34" s="5">
-        <v>8573.2199999999993</v>
-      </c>
-      <c r="S34" s="5">
-        <v>115.88</v>
-      </c>
-      <c r="T34" s="5">
-        <v>4240</v>
-      </c>
-      <c r="U34" s="5">
-        <v>100</v>
-      </c>
-      <c r="V34" s="5">
-        <v>277</v>
-      </c>
-      <c r="W34" s="5">
-        <v>209276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="5">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5">
-        <v>23546.82</v>
-      </c>
-      <c r="C35" s="5">
-        <v>42.53</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1160</v>
-      </c>
-      <c r="E35" s="5">
-        <v>100</v>
-      </c>
-      <c r="F35" s="5">
-        <v>98</v>
-      </c>
-      <c r="G35" s="5">
-        <v>82880</v>
-      </c>
-      <c r="I35" s="5">
-        <v>4</v>
-      </c>
-      <c r="J35" s="5">
-        <v>8174.67</v>
-      </c>
-      <c r="K35" s="5">
-        <v>123.02</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1270</v>
-      </c>
-      <c r="M35" s="5">
-        <v>100</v>
-      </c>
-      <c r="N35" s="5">
-        <v>152</v>
-      </c>
-      <c r="O35" s="5">
-        <v>149484</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>4</v>
-      </c>
-      <c r="R35" s="5">
-        <v>8655.02</v>
-      </c>
-      <c r="S35" s="5">
-        <v>114.96</v>
-      </c>
-      <c r="T35" s="5">
-        <v>4100</v>
-      </c>
-      <c r="U35" s="5">
-        <v>100</v>
-      </c>
-      <c r="V35" s="5">
-        <v>281</v>
-      </c>
-      <c r="W35" s="5">
-        <v>211692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="5">
-        <v>5</v>
-      </c>
-      <c r="B36" s="5">
-        <v>24036.35</v>
-      </c>
-      <c r="C36" s="5">
-        <v>41.63</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1130</v>
-      </c>
-      <c r="E36" s="5">
-        <v>100</v>
-      </c>
-      <c r="F36" s="5">
-        <v>97</v>
-      </c>
-      <c r="G36" s="5">
-        <v>83320</v>
-      </c>
-      <c r="I36" s="5">
-        <v>5</v>
-      </c>
-      <c r="J36" s="5">
-        <v>7698.82</v>
-      </c>
-      <c r="K36" s="5">
-        <v>129.62</v>
       </c>
       <c r="L36" s="5">
         <v>1260</v>
@@ -3125,512 +3293,476 @@
         <v>100</v>
       </c>
       <c r="N36" s="5">
+        <v>170</v>
+      </c>
+      <c r="O36" s="5">
+        <v>140472</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5">
+        <v>8535.43</v>
+      </c>
+      <c r="S36" s="5">
+        <v>116.42</v>
+      </c>
+      <c r="T36" s="5">
+        <v>4240</v>
+      </c>
+      <c r="U36" s="5">
+        <v>100</v>
+      </c>
+      <c r="V36" s="5">
+        <v>278</v>
+      </c>
+      <c r="W36" s="5">
+        <v>213864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>23684.71</v>
+      </c>
+      <c r="C37" s="5">
+        <v>42.25</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1160</v>
+      </c>
+      <c r="E37" s="5">
+        <v>100</v>
+      </c>
+      <c r="F37" s="5">
+        <v>95</v>
+      </c>
+      <c r="G37" s="5">
+        <v>81876</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>7656.16</v>
+      </c>
+      <c r="K37" s="5">
+        <v>130.41999999999999</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M37" s="5">
+        <v>100</v>
+      </c>
+      <c r="N37" s="5">
+        <v>178</v>
+      </c>
+      <c r="O37" s="5">
+        <v>143180</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>2</v>
+      </c>
+      <c r="R37" s="5">
+        <v>8553.51</v>
+      </c>
+      <c r="S37" s="5">
+        <v>116.28</v>
+      </c>
+      <c r="T37" s="5">
+        <v>3810</v>
+      </c>
+      <c r="U37" s="5">
+        <v>100</v>
+      </c>
+      <c r="V37" s="5">
+        <v>279</v>
+      </c>
+      <c r="W37" s="5">
+        <v>209776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5">
+        <v>23702.16</v>
+      </c>
+      <c r="C38" s="5">
+        <v>42.25</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1170</v>
+      </c>
+      <c r="E38" s="5">
+        <v>100</v>
+      </c>
+      <c r="F38" s="5">
+        <v>93</v>
+      </c>
+      <c r="G38" s="5">
+        <v>83052</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3</v>
+      </c>
+      <c r="J38" s="5">
+        <v>7714.78</v>
+      </c>
+      <c r="K38" s="5">
+        <v>129.41999999999999</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1270</v>
+      </c>
+      <c r="M38" s="5">
+        <v>100</v>
+      </c>
+      <c r="N38" s="5">
+        <v>160</v>
+      </c>
+      <c r="O38" s="5">
+        <v>178588</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>3</v>
+      </c>
+      <c r="R38" s="5">
+        <v>8573.2199999999993</v>
+      </c>
+      <c r="S38" s="5">
+        <v>115.88</v>
+      </c>
+      <c r="T38" s="5">
+        <v>4240</v>
+      </c>
+      <c r="U38" s="5">
+        <v>100</v>
+      </c>
+      <c r="V38" s="5">
+        <v>277</v>
+      </c>
+      <c r="W38" s="5">
+        <v>209276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5">
+        <v>23546.82</v>
+      </c>
+      <c r="C39" s="5">
+        <v>42.53</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1160</v>
+      </c>
+      <c r="E39" s="5">
+        <v>100</v>
+      </c>
+      <c r="F39" s="5">
+        <v>98</v>
+      </c>
+      <c r="G39" s="5">
+        <v>82880</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5">
+        <v>8174.67</v>
+      </c>
+      <c r="K39" s="5">
+        <v>123.02</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1270</v>
+      </c>
+      <c r="M39" s="5">
+        <v>100</v>
+      </c>
+      <c r="N39" s="5">
+        <v>152</v>
+      </c>
+      <c r="O39" s="5">
+        <v>149484</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>4</v>
+      </c>
+      <c r="R39" s="5">
+        <v>8655.02</v>
+      </c>
+      <c r="S39" s="5">
+        <v>114.96</v>
+      </c>
+      <c r="T39" s="5">
+        <v>4100</v>
+      </c>
+      <c r="U39" s="5">
+        <v>100</v>
+      </c>
+      <c r="V39" s="5">
+        <v>281</v>
+      </c>
+      <c r="W39" s="5">
+        <v>211692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>24036.35</v>
+      </c>
+      <c r="C40" s="5">
+        <v>41.63</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1130</v>
+      </c>
+      <c r="E40" s="5">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5">
+        <v>97</v>
+      </c>
+      <c r="G40" s="5">
+        <v>83320</v>
+      </c>
+      <c r="I40" s="5">
+        <v>5</v>
+      </c>
+      <c r="J40" s="5">
+        <v>7698.82</v>
+      </c>
+      <c r="K40" s="5">
+        <v>129.62</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M40" s="5">
+        <v>100</v>
+      </c>
+      <c r="N40" s="5">
         <v>177</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O40" s="5">
         <v>147612</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q40" s="5">
         <v>5</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R40" s="5">
         <v>8630.1</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S40" s="5">
         <v>115.3</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T40" s="5">
         <v>4070</v>
       </c>
-      <c r="U36" s="5">
-        <v>100</v>
-      </c>
-      <c r="V36" s="5">
+      <c r="U40" s="5">
+        <v>100</v>
+      </c>
+      <c r="V40" s="5">
         <v>283</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W40" s="5">
         <v>213220</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="12">
+        <f>AVERAGE(B36:B40)</f>
+        <v>23786.799999999999</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" ref="C41" si="45">AVERAGE(C36:C40)</f>
+        <v>42.094000000000001</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" ref="D41" si="46">AVERAGE(D36:D40)</f>
+        <v>1170</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" ref="E41" si="47">AVERAGE(E36:E40)</f>
+        <v>100</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" ref="F41" si="48">AVERAGE(F36:F40)</f>
+        <v>96.2</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" ref="G41" si="49">AVERAGE(G36:G40)</f>
+        <v>82661.600000000006</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="12">
+        <f>AVERAGE(J36:J40)</f>
+        <v>7947.1539999999995</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" ref="K41" si="50">AVERAGE(K36:K40)</f>
+        <v>126.15799999999999</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" ref="L41" si="51">AVERAGE(L36:L40)</f>
+        <v>1264</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" ref="M41" si="52">AVERAGE(M36:M40)</f>
+        <v>100</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" ref="N41" si="53">AVERAGE(N36:N40)</f>
+        <v>167.4</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" ref="O41" si="54">AVERAGE(O36:O40)</f>
+        <v>151867.20000000001</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="12">
+        <f>AVERAGE(R36:R40)</f>
+        <v>8589.4560000000019</v>
+      </c>
+      <c r="S41" s="12">
+        <f t="shared" ref="S41" si="55">AVERAGE(S36:S40)</f>
+        <v>115.76799999999999</v>
+      </c>
+      <c r="T41" s="12">
+        <f t="shared" ref="T41" si="56">AVERAGE(T36:T40)</f>
+        <v>4092</v>
+      </c>
+      <c r="U41" s="12">
+        <f t="shared" ref="U41" si="57">AVERAGE(U36:U40)</f>
+        <v>100</v>
+      </c>
+      <c r="V41" s="12">
+        <f t="shared" ref="V41" si="58">AVERAGE(V36:V40)</f>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="W41" s="12">
+        <f t="shared" ref="W41" si="59">AVERAGE(W36:W40)</f>
+        <v>211565.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+    </row>
+    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+    </row>
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="Q40" s="9" t="s">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="Q48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="I41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="Q41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="4">
-        <v>50</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="4">
-        <v>50</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>50</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>25276.77</v>
-      </c>
-      <c r="C43">
-        <v>1.98</v>
-      </c>
-      <c r="D43">
-        <v>18.82</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <v>92</v>
-      </c>
-      <c r="G43">
-        <v>67328</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>21515</v>
-      </c>
-      <c r="K43">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L43">
-        <v>33.96</v>
-      </c>
-      <c r="M43">
-        <v>100</v>
-      </c>
-      <c r="N43">
-        <v>146</v>
-      </c>
-      <c r="O43">
-        <v>120544</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>21553.66</v>
-      </c>
-      <c r="S43">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="T43">
-        <v>81.25</v>
-      </c>
-      <c r="U43">
-        <v>100</v>
-      </c>
-      <c r="V43">
-        <v>146</v>
-      </c>
-      <c r="W43">
-        <v>117296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" s="5">
-        <v>2</v>
-      </c>
-      <c r="B44" s="5">
-        <v>25302.77</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D44" s="5">
-        <v>14.4</v>
-      </c>
-      <c r="E44" s="5">
-        <v>100</v>
-      </c>
-      <c r="F44" s="5">
-        <v>94</v>
-      </c>
-      <c r="G44" s="5">
-        <v>65744</v>
-      </c>
-      <c r="I44" s="5">
-        <v>2</v>
-      </c>
-      <c r="J44" s="5">
-        <v>19785.3</v>
-      </c>
-      <c r="K44" s="5">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="L44" s="5">
-        <v>36.049999999999997</v>
-      </c>
-      <c r="M44" s="5">
-        <v>100</v>
-      </c>
-      <c r="N44" s="5">
-        <v>142</v>
-      </c>
-      <c r="O44" s="5">
-        <v>125616</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>2</v>
-      </c>
-      <c r="R44" s="5">
-        <v>21499.51</v>
-      </c>
-      <c r="S44" s="5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="T44" s="5">
-        <v>61.8</v>
-      </c>
-      <c r="U44" s="5">
-        <v>100</v>
-      </c>
-      <c r="V44" s="5">
-        <v>148</v>
-      </c>
-      <c r="W44" s="5">
-        <v>109888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" s="5">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5">
-        <v>25293.360000000001</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="D45" s="5">
-        <v>14.06</v>
-      </c>
-      <c r="E45" s="5">
-        <v>100</v>
-      </c>
-      <c r="F45" s="5">
-        <v>95</v>
-      </c>
-      <c r="G45" s="5">
-        <v>65840</v>
-      </c>
-      <c r="I45" s="5">
-        <v>3</v>
-      </c>
-      <c r="J45" s="5">
-        <v>19363.939999999999</v>
-      </c>
-      <c r="K45" s="5">
-        <v>2.58</v>
-      </c>
-      <c r="L45" s="5">
-        <v>33.9</v>
-      </c>
-      <c r="M45" s="5">
-        <v>100</v>
-      </c>
-      <c r="N45" s="5">
-        <v>143</v>
-      </c>
-      <c r="O45" s="5">
-        <v>124096</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>3</v>
-      </c>
-      <c r="R45" s="5">
-        <v>21808.63</v>
-      </c>
-      <c r="S45" s="5">
-        <v>2.29</v>
-      </c>
-      <c r="T45" s="5">
-        <v>61.93</v>
-      </c>
-      <c r="U45" s="5">
-        <v>100</v>
-      </c>
-      <c r="V45" s="5">
-        <v>146</v>
-      </c>
-      <c r="W45" s="5">
-        <v>112464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" s="5">
-        <v>4</v>
-      </c>
-      <c r="B46" s="5">
-        <v>25292.46</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="D46" s="5">
-        <v>13.51</v>
-      </c>
-      <c r="E46" s="5">
-        <v>100</v>
-      </c>
-      <c r="F46" s="5">
-        <v>93</v>
-      </c>
-      <c r="G46" s="5">
-        <v>65956</v>
-      </c>
-      <c r="I46" s="5">
-        <v>4</v>
-      </c>
-      <c r="J46" s="5">
-        <v>21722.080000000002</v>
-      </c>
-      <c r="K46" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L46" s="5">
-        <v>29.84</v>
-      </c>
-      <c r="M46" s="5">
-        <v>100</v>
-      </c>
-      <c r="N46" s="5">
-        <v>143</v>
-      </c>
-      <c r="O46" s="5">
-        <v>109568</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>4</v>
-      </c>
-      <c r="R46" s="5">
-        <v>21799.37</v>
-      </c>
-      <c r="S46" s="5">
-        <v>2.29</v>
-      </c>
-      <c r="T46" s="5">
-        <v>63.66</v>
-      </c>
-      <c r="U46" s="5">
-        <v>100</v>
-      </c>
-      <c r="V46" s="5">
-        <v>144</v>
-      </c>
-      <c r="W46" s="5">
-        <v>119520</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" s="5">
-        <v>5</v>
-      </c>
-      <c r="B47" s="5">
-        <v>25330.78</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D47" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E47" s="5">
-        <v>100</v>
-      </c>
-      <c r="F47" s="5">
-        <v>94</v>
-      </c>
-      <c r="G47" s="5">
-        <v>654230</v>
-      </c>
-      <c r="I47" s="5">
-        <v>5</v>
-      </c>
-      <c r="J47" s="5">
-        <v>21449.79</v>
-      </c>
-      <c r="K47" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="L47" s="5">
-        <v>33.51</v>
-      </c>
-      <c r="M47" s="5">
-        <v>100</v>
-      </c>
-      <c r="N47" s="5">
-        <v>145</v>
-      </c>
-      <c r="O47" s="5">
-        <v>119792</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>5</v>
-      </c>
-      <c r="R47" s="5">
-        <v>21519.05</v>
-      </c>
-      <c r="S47" s="5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="T47" s="5">
-        <v>60.17</v>
-      </c>
-      <c r="U47" s="5">
-        <v>100</v>
-      </c>
-      <c r="V47" s="5">
-        <v>148</v>
-      </c>
-      <c r="W47" s="5">
-        <v>115120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -3665,9 +3797,9 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>13</v>
@@ -3688,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>13</v>
@@ -3709,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="Q50" s="4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>13</v>
@@ -3730,1264 +3862,2044 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
-      <c r="B51" s="5">
-        <v>25464.61</v>
-      </c>
-      <c r="C51" s="5">
-        <v>9.82</v>
-      </c>
-      <c r="D51" s="5">
-        <v>55.58</v>
-      </c>
-      <c r="E51" s="5">
-        <v>100</v>
-      </c>
-      <c r="F51" s="5">
-        <v>89</v>
-      </c>
-      <c r="G51" s="5">
-        <v>66698</v>
+      <c r="B51">
+        <v>25276.77</v>
+      </c>
+      <c r="C51">
+        <v>1.98</v>
+      </c>
+      <c r="D51">
+        <v>18.82</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>92</v>
+      </c>
+      <c r="G51">
+        <v>67328</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
       </c>
-      <c r="J51" s="5">
-        <v>15917.54</v>
-      </c>
-      <c r="K51" s="5">
-        <v>15.55</v>
-      </c>
-      <c r="L51" s="5">
-        <v>70.349999999999994</v>
-      </c>
-      <c r="M51" s="5">
-        <v>100</v>
-      </c>
-      <c r="N51" s="5">
-        <v>193</v>
-      </c>
-      <c r="O51" s="5">
-        <v>195552</v>
+      <c r="J51">
+        <v>21515</v>
+      </c>
+      <c r="K51">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L51">
+        <v>33.96</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51">
+        <v>146</v>
+      </c>
+      <c r="O51">
+        <v>120544</v>
       </c>
       <c r="Q51" s="5">
         <v>1</v>
       </c>
-      <c r="R51" s="5">
+      <c r="R51">
+        <v>21553.66</v>
+      </c>
+      <c r="S51">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T51">
+        <v>81.25</v>
+      </c>
+      <c r="U51">
+        <v>100</v>
+      </c>
+      <c r="V51">
+        <v>146</v>
+      </c>
+      <c r="W51">
+        <v>117296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5">
+        <v>25302.77</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="E52" s="5">
+        <v>100</v>
+      </c>
+      <c r="F52" s="5">
+        <v>94</v>
+      </c>
+      <c r="G52" s="5">
+        <v>65744</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="5">
+        <v>19785.3</v>
+      </c>
+      <c r="K52" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L52" s="5">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="M52" s="5">
+        <v>100</v>
+      </c>
+      <c r="N52" s="5">
+        <v>142</v>
+      </c>
+      <c r="O52" s="5">
+        <v>125616</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>21499.51</v>
+      </c>
+      <c r="S52" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T52" s="5">
+        <v>61.8</v>
+      </c>
+      <c r="U52" s="5">
+        <v>100</v>
+      </c>
+      <c r="V52" s="5">
+        <v>148</v>
+      </c>
+      <c r="W52" s="5">
+        <v>109888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5">
+        <v>25293.360000000001</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D53" s="5">
+        <v>14.06</v>
+      </c>
+      <c r="E53" s="5">
+        <v>100</v>
+      </c>
+      <c r="F53" s="5">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5">
+        <v>65840</v>
+      </c>
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5">
+        <v>19363.939999999999</v>
+      </c>
+      <c r="K53" s="5">
+        <v>2.58</v>
+      </c>
+      <c r="L53" s="5">
+        <v>33.9</v>
+      </c>
+      <c r="M53" s="5">
+        <v>100</v>
+      </c>
+      <c r="N53" s="5">
+        <v>143</v>
+      </c>
+      <c r="O53" s="5">
+        <v>124096</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>3</v>
+      </c>
+      <c r="R53" s="5">
+        <v>21808.63</v>
+      </c>
+      <c r="S53" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="T53" s="5">
+        <v>61.93</v>
+      </c>
+      <c r="U53" s="5">
+        <v>100</v>
+      </c>
+      <c r="V53" s="5">
+        <v>146</v>
+      </c>
+      <c r="W53" s="5">
+        <v>112464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5">
+        <v>25292.46</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="D54" s="5">
+        <v>13.51</v>
+      </c>
+      <c r="E54" s="5">
+        <v>100</v>
+      </c>
+      <c r="F54" s="5">
+        <v>93</v>
+      </c>
+      <c r="G54" s="5">
+        <v>65956</v>
+      </c>
+      <c r="I54" s="5">
+        <v>4</v>
+      </c>
+      <c r="J54" s="5">
+        <v>21722.080000000002</v>
+      </c>
+      <c r="K54" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L54" s="5">
+        <v>29.84</v>
+      </c>
+      <c r="M54" s="5">
+        <v>100</v>
+      </c>
+      <c r="N54" s="5">
+        <v>143</v>
+      </c>
+      <c r="O54" s="5">
+        <v>109568</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>4</v>
+      </c>
+      <c r="R54" s="5">
+        <v>21799.37</v>
+      </c>
+      <c r="S54" s="5">
+        <v>2.29</v>
+      </c>
+      <c r="T54" s="5">
+        <v>63.66</v>
+      </c>
+      <c r="U54" s="5">
+        <v>100</v>
+      </c>
+      <c r="V54" s="5">
+        <v>144</v>
+      </c>
+      <c r="W54" s="5">
+        <v>119520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5">
+        <v>25330.78</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="D55" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E55" s="5">
+        <v>100</v>
+      </c>
+      <c r="F55" s="5">
+        <v>94</v>
+      </c>
+      <c r="G55" s="5">
+        <v>654230</v>
+      </c>
+      <c r="I55" s="5">
+        <v>5</v>
+      </c>
+      <c r="J55" s="5">
+        <v>21449.79</v>
+      </c>
+      <c r="K55" s="5">
+        <v>2.33</v>
+      </c>
+      <c r="L55" s="5">
+        <v>33.51</v>
+      </c>
+      <c r="M55" s="5">
+        <v>100</v>
+      </c>
+      <c r="N55" s="5">
+        <v>145</v>
+      </c>
+      <c r="O55" s="5">
+        <v>119792</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>5</v>
+      </c>
+      <c r="R55" s="5">
+        <v>21519.05</v>
+      </c>
+      <c r="S55" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T55" s="5">
+        <v>60.17</v>
+      </c>
+      <c r="U55" s="5">
+        <v>100</v>
+      </c>
+      <c r="V55" s="5">
+        <v>148</v>
+      </c>
+      <c r="W55" s="5">
+        <v>115120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="12">
+        <f>AVERAGE(B51:B55)</f>
+        <v>25299.227999999996</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" ref="C56:G56" si="60">AVERAGE(C51:C55)</f>
+        <v>1.9760000000000002</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="60"/>
+        <v>15.378</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="60"/>
+        <v>100</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="60"/>
+        <v>93.6</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="60"/>
+        <v>183819.6</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="12">
+        <f>AVERAGE(J51:J55)</f>
+        <v>20767.222000000002</v>
+      </c>
+      <c r="K56" s="12">
+        <f t="shared" ref="K56:O56" si="61">AVERAGE(K51:K55)</f>
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="61"/>
+        <v>33.451999999999998</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="61"/>
+        <v>100</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="61"/>
+        <v>143.80000000000001</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" si="61"/>
+        <v>119923.2</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R56" s="12">
+        <f>AVERAGE(R51:R55)</f>
+        <v>21636.044000000002</v>
+      </c>
+      <c r="S56" s="12">
+        <f t="shared" ref="S56:W56" si="62">AVERAGE(S51:S55)</f>
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="T56" s="12">
+        <f t="shared" si="62"/>
+        <v>65.762</v>
+      </c>
+      <c r="U56" s="12">
+        <f t="shared" si="62"/>
+        <v>100</v>
+      </c>
+      <c r="V56" s="12">
+        <f t="shared" si="62"/>
+        <v>146.4</v>
+      </c>
+      <c r="W56" s="12">
+        <f t="shared" si="62"/>
+        <v>114857.60000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="I58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="Q58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>250</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="4">
+        <v>250</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>250</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5">
+        <v>25464.61</v>
+      </c>
+      <c r="C60" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="D60" s="5">
+        <v>55.58</v>
+      </c>
+      <c r="E60" s="5">
+        <v>100</v>
+      </c>
+      <c r="F60" s="5">
+        <v>89</v>
+      </c>
+      <c r="G60" s="5">
+        <v>66698</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>15917.54</v>
+      </c>
+      <c r="K60" s="5">
+        <v>15.55</v>
+      </c>
+      <c r="L60" s="5">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="M60" s="5">
+        <v>100</v>
+      </c>
+      <c r="N60" s="5">
+        <v>193</v>
+      </c>
+      <c r="O60" s="5">
+        <v>195552</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>1</v>
+      </c>
+      <c r="R60" s="5">
         <v>17388.28</v>
       </c>
-      <c r="S51" s="5">
+      <c r="S60" s="5">
         <v>14.38</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T60" s="5">
         <v>469.75</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U60" s="6">
         <f>100-48/(48+521755)*100</f>
         <v>99.990801126095477</v>
       </c>
-      <c r="V51" s="5">
+      <c r="V60" s="5">
         <v>190</v>
       </c>
-      <c r="W51" s="5">
+      <c r="W60" s="5">
         <v>203264</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
-      <c r="A52" s="5">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>2</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B61" s="5">
         <v>25435.68</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C61" s="5">
         <v>9.83</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D61" s="5">
         <v>52.12</v>
       </c>
-      <c r="E52" s="5">
-        <v>100</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="E61" s="5">
+        <v>100</v>
+      </c>
+      <c r="F61" s="5">
         <v>92</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G61" s="5">
         <v>66384</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I61" s="5">
         <v>2</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J61" s="5">
         <v>16075.37</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K61" s="5">
         <v>15.51</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L61" s="5">
         <v>81.900000000000006</v>
       </c>
-      <c r="M52" s="5">
-        <v>100</v>
-      </c>
-      <c r="N52" s="5">
+      <c r="M61" s="5">
+        <v>100</v>
+      </c>
+      <c r="N61" s="5">
         <v>186</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O61" s="5">
         <v>168992</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q61" s="5">
         <v>2</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R61" s="5">
         <v>17301.54</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S61" s="5">
         <v>14.45</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T61" s="5">
         <v>484.46</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U61" s="6">
         <f>100-42/(42+519209)*100</f>
         <v>99.991911426265915</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V61" s="5">
         <v>191</v>
       </c>
-      <c r="W52" s="5">
+      <c r="W61" s="5">
         <v>202544</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
-      <c r="A53" s="5">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>3</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B62" s="5">
         <v>25476.74</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C62" s="5">
         <v>9.81</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D62" s="5">
         <v>50.91</v>
       </c>
-      <c r="E53" s="5">
-        <v>100</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="E62" s="5">
+        <v>100</v>
+      </c>
+      <c r="F62" s="5">
         <v>93</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G62" s="5">
         <v>66464</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I62" s="5">
         <v>3</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J62" s="5">
         <v>16074.26</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K62" s="5">
         <v>15.55</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L62" s="5">
         <v>65.209999999999994</v>
       </c>
-      <c r="M53" s="5">
-        <v>100</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="M62" s="5">
+        <v>100</v>
+      </c>
+      <c r="N62" s="5">
         <v>189</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O62" s="5">
         <v>191920</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="Q62" s="5">
         <v>3</v>
       </c>
-      <c r="R53" s="5">
+      <c r="R62" s="5">
         <v>17374.5</v>
       </c>
-      <c r="S53" s="5">
+      <c r="S62" s="5">
         <v>14.39</v>
       </c>
-      <c r="T53" s="5">
+      <c r="T62" s="5">
         <v>455.17</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U62" s="6">
         <f>100-26/(26+521380)*100</f>
         <v>99.99501348277542</v>
       </c>
-      <c r="V53" s="5">
+      <c r="V62" s="5">
         <v>186</v>
       </c>
-      <c r="W53" s="5">
+      <c r="W62" s="5">
         <v>184224</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
-      <c r="A54" s="5">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>4</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B63" s="5">
         <v>25372.19</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C63" s="5">
         <v>9.85</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D63" s="5">
         <v>49.03</v>
       </c>
-      <c r="E54" s="5">
-        <v>100</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="E63" s="5">
+        <v>100</v>
+      </c>
+      <c r="F63" s="5">
         <v>92</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G63" s="5">
         <v>66640</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I63" s="5">
         <v>4</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J63" s="5">
         <v>16111.43</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K63" s="5">
         <v>15.51</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L63" s="5">
         <v>81.900000000000006</v>
       </c>
-      <c r="M54" s="5">
-        <v>100</v>
-      </c>
-      <c r="N54" s="5">
+      <c r="M63" s="5">
+        <v>100</v>
+      </c>
+      <c r="N63" s="5">
         <v>188</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O63" s="5">
         <v>189536</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q63" s="5">
         <v>4</v>
       </c>
-      <c r="R54" s="5">
+      <c r="R63" s="5">
         <v>17193.03</v>
       </c>
-      <c r="S54" s="5">
+      <c r="S63" s="5">
         <v>14.54</v>
       </c>
-      <c r="T54" s="5">
+      <c r="T63" s="5">
         <v>478.6</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U63" s="6">
         <f>100-37/(37+515922)*100</f>
         <v>99.992828887566645</v>
       </c>
-      <c r="V54" s="5">
+      <c r="V63" s="5">
         <v>186</v>
       </c>
-      <c r="W54" s="5">
+      <c r="W63" s="5">
         <v>208992</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
-      <c r="A55" s="5">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>5</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B64" s="5">
         <v>25451.01</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C64" s="5">
         <v>9.82</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D64" s="5">
         <v>49.88</v>
       </c>
-      <c r="E55" s="5">
-        <v>100</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="E64" s="5">
+        <v>100</v>
+      </c>
+      <c r="F64" s="5">
         <v>93</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G64" s="5">
         <v>66560</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I64" s="5">
         <v>5</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J64" s="5">
         <v>15924.32</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K64" s="5">
         <v>15.7</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L64" s="5">
         <v>70.459999999999994</v>
       </c>
-      <c r="M55" s="5">
-        <v>100</v>
-      </c>
-      <c r="N55" s="5">
+      <c r="M64" s="5">
+        <v>100</v>
+      </c>
+      <c r="N64" s="5">
         <v>191</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O64" s="5">
         <v>176272</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q64" s="5">
         <v>5</v>
       </c>
-      <c r="R55" s="5">
+      <c r="R64" s="5">
         <v>16918.400000000001</v>
       </c>
-      <c r="S55" s="5">
+      <c r="S64" s="5">
         <v>5.55</v>
       </c>
-      <c r="T55" s="5">
+      <c r="T64" s="5">
         <v>492.5</v>
       </c>
-      <c r="U55" s="6">
+      <c r="U64" s="6">
         <f>100-24/(24+507669)*100</f>
         <v>99.995272733719005</v>
       </c>
-      <c r="V55" s="5">
+      <c r="V64" s="5">
         <v>187</v>
       </c>
-      <c r="W55" s="5">
+      <c r="W64" s="5">
         <v>198144</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" s="4" t="s">
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="12">
+        <f>AVERAGE(B60:B64)</f>
+        <v>25440.045999999998</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" ref="C65:G65" si="63">AVERAGE(C60:C64)</f>
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="D65" s="12">
+        <f t="shared" si="63"/>
+        <v>51.503999999999998</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" si="63"/>
+        <v>100</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="63"/>
+        <v>91.8</v>
+      </c>
+      <c r="G65" s="12">
+        <f t="shared" si="63"/>
+        <v>66549.2</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="12">
+        <f>AVERAGE(J60:J64)</f>
+        <v>16020.584000000003</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" ref="K65:O65" si="64">AVERAGE(K60:K64)</f>
+        <v>15.563999999999998</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="64"/>
+        <v>73.963999999999999</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="64"/>
+        <v>100</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="64"/>
+        <v>189.4</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="64"/>
+        <v>184454.39999999999</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R65" s="12">
+        <f>AVERAGE(R60:R64)</f>
+        <v>17235.150000000001</v>
+      </c>
+      <c r="S65" s="12">
+        <f t="shared" ref="S65:W65" si="65">AVERAGE(S60:S64)</f>
+        <v>12.661999999999999</v>
+      </c>
+      <c r="T65" s="12">
+        <f t="shared" si="65"/>
+        <v>476.096</v>
+      </c>
+      <c r="U65" s="12">
+        <f t="shared" si="65"/>
+        <v>99.99316553128449</v>
+      </c>
+      <c r="V65" s="12">
+        <f t="shared" si="65"/>
+        <v>188</v>
+      </c>
+      <c r="W65" s="12">
+        <f t="shared" si="65"/>
+        <v>199433.60000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="I57" s="4" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="I67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="Q57" s="4" t="s">
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="Q67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R57" s="8" t="s">
+      <c r="R67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" s="4">
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>500</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I68" s="4">
         <v>500</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q68" s="4">
         <v>500</v>
       </c>
-      <c r="R58" s="4" t="s">
+      <c r="R68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S58" s="4" t="s">
+      <c r="S68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="4" t="s">
+      <c r="T68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U58" s="4" t="s">
+      <c r="U68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V58" s="4" t="s">
+      <c r="V68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W58" s="4" t="s">
+      <c r="W68" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
-      <c r="A59" s="5">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>1</v>
       </c>
-      <c r="B59">
+      <c r="B69">
         <v>23707.59</v>
       </c>
-      <c r="C59">
+      <c r="C69">
         <v>21.08</v>
       </c>
-      <c r="D59">
+      <c r="D69">
         <v>195.63</v>
       </c>
-      <c r="E59">
-        <v>100</v>
-      </c>
-      <c r="F59">
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
         <v>90</v>
       </c>
-      <c r="G59">
+      <c r="G69">
         <v>64264</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I69" s="5">
         <v>1</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J69" s="5">
         <v>14317.65</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K69" s="5">
         <v>34.93</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L69" s="5">
         <v>248.08</v>
       </c>
-      <c r="M59" s="5">
-        <v>100</v>
-      </c>
-      <c r="N59" s="5">
+      <c r="M69" s="5">
+        <v>100</v>
+      </c>
+      <c r="N69" s="5">
         <v>189</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O69" s="5">
         <v>229776</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q69" s="5">
         <v>1</v>
       </c>
-      <c r="R59" s="5">
+      <c r="R69" s="5">
         <v>14790.27</v>
       </c>
-      <c r="S59" s="5">
+      <c r="S69" s="5">
         <v>33.81</v>
       </c>
-      <c r="T59" s="5">
+      <c r="T69" s="5">
         <v>1720</v>
       </c>
-      <c r="U59" s="6">
+      <c r="U69" s="6">
         <v>99.5</v>
       </c>
-      <c r="V59" s="5">
+      <c r="V69" s="5">
         <v>195</v>
       </c>
-      <c r="W59" s="5">
+      <c r="W69" s="5">
         <v>221728</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
-      <c r="A60" s="5">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>2</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B70" s="5">
         <v>23920.81</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C70" s="5">
         <v>20.9</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D70" s="5">
         <v>239.5</v>
       </c>
-      <c r="E60" s="5">
-        <v>100</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E70" s="5">
+        <v>100</v>
+      </c>
+      <c r="F70" s="5">
         <v>86</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G70" s="5">
         <v>65040</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I70" s="5">
         <v>2</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J70" s="5">
         <v>14508.2</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K70" s="5">
         <v>34.46</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L70" s="5">
         <v>231.62</v>
       </c>
-      <c r="M60" s="5">
-        <v>100</v>
-      </c>
-      <c r="N60" s="5">
+      <c r="M70" s="5">
+        <v>100</v>
+      </c>
+      <c r="N70" s="5">
         <v>197</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O70" s="5">
         <v>198496</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="Q70" s="5">
         <v>2</v>
       </c>
-      <c r="R60" s="5">
+      <c r="R70" s="5">
         <v>14729.2</v>
       </c>
-      <c r="S60" s="5">
+      <c r="S70" s="5">
         <v>33.93</v>
       </c>
-      <c r="T60" s="5">
+      <c r="T70" s="5">
         <v>1790</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U70" s="6">
         <v>99.4</v>
       </c>
-      <c r="V60" s="5">
+      <c r="V70" s="5">
         <v>194</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W70" s="5">
         <v>219552</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
-      <c r="A61" s="5">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
         <v>3</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B71" s="5">
         <v>23909.89</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C71" s="5">
         <v>20.9</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D71" s="5">
         <v>204.46</v>
       </c>
-      <c r="E61" s="5">
-        <v>100</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="E71" s="5">
+        <v>100</v>
+      </c>
+      <c r="F71" s="5">
         <v>90</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G71" s="5">
         <v>65024</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I71" s="5">
         <v>3</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J71" s="5">
         <v>14466.72</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K71" s="5">
         <v>34.56</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L71" s="5">
         <v>214.82</v>
       </c>
-      <c r="M61" s="5">
-        <v>100</v>
-      </c>
-      <c r="N61" s="5">
+      <c r="M71" s="5">
+        <v>100</v>
+      </c>
+      <c r="N71" s="5">
         <v>185</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O71" s="5">
         <v>208496</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="Q71" s="5">
         <v>3</v>
       </c>
-      <c r="R61" s="5">
+      <c r="R71" s="5">
         <v>14749.95</v>
       </c>
-      <c r="S61" s="5">
+      <c r="S71" s="5">
         <v>33.909999999999997</v>
       </c>
-      <c r="T61" s="5">
+      <c r="T71" s="5">
         <v>1649</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U71" s="6">
         <v>99.7</v>
       </c>
-      <c r="V61" s="5">
+      <c r="V71" s="5">
         <v>198</v>
       </c>
-      <c r="W61" s="5">
+      <c r="W71" s="5">
         <v>234800</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
-      <c r="A62" s="5">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
         <v>4</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B72" s="5">
         <v>23825.78</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C72" s="5">
         <v>20.98</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D72" s="5">
         <v>206.59</v>
       </c>
-      <c r="E62" s="5">
-        <v>100</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="E72" s="5">
+        <v>100</v>
+      </c>
+      <c r="F72" s="5">
         <v>89</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G72" s="5">
         <v>64880</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I72" s="5">
         <v>4</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J72" s="5">
         <v>14610.55</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K72" s="5">
         <v>34.21</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L72" s="5">
         <v>198.59</v>
       </c>
-      <c r="M62" s="5">
-        <v>100</v>
-      </c>
-      <c r="N62" s="5">
+      <c r="M72" s="5">
+        <v>100</v>
+      </c>
+      <c r="N72" s="5">
         <v>176</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O72" s="5">
         <v>212880</v>
       </c>
-      <c r="Q62" s="5">
+      <c r="Q72" s="5">
         <v>4</v>
       </c>
-      <c r="R62" s="5">
+      <c r="R72" s="5">
         <v>14722.22</v>
       </c>
-      <c r="S62" s="5">
+      <c r="S72" s="5">
         <v>33.979999999999997</v>
       </c>
-      <c r="T62" s="5">
+      <c r="T72" s="5">
         <v>1920</v>
       </c>
-      <c r="U62" s="6">
+      <c r="U72" s="6">
         <v>99.4</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V72" s="5">
         <v>193</v>
       </c>
-      <c r="W62" s="5">
+      <c r="W72" s="5">
         <v>243920</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
-      <c r="A63" s="5">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
         <v>5</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B73" s="5">
         <v>23879.56</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C73" s="5">
         <v>20.93</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D73" s="5">
         <v>220.08</v>
       </c>
-      <c r="E63" s="5">
-        <v>100</v>
-      </c>
-      <c r="F63" s="5">
+      <c r="E73" s="5">
+        <v>100</v>
+      </c>
+      <c r="F73" s="5">
         <v>90</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G73" s="5">
         <v>64880</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I73" s="5">
         <v>5</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J73" s="5">
         <v>14647.9</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K73" s="5">
         <v>34.119999999999997</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L73" s="5">
         <v>238.61</v>
       </c>
-      <c r="M63" s="5">
-        <v>100</v>
-      </c>
-      <c r="N63" s="5">
+      <c r="M73" s="5">
+        <v>100</v>
+      </c>
+      <c r="N73" s="5">
         <v>190</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O73" s="5">
         <v>209896</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="Q73" s="5">
         <v>5</v>
       </c>
-      <c r="R63" s="5">
+      <c r="R73" s="5">
         <v>14628.28</v>
       </c>
-      <c r="S63" s="5">
+      <c r="S73" s="5">
         <v>34.14</v>
       </c>
-      <c r="T63" s="5">
+      <c r="T73" s="5">
         <v>1820</v>
       </c>
-      <c r="U63" s="6">
+      <c r="U73" s="6">
         <v>99.7</v>
       </c>
-      <c r="V63" s="5">
+      <c r="V73" s="5">
         <v>194</v>
       </c>
-      <c r="W63" s="5">
+      <c r="W73" s="5">
         <v>257200</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="4" t="s">
+    <row r="74" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="12">
+        <f>AVERAGE(B69:B73)</f>
+        <v>23848.726000000002</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" ref="C74:G74" si="66">AVERAGE(C69:C73)</f>
+        <v>20.957999999999998</v>
+      </c>
+      <c r="D74" s="12">
+        <f t="shared" si="66"/>
+        <v>213.25200000000001</v>
+      </c>
+      <c r="E74" s="12">
+        <f t="shared" si="66"/>
+        <v>100</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" si="66"/>
+        <v>89</v>
+      </c>
+      <c r="G74" s="12">
+        <f t="shared" si="66"/>
+        <v>64817.599999999999</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="12">
+        <f>AVERAGE(J69:J73)</f>
+        <v>14510.203999999998</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" ref="K74:O74" si="67">AVERAGE(K69:K73)</f>
+        <v>34.456000000000003</v>
+      </c>
+      <c r="L74" s="12">
+        <f t="shared" si="67"/>
+        <v>226.34399999999999</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" si="67"/>
+        <v>100</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" si="67"/>
+        <v>187.4</v>
+      </c>
+      <c r="O74" s="12">
+        <f t="shared" si="67"/>
+        <v>211908.8</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" s="12">
+        <f>AVERAGE(R69:R73)</f>
+        <v>14723.984</v>
+      </c>
+      <c r="S74" s="12">
+        <f t="shared" ref="S74:W74" si="68">AVERAGE(S69:S73)</f>
+        <v>33.953999999999994</v>
+      </c>
+      <c r="T74" s="12">
+        <f t="shared" si="68"/>
+        <v>1779.8</v>
+      </c>
+      <c r="U74" s="12">
+        <f t="shared" si="68"/>
+        <v>99.539999999999992</v>
+      </c>
+      <c r="V74" s="12">
+        <f t="shared" si="68"/>
+        <v>194.8</v>
+      </c>
+      <c r="W74" s="12">
+        <f t="shared" si="68"/>
+        <v>235440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="I65" s="4" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="I76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="Q65" s="4" t="s">
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="Q76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R65" s="8" t="s">
+      <c r="R76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" s="4">
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>1000</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I77" s="4">
         <v>1000</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q77" s="4">
         <v>1000</v>
       </c>
-      <c r="R66" s="4" t="s">
+      <c r="R77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="4" t="s">
+      <c r="S77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="4" t="s">
+      <c r="T77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U66" s="4" t="s">
+      <c r="U77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V66" s="4" t="s">
+      <c r="V77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W66" s="4" t="s">
+      <c r="W77" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
-      <c r="A67" s="5">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B78" s="5">
         <v>24846.18</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C78" s="5">
         <v>40.22</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D78" s="5">
         <v>451.41</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E78" s="6">
         <f>100-329/(329+745934)*100</f>
         <v>99.955913665825591</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F78" s="5">
         <v>91</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G78" s="5">
         <v>68192</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I78" s="5">
         <v>1</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J78" s="5">
         <v>14970.63</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K78" s="5">
         <v>66.75</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L78" s="5">
         <v>511.17</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M78" s="6">
         <f>100-350/(350+449644)*100</f>
         <v>99.922221185171352</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N78" s="5">
         <v>193</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O78" s="5">
         <v>284000</v>
       </c>
-      <c r="Q67" s="5">
+      <c r="Q78" s="5">
         <v>1</v>
       </c>
-      <c r="R67" s="5">
+      <c r="R78" s="5">
         <v>14937.53</v>
       </c>
-      <c r="S67" s="5">
+      <c r="S78" s="5">
         <v>66.91</v>
       </c>
-      <c r="T67" s="5">
+      <c r="T78" s="5">
         <v>6000</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U78" s="6">
         <f>100-580/(580+448210)*100</f>
         <v>99.870763608814812</v>
       </c>
-      <c r="V67" s="5">
+      <c r="V78" s="5">
         <v>210</v>
       </c>
-      <c r="W67" s="5">
+      <c r="W78" s="5">
         <v>283264</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
-      <c r="A68" s="5">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B79" s="5">
         <v>24776.04</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C79" s="5">
         <v>40.340000000000003</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D79" s="5">
         <v>466.86</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E79" s="6">
         <f>100-347/(347+743735)*100</f>
         <v>99.953365354893677</v>
       </c>
-      <c r="F68">
+      <c r="F79">
         <v>90</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G79" s="5">
         <v>67472</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I79" s="5">
         <v>2</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J79" s="5">
         <v>14629.17</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K79" s="5">
         <v>68.36</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L79" s="5">
         <v>452.81</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M79" s="6">
         <f>100-310/(310+439125)*100</f>
         <v>99.929454868183001</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N79" s="5">
         <v>198</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O79" s="5">
         <v>300096</v>
       </c>
-      <c r="Q68" s="5">
+      <c r="Q79" s="5">
         <v>2</v>
       </c>
-      <c r="R68" s="5">
+      <c r="R79" s="5">
         <v>14518.01</v>
       </c>
-      <c r="S68" s="5">
+      <c r="S79" s="5">
         <v>68.83</v>
       </c>
-      <c r="T68" s="5">
+      <c r="T79" s="5">
         <v>5140</v>
       </c>
-      <c r="U68" s="6">
+      <c r="U79" s="6">
         <f>100-2256/(2556+434115)*100</f>
         <v>99.483363905549027</v>
       </c>
-      <c r="V68" s="5">
+      <c r="V79" s="5">
         <v>206</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W79" s="5">
         <v>366512</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
-      <c r="A69" s="5">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B80" s="5">
         <v>24789.88</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C80" s="5">
         <v>40.380000000000003</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D80" s="5">
         <v>479.3</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E80" s="6">
         <f>100-341/(744119+341)*100</f>
         <v>99.954194986970421</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F80" s="5">
         <v>91</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G80" s="5">
         <v>67280</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I80" s="5">
         <v>3</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J80" s="5">
         <v>14524.19</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K80" s="5">
         <v>68.75</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L80" s="5">
         <v>594.74</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M80" s="6">
         <f>100-350/(350+436354)*100</f>
         <v>99.919854180405949</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N80" s="5">
         <v>195</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O80" s="5">
         <v>286704</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q80" s="5">
         <v>3</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R80" s="5">
         <v>14594.26</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S80" s="5">
         <v>67.849999999999994</v>
       </c>
-      <c r="T69" s="5">
+      <c r="T80" s="5">
         <v>4350</v>
       </c>
-      <c r="U69" s="6">
+      <c r="U80" s="6">
         <f>100-2366/(2366+436629)*100</f>
         <v>99.461041697513636</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V80" s="5">
         <v>203</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W80" s="5">
         <v>317392</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
-      <c r="A70" s="5">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B81" s="5">
         <v>24746.3</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C81" s="5">
         <v>40.380000000000003</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D81" s="5">
         <v>479.3</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E81" s="6">
         <f>100-322/(322+742886)*100</f>
         <v>99.956674309210882</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F81" s="5">
         <v>90</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G81" s="5">
         <v>6824</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I81" s="5">
         <v>4</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J81" s="5">
         <v>14274.59</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K81" s="5">
         <v>69.98</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L81" s="5">
         <v>572.30999999999995</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M81" s="6">
         <f>100-337/(337+428541)*100</f>
         <v>99.921422875503055</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N81" s="5">
         <v>199</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O81" s="5">
         <v>294704</v>
       </c>
-      <c r="Q70" s="5">
+      <c r="Q81" s="5">
         <v>4</v>
       </c>
-      <c r="R70" s="5">
+      <c r="R81" s="5">
         <v>14719.55</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S81" s="5">
         <v>68.2</v>
       </c>
-      <c r="T70" s="5">
+      <c r="T81" s="5">
         <v>4540</v>
       </c>
-      <c r="U70" s="6">
+      <c r="U81" s="6">
         <f>100-2739/(2739+439861)*100</f>
         <v>99.381156800723005</v>
       </c>
-      <c r="V70" s="5">
+      <c r="V81" s="5">
         <v>198</v>
       </c>
-      <c r="W70" s="5">
+      <c r="W81" s="5">
         <v>361280</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
-      <c r="A71" s="5">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B82" s="5">
         <v>24773.9</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C82" s="5">
         <v>40.340000000000003</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D82" s="5">
         <v>462.65</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E82" s="6">
         <f>100-321/(321+743725)*100</f>
         <v>99.956857506121935</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F82" s="5">
         <v>91</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G82" s="5">
         <v>67952</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I82" s="5">
         <v>5</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J82" s="5">
         <v>13378.25</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K82" s="5">
         <v>74.77</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L82" s="5">
         <v>550.02</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M82" s="6">
         <f>100-336/(336+401120)*100</f>
         <v>99.916304651070107</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N82" s="5">
         <v>190</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O82" s="5">
         <v>311296</v>
       </c>
-      <c r="Q71" s="5">
+      <c r="Q82" s="5">
         <v>5</v>
       </c>
-      <c r="R71" s="5">
+      <c r="R82" s="5">
         <v>14651.76</v>
       </c>
-      <c r="S71" s="5">
+      <c r="S82" s="5">
         <v>68.2</v>
       </c>
-      <c r="T71" s="5">
+      <c r="T82" s="5">
         <v>4540</v>
       </c>
-      <c r="U71" s="3">
+      <c r="U82" s="3">
         <f>100-2214/(2214+438230)*100</f>
         <v>99.49732542616087</v>
       </c>
-      <c r="V71" s="5">
+      <c r="V82" s="5">
         <v>206</v>
       </c>
-      <c r="W71" s="5">
+      <c r="W82" s="5">
         <v>323952</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="12">
+        <f>AVERAGE(B78:B82)</f>
+        <v>24786.460000000003</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" ref="C83:G83" si="69">AVERAGE(C78:C82)</f>
+        <v>40.332000000000001</v>
+      </c>
+      <c r="D83" s="12">
+        <f t="shared" si="69"/>
+        <v>467.904</v>
+      </c>
+      <c r="E83" s="12">
+        <f t="shared" si="69"/>
+        <v>99.95540116460451</v>
+      </c>
+      <c r="F83" s="12">
+        <f t="shared" si="69"/>
+        <v>90.6</v>
+      </c>
+      <c r="G83" s="12">
+        <f t="shared" si="69"/>
+        <v>55544</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="12">
+        <f>AVERAGE(J78:J82)</f>
+        <v>14355.366</v>
+      </c>
+      <c r="K83" s="12">
+        <f t="shared" ref="K83:O83" si="70">AVERAGE(K78:K82)</f>
+        <v>69.722000000000008</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="70"/>
+        <v>536.20999999999992</v>
+      </c>
+      <c r="M83" s="12">
+        <f t="shared" si="70"/>
+        <v>99.921851552066698</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="70"/>
+        <v>195</v>
+      </c>
+      <c r="O83" s="12">
+        <f t="shared" si="70"/>
+        <v>295360</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" s="12">
+        <f>AVERAGE(R78:R82)</f>
+        <v>14684.222</v>
+      </c>
+      <c r="S83" s="12">
+        <f t="shared" ref="S83:W83" si="71">AVERAGE(S78:S82)</f>
+        <v>67.998000000000005</v>
+      </c>
+      <c r="T83" s="12">
+        <f t="shared" si="71"/>
+        <v>4914</v>
+      </c>
+      <c r="U83" s="12">
+        <f t="shared" si="71"/>
+        <v>99.538730287752259</v>
+      </c>
+      <c r="V83" s="12">
+        <f t="shared" si="71"/>
+        <v>204.6</v>
+      </c>
+      <c r="W83" s="12">
+        <f t="shared" si="71"/>
+        <v>330480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="R57:W57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="J65:O65"/>
-    <mergeCell ref="R65:W65"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J24:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4996,36 +5908,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5035,7 +5947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5043,10 +5955,10 @@
         <v>3.21</v>
       </c>
       <c r="C5">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5054,10 +5966,10 @@
         <v>3.21</v>
       </c>
       <c r="C6">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5065,10 +5977,10 @@
         <v>3.21</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5076,10 +5988,10 @@
         <v>3.22</v>
       </c>
       <c r="C8">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5087,155 +5999,194 @@
         <v>3.21</v>
       </c>
       <c r="C9">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <f>AVERAGE(B5:B9)</f>
+        <v>3.2119999999999997</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C5:C9)</f>
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>6.46</v>
       </c>
-      <c r="C13">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="C14">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>6.47</v>
       </c>
-      <c r="C14">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="C15">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>3</v>
-      </c>
-      <c r="B15">
-        <v>6.46</v>
-      </c>
-      <c r="C15">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>4</v>
       </c>
       <c r="B16">
         <v>6.46</v>
       </c>
       <c r="C16">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>6.46</v>
       </c>
       <c r="C17">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>6.46</v>
+      </c>
+      <c r="C18">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <f>AVERAGE(B14:B18)</f>
+        <v>6.4620000000000006</v>
+      </c>
+      <c r="C19" s="11">
+        <f>AVERAGE(C14:C18)</f>
+        <v>7.2720000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1</v>
-      </c>
-      <c r="B21">
-        <v>6.3</v>
-      </c>
-      <c r="C21">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>6.3</v>
-      </c>
-      <c r="C22">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3</v>
       </c>
       <c r="B23">
         <v>6.3</v>
       </c>
       <c r="C23">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>6.3</v>
+      </c>
+      <c r="C24">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>6.3</v>
+      </c>
+      <c r="C25">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>6.29</v>
       </c>
-      <c r="C24">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="C26">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>6.29</v>
       </c>
-      <c r="C25">
-        <v>0.69</v>
+      <c r="C27">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="11">
+        <f>AVERAGE(B23:B27)</f>
+        <v>6.2959999999999994</v>
+      </c>
+      <c r="C28" s="11">
+        <f>AVERAGE(C23:C27)</f>
+        <v>7.1820000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5252,23 +6203,23 @@
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5285,7 +6236,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5304,7 +6255,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -5323,7 +6274,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5338,7 +6289,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5353,7 +6304,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5374,7 +6325,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -5415,7 +6366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -5456,7 +6407,7 @@
         <v>82128</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -5497,7 +6448,7 @@
         <v>83196</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -5538,7 +6489,7 @@
         <v>82692</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -5579,7 +6530,7 @@
         <v>82672</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -5620,7 +6571,7 @@
         <v>82948</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5647,7 +6598,7 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +6619,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -5709,7 +6660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -5750,7 +6701,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -5791,7 +6742,7 @@
         <v>106928</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -5832,7 +6783,7 @@
         <v>103704</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -5873,7 +6824,7 @@
         <v>106108</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>5</v>
       </c>
@@ -5914,7 +6865,7 @@
         <v>104264</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5929,7 +6880,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -5950,7 +6901,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +6942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -6032,7 +6983,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -6073,7 +7024,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -6114,7 +7065,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -6155,7 +7106,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>5</v>
       </c>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB372B78-BC07-3E4F-BCFF-AC4E536C2736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22EF61-56E2-4C83-8E17-E5A8E7806038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="20">
   <si>
     <t>Test Setup</t>
   </si>
@@ -97,12 +97,15 @@
   <si>
     <t>Durchschnitt</t>
   </si>
+  <si>
+    <t>CPU-Auslastung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +171,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -177,12 +182,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,33 +498,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -530,7 +532,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -538,24 +540,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -596,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -637,7 +639,7 @@
         <v>47188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
@@ -678,7 +680,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3</v>
       </c>
@@ -719,7 +721,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
@@ -760,7 +762,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
@@ -801,7 +803,7 @@
         <v>48484</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -854,24 +856,24 @@
         <v>47986.400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -912,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1</v>
       </c>
@@ -953,7 +955,7 @@
         <v>93856</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2</v>
       </c>
@@ -994,7 +996,7 @@
         <v>93212</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>93144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>92928</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>93116</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1170,24 +1172,24 @@
         <v>93251.199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>86652</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>86396</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>86280</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>86284</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>86636</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1504,22 +1506,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1527,72 +1529,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="Q5" s="9" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="Q5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
       <c r="Q6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>88056</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>85144</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>85364</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2088,42 +2090,42 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="I15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="Q15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="4">
         <v>250</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>128460</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -2318,7 +2320,7 @@
         <v>124552</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>121192</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>121700</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -2513,90 +2515,90 @@
         <v>121488</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <f>AVERAGE(B17:B21)</f>
         <v>24638.171999999999</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <f t="shared" ref="C22" si="15">AVERAGE(C17:C21)</f>
         <v>10.146000000000001</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <f t="shared" ref="D22" si="16">AVERAGE(D17:D21)</f>
         <v>91.393999999999991</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <f t="shared" ref="E22" si="17">AVERAGE(E17:E21)</f>
         <v>100</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <f t="shared" ref="F22" si="18">AVERAGE(F17:F21)</f>
         <v>97.4</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <f t="shared" ref="G22" si="19">AVERAGE(G17:G21)</f>
         <v>83134.399999999994</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="8">
         <f>AVERAGE(J17:J21)</f>
         <v>9373.3640000000014</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="8">
         <f t="shared" ref="K22" si="20">AVERAGE(K17:K21)</f>
         <v>26.610000000000003</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="8">
         <f t="shared" ref="L22" si="21">AVERAGE(L17:L21)</f>
         <v>220.41</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="8">
         <f t="shared" ref="M22" si="22">AVERAGE(M17:M21)</f>
         <v>100</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="8">
         <f t="shared" ref="N22" si="23">AVERAGE(N17:N21)</f>
         <v>169.8</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="8">
         <f t="shared" ref="O22" si="24">AVERAGE(O17:O21)</f>
         <v>117308</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="8">
         <f>AVERAGE(R17:R21)</f>
         <v>12041.237999999999</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="8">
         <f t="shared" ref="S22" si="25">AVERAGE(S17:S21)</f>
         <v>20.756</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="8">
         <f t="shared" ref="T22" si="26">AVERAGE(T17:T21)</f>
         <v>852.43399999999997</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="8">
         <f t="shared" ref="U22" si="27">AVERAGE(U17:U21)</f>
         <v>100</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="8">
         <f t="shared" ref="V22" si="28">AVERAGE(V17:V21)</f>
         <v>220.4</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="8">
         <f t="shared" ref="W22" si="29">AVERAGE(W17:W21)</f>
         <v>123478.39999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2619,42 +2621,42 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="I24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
       <c r="Q24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="4">
         <v>500</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>175036</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="B31" s="5">
         <v>24363.11</v>
       </c>
@@ -3064,90 +3066,90 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <f>AVERAGE(B27:B31)</f>
         <v>24155.311999999998</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="8">
         <f t="shared" ref="C32" si="30">AVERAGE(C27:C31)</f>
         <v>20.694000000000003</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="8">
         <f t="shared" ref="D32" si="31">AVERAGE(D27:D31)</f>
         <v>116.36200000000001</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="8">
         <f t="shared" ref="E32" si="32">AVERAGE(E27:E31)</f>
         <v>100</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="8">
         <f t="shared" ref="F32" si="33">AVERAGE(F27:F31)</f>
         <v>98.4</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="8">
         <f t="shared" ref="G32" si="34">AVERAGE(G27:G31)</f>
         <v>83124.800000000003</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="8">
         <f>AVERAGE(J27:J31)</f>
         <v>8398.0025000000005</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="8">
         <f t="shared" ref="K32" si="35">AVERAGE(K27:K31)</f>
         <v>58.814999999999991</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="8">
         <f t="shared" ref="L32" si="36">AVERAGE(L27:L31)</f>
         <v>299.30999999999995</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="8">
         <f t="shared" ref="M32" si="37">AVERAGE(M27:M31)</f>
         <v>100</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="8">
         <f t="shared" ref="N32" si="38">AVERAGE(N27:N31)</f>
         <v>169.5</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="8">
         <f t="shared" ref="O32" si="39">AVERAGE(O27:O31)</f>
         <v>105251</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="8">
         <f>AVERAGE(R27:R31)</f>
         <v>10383.16</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="8">
         <f t="shared" ref="S32" si="40">AVERAGE(S27:S31)</f>
         <v>47.752499999999998</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="8">
         <f t="shared" ref="T32" si="41">AVERAGE(T27:T31)</f>
         <v>1747.5</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="8">
         <f t="shared" ref="U32" si="42">AVERAGE(U27:U31)</f>
         <v>100</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="8">
         <f t="shared" ref="V32" si="43">AVERAGE(V27:V31)</f>
         <v>260.25</v>
       </c>
-      <c r="W32" s="12">
+      <c r="W32" s="8">
         <f t="shared" ref="W32" si="44">AVERAGE(W27:W31)</f>
         <v>160961</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3155,42 +3157,42 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="I34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="Q34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="8" t="s">
+      <c r="R34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="4">
         <v>1000</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>213864</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>209776</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>209276</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="5">
         <v>4</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>211692</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -3580,224 +3582,224 @@
         <v>213220</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="1" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <f>AVERAGE(B36:B40)</f>
         <v>23786.799999999999</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="8">
         <f t="shared" ref="C41" si="45">AVERAGE(C36:C40)</f>
         <v>42.094000000000001</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <f t="shared" ref="D41" si="46">AVERAGE(D36:D40)</f>
         <v>1170</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="8">
         <f t="shared" ref="E41" si="47">AVERAGE(E36:E40)</f>
         <v>100</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="8">
         <f t="shared" ref="F41" si="48">AVERAGE(F36:F40)</f>
         <v>96.2</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="8">
         <f t="shared" ref="G41" si="49">AVERAGE(G36:G40)</f>
         <v>82661.600000000006</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="8">
         <f>AVERAGE(J36:J40)</f>
         <v>7947.1539999999995</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="8">
         <f t="shared" ref="K41" si="50">AVERAGE(K36:K40)</f>
         <v>126.15799999999999</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="8">
         <f t="shared" ref="L41" si="51">AVERAGE(L36:L40)</f>
         <v>1264</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="8">
         <f t="shared" ref="M41" si="52">AVERAGE(M36:M40)</f>
         <v>100</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="8">
         <f t="shared" ref="N41" si="53">AVERAGE(N36:N40)</f>
         <v>167.4</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="8">
         <f t="shared" ref="O41" si="54">AVERAGE(O36:O40)</f>
         <v>151867.20000000001</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="8">
         <f>AVERAGE(R36:R40)</f>
         <v>8589.4560000000019</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="8">
         <f t="shared" ref="S41" si="55">AVERAGE(S36:S40)</f>
         <v>115.76799999999999</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="8">
         <f t="shared" ref="T41" si="56">AVERAGE(T36:T40)</f>
         <v>4092</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="8">
         <f t="shared" ref="U41" si="57">AVERAGE(U36:U40)</f>
         <v>100</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="8">
         <f t="shared" ref="V41" si="58">AVERAGE(V36:V40)</f>
         <v>279.60000000000002</v>
       </c>
-      <c r="W41" s="12">
+      <c r="W41" s="8">
         <f t="shared" ref="W41" si="59">AVERAGE(W36:W40)</f>
         <v>211565.6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="1" customFormat="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-    </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+    </row>
+    <row r="43" spans="1:23" s="1" customFormat="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-    </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+    </row>
+    <row r="44" spans="1:23" s="1" customFormat="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="Q48" s="9" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="Q48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="I49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
       <c r="Q49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>117296</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>109888</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="5">
         <v>3</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>112464</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" s="5">
         <v>4</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -4187,90 +4189,90 @@
         <v>115120</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="1" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="8">
         <f>AVERAGE(B51:B55)</f>
         <v>25299.227999999996</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="8">
         <f t="shared" ref="C56:G56" si="60">AVERAGE(C51:C55)</f>
         <v>1.9760000000000002</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="8">
         <f t="shared" si="60"/>
         <v>15.378</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="8">
         <f t="shared" si="60"/>
         <v>100</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="8">
         <f t="shared" si="60"/>
         <v>93.6</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="8">
         <f t="shared" si="60"/>
         <v>183819.6</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="8">
         <f>AVERAGE(J51:J55)</f>
         <v>20767.222000000002</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="8">
         <f t="shared" ref="K56:O56" si="61">AVERAGE(K51:K55)</f>
         <v>2.4119999999999999</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="8">
         <f t="shared" si="61"/>
         <v>33.451999999999998</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="8">
         <f t="shared" si="61"/>
         <v>100</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="8">
         <f t="shared" si="61"/>
         <v>143.80000000000001</v>
       </c>
-      <c r="O56" s="12">
+      <c r="O56" s="8">
         <f t="shared" si="61"/>
         <v>119923.2</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R56" s="12">
+      <c r="R56" s="8">
         <f>AVERAGE(R51:R55)</f>
         <v>21636.044000000002</v>
       </c>
-      <c r="S56" s="12">
+      <c r="S56" s="8">
         <f t="shared" ref="S56:W56" si="62">AVERAGE(S51:S55)</f>
         <v>2.3079999999999998</v>
       </c>
-      <c r="T56" s="12">
+      <c r="T56" s="8">
         <f t="shared" si="62"/>
         <v>65.762</v>
       </c>
-      <c r="U56" s="12">
+      <c r="U56" s="8">
         <f t="shared" si="62"/>
         <v>100</v>
       </c>
-      <c r="V56" s="12">
+      <c r="V56" s="8">
         <f t="shared" si="62"/>
         <v>146.4</v>
       </c>
-      <c r="W56" s="12">
+      <c r="W56" s="8">
         <f t="shared" si="62"/>
         <v>114857.60000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4293,42 +4295,42 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="I58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
       <c r="Q58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R58" s="8" t="s">
+      <c r="R58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="4">
         <v>250</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>203264</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" s="5">
         <v>2</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>202544</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23">
       <c r="A62" s="5">
         <v>3</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>184224</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>208992</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23">
       <c r="A64" s="5">
         <v>5</v>
       </c>
@@ -4723,90 +4725,90 @@
         <v>198144</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="8">
         <f>AVERAGE(B60:B64)</f>
         <v>25440.045999999998</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="8">
         <f t="shared" ref="C65:G65" si="63">AVERAGE(C60:C64)</f>
         <v>9.8260000000000005</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="8">
         <f t="shared" si="63"/>
         <v>51.503999999999998</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="8">
         <f t="shared" si="63"/>
         <v>100</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="8">
         <f t="shared" si="63"/>
         <v>91.8</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="8">
         <f t="shared" si="63"/>
         <v>66549.2</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="8">
         <f>AVERAGE(J60:J64)</f>
         <v>16020.584000000003</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="8">
         <f t="shared" ref="K65:O65" si="64">AVERAGE(K60:K64)</f>
         <v>15.563999999999998</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="8">
         <f t="shared" si="64"/>
         <v>73.963999999999999</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="8">
         <f t="shared" si="64"/>
         <v>100</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="8">
         <f t="shared" si="64"/>
         <v>189.4</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="8">
         <f t="shared" si="64"/>
         <v>184454.39999999999</v>
       </c>
       <c r="Q65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R65" s="12">
+      <c r="R65" s="8">
         <f>AVERAGE(R60:R64)</f>
         <v>17235.150000000001</v>
       </c>
-      <c r="S65" s="12">
+      <c r="S65" s="8">
         <f t="shared" ref="S65:W65" si="65">AVERAGE(S60:S64)</f>
         <v>12.661999999999999</v>
       </c>
-      <c r="T65" s="12">
+      <c r="T65" s="8">
         <f t="shared" si="65"/>
         <v>476.096</v>
       </c>
-      <c r="U65" s="12">
+      <c r="U65" s="8">
         <f t="shared" si="65"/>
         <v>99.99316553128449</v>
       </c>
-      <c r="V65" s="12">
+      <c r="V65" s="8">
         <f t="shared" si="65"/>
         <v>188</v>
       </c>
-      <c r="W65" s="12">
+      <c r="W65" s="8">
         <f t="shared" si="65"/>
         <v>199433.60000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4829,42 +4831,42 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="I67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
       <c r="Q67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="4">
         <v>500</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>221728</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23">
       <c r="A70" s="5">
         <v>2</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>219552</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23">
       <c r="A71" s="5">
         <v>3</v>
       </c>
@@ -5124,7 +5126,7 @@
         <v>234800</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23">
       <c r="A72" s="5">
         <v>4</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>243920</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -5254,90 +5256,90 @@
         <v>257200</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="1" customFormat="1">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="8">
         <f>AVERAGE(B69:B73)</f>
         <v>23848.726000000002</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="8">
         <f t="shared" ref="C74:G74" si="66">AVERAGE(C69:C73)</f>
         <v>20.957999999999998</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="8">
         <f t="shared" si="66"/>
         <v>213.25200000000001</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="8">
         <f t="shared" si="66"/>
         <v>100</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="8">
         <f t="shared" si="66"/>
         <v>89</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="8">
         <f t="shared" si="66"/>
         <v>64817.599999999999</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="8">
         <f>AVERAGE(J69:J73)</f>
         <v>14510.203999999998</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="8">
         <f t="shared" ref="K74:O74" si="67">AVERAGE(K69:K73)</f>
         <v>34.456000000000003</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="8">
         <f t="shared" si="67"/>
         <v>226.34399999999999</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="8">
         <f t="shared" si="67"/>
         <v>100</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="8">
         <f t="shared" si="67"/>
         <v>187.4</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="8">
         <f t="shared" si="67"/>
         <v>211908.8</v>
       </c>
       <c r="Q74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R74" s="12">
+      <c r="R74" s="8">
         <f>AVERAGE(R69:R73)</f>
         <v>14723.984</v>
       </c>
-      <c r="S74" s="12">
+      <c r="S74" s="8">
         <f t="shared" ref="S74:W74" si="68">AVERAGE(S69:S73)</f>
         <v>33.953999999999994</v>
       </c>
-      <c r="T74" s="12">
+      <c r="T74" s="8">
         <f t="shared" si="68"/>
         <v>1779.8</v>
       </c>
-      <c r="U74" s="12">
+      <c r="U74" s="8">
         <f t="shared" si="68"/>
         <v>99.539999999999992</v>
       </c>
-      <c r="V74" s="12">
+      <c r="V74" s="8">
         <f t="shared" si="68"/>
         <v>194.8</v>
       </c>
-      <c r="W74" s="12">
+      <c r="W74" s="8">
         <f t="shared" si="68"/>
         <v>235440</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -5345,42 +5347,42 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23">
       <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
       <c r="I76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
       <c r="Q76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="4">
         <v>1000</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>283264</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23">
       <c r="A79" s="5">
         <v>2</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>366512</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>317392</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>361280</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23">
       <c r="A82" s="5">
         <v>5</v>
       </c>
@@ -5785,114 +5787,91 @@
         <v>323952</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" s="1" customFormat="1">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="8">
         <f>AVERAGE(B78:B82)</f>
         <v>24786.460000000003</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="8">
         <f t="shared" ref="C83:G83" si="69">AVERAGE(C78:C82)</f>
         <v>40.332000000000001</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="8">
         <f t="shared" si="69"/>
         <v>467.904</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="8">
         <f t="shared" si="69"/>
         <v>99.95540116460451</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="8">
         <f t="shared" si="69"/>
         <v>90.6</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="8">
         <f t="shared" si="69"/>
         <v>55544</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="8">
         <f>AVERAGE(J78:J82)</f>
         <v>14355.366</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="8">
         <f t="shared" ref="K83:O83" si="70">AVERAGE(K78:K82)</f>
         <v>69.722000000000008</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="8">
         <f t="shared" si="70"/>
         <v>536.20999999999992</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="8">
         <f t="shared" si="70"/>
         <v>99.921851552066698</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="8">
         <f t="shared" si="70"/>
         <v>195</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="8">
         <f t="shared" si="70"/>
         <v>295360</v>
       </c>
       <c r="Q83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R83" s="12">
+      <c r="R83" s="8">
         <f>AVERAGE(R78:R82)</f>
         <v>14684.222</v>
       </c>
-      <c r="S83" s="12">
+      <c r="S83" s="8">
         <f t="shared" ref="S83:W83" si="71">AVERAGE(S78:S82)</f>
         <v>67.998000000000005</v>
       </c>
-      <c r="T83" s="12">
+      <c r="T83" s="8">
         <f t="shared" si="71"/>
         <v>4914</v>
       </c>
-      <c r="U83" s="12">
+      <c r="U83" s="8">
         <f t="shared" si="71"/>
         <v>99.538730287752259</v>
       </c>
-      <c r="V83" s="12">
+      <c r="V83" s="8">
         <f t="shared" si="71"/>
         <v>204.6</v>
       </c>
-      <c r="W83" s="12">
+      <c r="W83" s="8">
         <f t="shared" si="71"/>
         <v>330480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5900,6 +5879,29 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5908,288 +5910,486 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>25840</v>
+      </c>
+      <c r="E5">
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>25776</v>
+      </c>
+      <c r="E6">
         <v>4.45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>25904</v>
+      </c>
+      <c r="E7">
         <v>4.46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>3.22</v>
+        <v>3.26</v>
       </c>
       <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>26160</v>
+      </c>
+      <c r="E8">
         <v>4.46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3.21</v>
+        <v>3.26</v>
       </c>
       <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>25952</v>
+      </c>
+      <c r="E9">
         <v>4.47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <f>AVERAGE(B5:B9)</f>
-        <v>3.2119999999999997</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(C5:C9)</f>
+        <v>3.2439999999999998</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" ref="C10:G10" si="0">AVERAGE(C5:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>25926.400000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>4.4980000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>6.46</v>
+        <v>6.56</v>
       </c>
       <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>42496</v>
+      </c>
+      <c r="E14">
         <v>7.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
       <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15">
+        <v>40976</v>
+      </c>
+      <c r="E15">
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>6.46</v>
+        <v>6.48</v>
       </c>
       <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>40848</v>
+      </c>
+      <c r="E16">
         <v>7.26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>6.46</v>
+        <v>6.5</v>
       </c>
       <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>42448</v>
+      </c>
+      <c r="E17">
         <v>7.31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>6.46</v>
+        <v>6.49</v>
       </c>
       <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>43120</v>
+      </c>
+      <c r="E18">
         <v>7.29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <f>AVERAGE(B14:B18)</f>
-        <v>6.4620000000000006</v>
-      </c>
-      <c r="C19" s="11">
+        <v>6.5060000000000002</v>
+      </c>
+      <c r="C19" s="7">
         <f>AVERAGE(C14:C18)</f>
+        <v>99</v>
+      </c>
+      <c r="D19" s="7">
+        <f>AVERAGE(D14:D18)</f>
+        <v>41977.599999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <f>AVERAGE(E14:E18)</f>
         <v>7.2720000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="F19" s="7" t="e">
+        <f t="shared" ref="F19:G19" si="1">AVERAGE(F14:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>36688</v>
+      </c>
+      <c r="E23">
         <v>7.25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24">
+        <v>36608</v>
+      </c>
+      <c r="E24">
         <v>7.17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="C25">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>36912</v>
+      </c>
+      <c r="E25">
         <v>7.18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>6.29</v>
+        <v>6.32</v>
       </c>
       <c r="C26">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>36800</v>
+      </c>
+      <c r="E26">
         <v>7.16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>6.29</v>
+        <v>6.33</v>
       </c>
       <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>36672</v>
+      </c>
+      <c r="E27">
         <v>7.15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <f>AVERAGE(B23:B27)</f>
-        <v>6.2959999999999994</v>
-      </c>
-      <c r="C28" s="11">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="C28" s="7">
         <f>AVERAGE(C23:C27)</f>
+        <v>99</v>
+      </c>
+      <c r="D28" s="7">
+        <f>AVERAGE(D23:D27)</f>
+        <v>36736</v>
+      </c>
+      <c r="E28" s="7">
+        <f>AVERAGE(E23:E27)</f>
         <v>7.1820000000000004</v>
       </c>
+      <c r="F28" s="7" t="e">
+        <f>AVERAGE(F23:F27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f>AVERAGE(G23:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6203,23 +6403,23 @@
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6436,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6255,7 +6455,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -6274,7 +6474,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6289,7 +6489,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6304,28 +6504,28 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -6366,7 +6566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -6407,7 +6607,7 @@
         <v>82128</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -6448,7 +6648,7 @@
         <v>83196</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -6489,7 +6689,7 @@
         <v>82692</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -6530,7 +6730,7 @@
         <v>82672</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -6571,7 +6771,7 @@
         <v>82948</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6598,28 +6798,28 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6660,7 +6860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -6701,7 +6901,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -6742,7 +6942,7 @@
         <v>106928</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -6783,7 +6983,7 @@
         <v>103704</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -6824,7 +7024,7 @@
         <v>106108</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="5">
         <v>5</v>
       </c>
@@ -6865,7 +7065,7 @@
         <v>104264</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6880,28 +7080,28 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -6942,7 +7142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -6983,7 +7183,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -7024,7 +7224,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -7065,7 +7265,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -7106,7 +7306,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="5">
         <v>5</v>
       </c>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22EF61-56E2-4C83-8E17-E5A8E7806038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF8289-C28A-284E-9A19-B5B4FA8A5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,7 +184,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,29 +502,29 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -540,7 +540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -557,7 +557,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>47188</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -762,7 +762,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -803,7 +803,7 @@
         <v>48484</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -856,7 +856,7 @@
         <v>47986.400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>93856</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -996,7 +996,7 @@
         <v>93212</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>93144</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>92928</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>93116</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>93251.199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>86652</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>86396</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>86280</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>86284</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>86636</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1510,18 +1510,18 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>88056</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>85144</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>85364</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2090,7 +2090,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>250</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>128460</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>124552</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>121192</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>121700</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>121488</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1">
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>123478.39999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2621,7 +2621,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>500</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>175036</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>24363.11</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1">
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>160961</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3157,7 +3157,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1000</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>213864</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>209776</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>209276</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>4</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>211692</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>213220</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>211565.6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1">
+    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3688,7 +3688,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1">
+    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3711,7 +3711,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1">
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3734,7 +3734,7 @@
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>117296</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>109888</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>3</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>112464</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>4</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>115120</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1">
+    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>114857.60000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4295,7 +4295,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
@@ -4330,7 +4330,7 @@
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>250</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>203264</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>202544</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>3</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>184224</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>208992</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>5</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>198144</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1">
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>199433.60000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4831,7 +4831,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>500</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>221728</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>2</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>219552</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>3</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>234800</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>4</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>243920</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>257200</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1">
+    <row r="74" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>235440</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -5347,7 +5347,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>1000</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>283264</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>2</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>366512</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>317392</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>361280</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>5</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>323952</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="1" customFormat="1">
+    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -5872,6 +5872,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5879,29 +5902,6 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5913,20 +5913,20 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5983,10 +5983,16 @@
         <v>25840</v>
       </c>
       <c r="E5">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6000,10 +6006,16 @@
         <v>25776</v>
       </c>
       <c r="E6">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>4.49</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6019,8 +6031,14 @@
       <c r="E7">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>45380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6034,10 +6052,16 @@
         <v>26160</v>
       </c>
       <c r="E8">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4.47</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6051,10 +6075,16 @@
         <v>25952</v>
       </c>
       <c r="E9">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4.46</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6072,18 +6102,18 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>4.4980000000000002</v>
-      </c>
-      <c r="F10" s="7" t="e">
+        <v>4.4719999999999995</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="7" t="e">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>44847.199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
@@ -6095,7 +6125,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6132,10 +6162,16 @@
         <v>42496</v>
       </c>
       <c r="E14">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>7.39</v>
+      </c>
+      <c r="F14">
+        <v>98</v>
+      </c>
+      <c r="G14">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6149,10 +6185,16 @@
         <v>40976</v>
       </c>
       <c r="E15">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>7.29</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6166,10 +6208,16 @@
         <v>40848</v>
       </c>
       <c r="E16">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>7.35</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -6183,10 +6231,16 @@
         <v>42448</v>
       </c>
       <c r="E17">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>7.29</v>
+      </c>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>46336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6200,10 +6254,16 @@
         <v>43120</v>
       </c>
       <c r="E18">
-        <v>7.29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>7.41</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -6221,18 +6281,18 @@
       </c>
       <c r="E19" s="7">
         <f>AVERAGE(E14:E18)</f>
-        <v>7.2720000000000002</v>
-      </c>
-      <c r="F19" s="7" t="e">
+        <v>7.346000000000001</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" ref="F19:G19" si="1">AVERAGE(F14:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="7" t="e">
+        <v>99.2</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>46156.800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
@@ -6244,7 +6304,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -6267,7 +6327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6281,10 +6341,16 @@
         <v>36688</v>
       </c>
       <c r="E23">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>7.19</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -6300,8 +6366,14 @@
       <c r="E24">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6315,10 +6387,16 @@
         <v>36912</v>
       </c>
       <c r="E25">
-        <v>7.18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>7.17</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6332,10 +6410,16 @@
         <v>36800</v>
       </c>
       <c r="E26">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>7.17</v>
+      </c>
+      <c r="F26">
+        <v>99</v>
+      </c>
+      <c r="G26">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -6349,36 +6433,42 @@
         <v>36672</v>
       </c>
       <c r="E27">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>7.2</v>
+      </c>
+      <c r="F27">
+        <v>99</v>
+      </c>
+      <c r="G27">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="7">
-        <f>AVERAGE(B23:B27)</f>
+        <f t="shared" ref="B28:G28" si="2">AVERAGE(B23:B27)</f>
         <v>6.3220000000000001</v>
       </c>
       <c r="C28" s="7">
-        <f>AVERAGE(C23:C27)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="D28" s="7">
-        <f>AVERAGE(D23:D27)</f>
+        <f t="shared" si="2"/>
         <v>36736</v>
       </c>
       <c r="E28" s="7">
-        <f>AVERAGE(E23:E27)</f>
-        <v>7.1820000000000004</v>
-      </c>
-      <c r="F28" s="7" t="e">
-        <f>AVERAGE(F23:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="7" t="e">
-        <f>AVERAGE(G23:G27)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>7.1800000000000015</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>99.6</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
+        <v>43827.199999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6403,23 +6493,23 @@
       <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6436,7 +6526,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6455,7 +6545,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -6474,7 +6564,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6489,7 +6579,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6504,7 +6594,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -6525,7 +6615,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -6607,7 +6697,7 @@
         <v>82128</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -6648,7 +6738,7 @@
         <v>83196</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -6689,7 +6779,7 @@
         <v>82692</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -6730,7 +6820,7 @@
         <v>82672</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -6771,7 +6861,7 @@
         <v>82948</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6798,7 +6888,7 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6819,7 +6909,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6860,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -6901,7 +6991,7 @@
         <v>105356</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -6942,7 +7032,7 @@
         <v>106928</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -6983,7 +7073,7 @@
         <v>103704</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -7024,7 +7114,7 @@
         <v>106108</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>5</v>
       </c>
@@ -7065,7 +7155,7 @@
         <v>104264</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7080,7 +7170,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -7101,7 +7191,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -7142,7 +7232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -7183,7 +7273,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -7224,7 +7314,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -7265,7 +7355,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -7306,7 +7396,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>5</v>
       </c>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I573017/Documents/Development/Repositories/BunVsNodeJs/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF8289-C28A-284E-9A19-B5B4FA8A5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CAF16A-D7A7-4C79-85E1-EB36B4A30C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic HTTP Server" sheetId="1" r:id="rId1"/>
-    <sheet name="File Server Lastvergleich" sheetId="4" r:id="rId2"/>
+    <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
+    <sheet name="File-Server" sheetId="4" r:id="rId2"/>
     <sheet name="Fibonacci" sheetId="3" r:id="rId3"/>
-    <sheet name="File Server" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="20">
   <si>
     <t>Test Setup</t>
   </si>
@@ -105,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -173,18 +172,15 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,32 +495,32 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +528,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -540,24 +536,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>47188</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
         <v>47608</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
@@ -762,7 +762,7 @@
         <v>47260</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
@@ -803,7 +803,7 @@
         <v>48484</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -856,24 +856,28 @@
         <v>47986.400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1</v>
       </c>
@@ -955,7 +959,7 @@
         <v>93856</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>93212</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>93144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>92928</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>93116</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1172,24 +1176,28 @@
         <v>93251.199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>86652</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>86396</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>86280</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>86284</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>86636</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1506,22 +1514,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A46" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1529,37 +1537,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="Q5" s="11" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1602,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>88056</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>82028</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>85144</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1984,90 +1992,90 @@
         <v>86808</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:23" s="1" customFormat="1">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <f>AVERAGE(B8:B12)</f>
         <v>24761.913999999997</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <f t="shared" ref="C13" si="0">AVERAGE(C8:C12)</f>
         <v>2.0159999999999996</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
         <v>30.225999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
         <v>100</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
         <v>99</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
         <v>83199.199999999997</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="8">
         <f>AVERAGE(J8:J12)</f>
         <v>11931.52</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="8">
         <f t="shared" ref="K13" si="5">AVERAGE(K8:K12)</f>
         <v>4.1680000000000001</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <f t="shared" ref="L13" si="6">AVERAGE(L8:L12)</f>
         <v>71.806000000000012</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="8">
         <f t="shared" ref="M13" si="7">AVERAGE(M8:M12)</f>
         <v>100</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="8">
         <f t="shared" ref="N13" si="8">AVERAGE(N8:N12)</f>
         <v>134.80000000000001</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="8">
         <f t="shared" ref="O13" si="9">AVERAGE(O8:O12)</f>
         <v>72557.600000000006</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8">
         <f>AVERAGE(R8:R12)</f>
         <v>14434.576000000001</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="8">
         <f t="shared" ref="S13" si="10">AVERAGE(S8:S12)</f>
         <v>3.4619999999999997</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="8">
         <f t="shared" ref="T13" si="11">AVERAGE(T8:T12)</f>
         <v>137.62599999999998</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="8">
         <f t="shared" ref="U13" si="12">AVERAGE(U8:U12)</f>
         <v>100</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="8">
         <f t="shared" ref="V13" si="13">AVERAGE(V8:V12)</f>
         <v>190.2</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="8">
         <f t="shared" ref="W13" si="14">AVERAGE(W8:W12)</f>
         <v>85364</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2090,7 +2098,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2133,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="4">
         <v>250</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>128460</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>124552</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>121192</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>121700</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -2515,7 +2523,7 @@
         <v>121488</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>123478.39999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2621,7 +2629,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2656,7 +2664,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="4">
         <v>500</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2786,7 +2794,7 @@
         <v>172996</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>118604</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>174576</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>175628</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -3046,7 +3054,7 @@
         <v>175036</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="B31" s="5">
         <v>24363.11</v>
       </c>
@@ -3066,7 +3074,7 @@
         <v>84116</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>160961</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3157,7 +3165,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -3192,7 +3200,7 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="4">
         <v>1000</v>
       </c>
@@ -3257,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>213864</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>209776</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="5">
         <v>3</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>209276</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="5">
         <v>4</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>211692</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>213220</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="1" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>211565.6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="1" customFormat="1">
       <c r="A42" s="4"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3688,7 +3696,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
     </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="1" customFormat="1">
       <c r="A43" s="4"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3711,7 +3719,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
     </row>
-    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" s="1" customFormat="1">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3734,37 +3742,37 @@
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:23">
+      <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="Q48" s="11" t="s">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="Q48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3807,7 @@
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -3929,7 +3937,7 @@
         <v>117296</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -3994,7 +4002,7 @@
         <v>109888</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="5">
         <v>3</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>112464</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" s="5">
         <v>4</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>119520</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -4189,7 +4197,7 @@
         <v>115120</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="1" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +4280,7 @@
         <v>114857.60000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4295,7 +4303,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
@@ -4330,7 +4338,7 @@
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" s="4">
         <v>250</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>203264</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23">
       <c r="A61" s="5">
         <v>2</v>
       </c>
@@ -4527,7 +4535,7 @@
         <v>202544</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23">
       <c r="A62" s="5">
         <v>3</v>
       </c>
@@ -4593,7 +4601,7 @@
         <v>184224</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>208992</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23">
       <c r="A64" s="5">
         <v>5</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>198144</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>199433.60000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4831,7 +4839,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +4874,7 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23">
       <c r="A68" s="4">
         <v>500</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>221728</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23">
       <c r="A70" s="5">
         <v>2</v>
       </c>
@@ -5061,7 +5069,7 @@
         <v>219552</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23">
       <c r="A71" s="5">
         <v>3</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>234800</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23">
       <c r="A72" s="5">
         <v>4</v>
       </c>
@@ -5191,7 +5199,7 @@
         <v>243920</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>257200</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="1" customFormat="1">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
@@ -5339,7 +5347,7 @@
         <v>235440</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -5347,7 +5355,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23">
       <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
@@ -5382,7 +5390,7 @@
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23">
       <c r="A77" s="4">
         <v>1000</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>283264</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23">
       <c r="A79" s="5">
         <v>2</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>366512</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23">
       <c r="A80" s="5">
         <v>3</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>317392</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>361280</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23">
       <c r="A82" s="5">
         <v>5</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>323952</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" s="1" customFormat="1">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -5913,20 +5921,20 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J10" sqref="J10:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5934,19 +5942,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:7">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5992,7 +6000,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>45644</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6113,19 +6121,19 @@
         <v>44847.199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6194,7 +6202,7 @@
         <v>46336</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6217,7 +6225,7 @@
         <v>46336</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>4</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>46336</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>46080</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -6292,19 +6300,19 @@
         <v>46156.800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:7">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2</v>
       </c>
@@ -6373,7 +6381,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>5</v>
       </c>
@@ -6442,7 +6450,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -6483,970 +6491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506776CC-B6C8-BB4A-88D0-81938826640D}">
-  <dimension ref="A1:M28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>500</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>23707.59</v>
-      </c>
-      <c r="C8">
-        <v>21.08</v>
-      </c>
-      <c r="D8">
-        <v>195.63</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>90</v>
-      </c>
-      <c r="G8">
-        <v>64264</v>
-      </c>
-      <c r="H8" s="2">
-        <v>23899.18</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20.91</v>
-      </c>
-      <c r="J8" s="6">
-        <v>116.19</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
-      <c r="L8" s="5">
-        <v>96</v>
-      </c>
-      <c r="M8" s="5">
-        <v>82128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5">
-        <v>23920.81</v>
-      </c>
-      <c r="C9" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>239.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <v>86</v>
-      </c>
-      <c r="G9" s="5">
-        <v>65040</v>
-      </c>
-      <c r="H9" s="5">
-        <v>24201.74</v>
-      </c>
-      <c r="I9" s="5">
-        <v>20.65</v>
-      </c>
-      <c r="J9" s="5">
-        <v>108.4</v>
-      </c>
-      <c r="K9" s="5">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5">
-        <v>96</v>
-      </c>
-      <c r="M9" s="5">
-        <v>83196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>23909.89</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20.9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>204.46</v>
-      </c>
-      <c r="E10" s="5">
-        <v>100</v>
-      </c>
-      <c r="F10" s="5">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5">
-        <v>65024</v>
-      </c>
-      <c r="H10" s="5">
-        <v>24153.93</v>
-      </c>
-      <c r="I10" s="5">
-        <v>20.69</v>
-      </c>
-      <c r="J10" s="5">
-        <v>115.38</v>
-      </c>
-      <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>82692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5">
-        <v>23825.78</v>
-      </c>
-      <c r="C11" s="5">
-        <v>20.98</v>
-      </c>
-      <c r="D11" s="5">
-        <v>206.59</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="5">
-        <v>89</v>
-      </c>
-      <c r="G11" s="5">
-        <v>64880</v>
-      </c>
-      <c r="H11" s="5">
-        <v>23658.7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>21.12</v>
-      </c>
-      <c r="J11" s="5">
-        <v>119.64</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5">
-        <v>98</v>
-      </c>
-      <c r="M11" s="5">
-        <v>82672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <v>23879.56</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20.93</v>
-      </c>
-      <c r="D12" s="5">
-        <v>220.08</v>
-      </c>
-      <c r="E12" s="5">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5">
-        <v>90</v>
-      </c>
-      <c r="G12" s="5">
-        <v>64880</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24399.08</v>
-      </c>
-      <c r="I12" s="5">
-        <v>20.5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>117.62</v>
-      </c>
-      <c r="K12" s="5">
-        <v>100</v>
-      </c>
-      <c r="L12" s="5">
-        <v>99</v>
-      </c>
-      <c r="M12" s="5">
-        <v>82948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>24363.11</v>
-      </c>
-      <c r="I13" s="5">
-        <v>20.51</v>
-      </c>
-      <c r="J13" s="5">
-        <v>120.77</v>
-      </c>
-      <c r="K13" s="5">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5">
-        <v>99</v>
-      </c>
-      <c r="M13" s="5">
-        <v>84116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14317.65</v>
-      </c>
-      <c r="C16" s="5">
-        <v>34.93</v>
-      </c>
-      <c r="D16" s="5">
-        <v>248.08</v>
-      </c>
-      <c r="E16" s="5">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5">
-        <v>189</v>
-      </c>
-      <c r="G16" s="5">
-        <v>229776</v>
-      </c>
-      <c r="H16" s="5">
-        <v>7650.31</v>
-      </c>
-      <c r="I16" s="5">
-        <v>64.53</v>
-      </c>
-      <c r="J16" s="5">
-        <v>287.7</v>
-      </c>
-      <c r="K16" s="5">
-        <v>100</v>
-      </c>
-      <c r="L16" s="5">
-        <v>166</v>
-      </c>
-      <c r="M16" s="5">
-        <v>105356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5">
-        <v>14508.2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>34.46</v>
-      </c>
-      <c r="D17" s="5">
-        <v>231.62</v>
-      </c>
-      <c r="E17" s="5">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5">
-        <v>197</v>
-      </c>
-      <c r="G17" s="5">
-        <v>198496</v>
-      </c>
-      <c r="H17" s="5">
-        <v>8460.4599999999991</v>
-      </c>
-      <c r="I17" s="5">
-        <v>58.41</v>
-      </c>
-      <c r="J17" s="5">
-        <v>305.45999999999998</v>
-      </c>
-      <c r="K17" s="5">
-        <v>100</v>
-      </c>
-      <c r="L17" s="5">
-        <v>176</v>
-      </c>
-      <c r="M17" s="5">
-        <v>106928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5">
-        <v>14466.72</v>
-      </c>
-      <c r="C18" s="5">
-        <v>34.56</v>
-      </c>
-      <c r="D18" s="5">
-        <v>214.82</v>
-      </c>
-      <c r="E18" s="5">
-        <v>100</v>
-      </c>
-      <c r="F18" s="5">
-        <v>185</v>
-      </c>
-      <c r="G18" s="5">
-        <v>208496</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8428.35</v>
-      </c>
-      <c r="I18" s="5">
-        <v>58.51</v>
-      </c>
-      <c r="J18" s="5">
-        <v>285.69</v>
-      </c>
-      <c r="K18" s="5">
-        <v>100</v>
-      </c>
-      <c r="L18" s="5">
-        <v>166</v>
-      </c>
-      <c r="M18" s="5">
-        <v>103704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5">
-        <v>14610.55</v>
-      </c>
-      <c r="C19" s="5">
-        <v>34.21</v>
-      </c>
-      <c r="D19" s="5">
-        <v>198.59</v>
-      </c>
-      <c r="E19" s="5">
-        <v>100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>176</v>
-      </c>
-      <c r="G19" s="5">
-        <v>212880</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8292.3700000000008</v>
-      </c>
-      <c r="I19" s="5">
-        <v>59.61</v>
-      </c>
-      <c r="J19" s="5">
-        <v>313.20999999999998</v>
-      </c>
-      <c r="K19" s="5">
-        <v>100</v>
-      </c>
-      <c r="L19" s="5">
-        <v>171</v>
-      </c>
-      <c r="M19" s="5">
-        <v>106108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5">
-        <v>14647.9</v>
-      </c>
-      <c r="C20" s="5">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="D20" s="5">
-        <v>238.61</v>
-      </c>
-      <c r="E20" s="5">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5">
-        <v>190</v>
-      </c>
-      <c r="G20" s="5">
-        <v>209896</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8410.83</v>
-      </c>
-      <c r="I20" s="5">
-        <v>58.73</v>
-      </c>
-      <c r="J20" s="5">
-        <v>292.88</v>
-      </c>
-      <c r="K20" s="5">
-        <v>100</v>
-      </c>
-      <c r="L20" s="5">
-        <v>165</v>
-      </c>
-      <c r="M20" s="5">
-        <v>104264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <v>14790.27</v>
-      </c>
-      <c r="C24" s="5">
-        <v>33.81</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1720</v>
-      </c>
-      <c r="E24" s="5">
-        <v>99.5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>195</v>
-      </c>
-      <c r="G24" s="5">
-        <v>221728</v>
-      </c>
-      <c r="H24" s="5">
-        <v>10322.75</v>
-      </c>
-      <c r="I24" s="5">
-        <v>47.96</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1710</v>
-      </c>
-      <c r="K24" s="5">
-        <v>100</v>
-      </c>
-      <c r="L24" s="5">
-        <v>268</v>
-      </c>
-      <c r="M24" s="5">
-        <v>172996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5">
-        <v>14729.2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>33.93</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1790</v>
-      </c>
-      <c r="E25" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="F25" s="5">
-        <v>194</v>
-      </c>
-      <c r="G25" s="5">
-        <v>219552</v>
-      </c>
-      <c r="H25" s="5">
-        <v>10462.030000000001</v>
-      </c>
-      <c r="I25" s="5">
-        <v>47.33</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K25" s="5">
-        <v>100</v>
-      </c>
-      <c r="L25" s="5">
-        <v>265</v>
-      </c>
-      <c r="M25" s="5">
-        <v>118604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>3</v>
-      </c>
-      <c r="B26" s="5">
-        <v>14749.95</v>
-      </c>
-      <c r="C26" s="5">
-        <v>33.909999999999997</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1649</v>
-      </c>
-      <c r="E26" s="5">
-        <v>99.7</v>
-      </c>
-      <c r="F26" s="5">
-        <v>198</v>
-      </c>
-      <c r="G26" s="5">
-        <v>234800</v>
-      </c>
-      <c r="H26" s="5">
-        <v>10337.76</v>
-      </c>
-      <c r="I26" s="5">
-        <v>47.97</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1770</v>
-      </c>
-      <c r="K26" s="5">
-        <v>100</v>
-      </c>
-      <c r="L26" s="5">
-        <v>250</v>
-      </c>
-      <c r="M26" s="5">
-        <v>174576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5">
-        <v>14722.22</v>
-      </c>
-      <c r="C27" s="5">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1920</v>
-      </c>
-      <c r="E27" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>193</v>
-      </c>
-      <c r="G27" s="5">
-        <v>243920</v>
-      </c>
-      <c r="H27" s="5">
-        <v>10478.85</v>
-      </c>
-      <c r="I27" s="5">
-        <v>47.32</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K27" s="5">
-        <v>100</v>
-      </c>
-      <c r="L27" s="5">
-        <v>264</v>
-      </c>
-      <c r="M27" s="5">
-        <v>175628</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5">
-        <v>14628.28</v>
-      </c>
-      <c r="C28" s="5">
-        <v>34.14</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1820</v>
-      </c>
-      <c r="E28" s="5">
-        <v>99.7</v>
-      </c>
-      <c r="F28" s="5">
-        <v>194</v>
-      </c>
-      <c r="G28" s="5">
-        <v>257200</v>
-      </c>
-      <c r="H28" s="5">
-        <v>10254</v>
-      </c>
-      <c r="I28" s="5">
-        <v>48.39</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1740</v>
-      </c>
-      <c r="K28" s="5">
-        <v>100</v>
-      </c>
-      <c r="L28" s="5">
-        <v>262</v>
-      </c>
-      <c r="M28" s="5">
-        <v>175036</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CAF16A-D7A7-4C79-85E1-EB36B4A30C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92A643-5616-4555-BE1F-B51F814C90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +178,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -494,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1514,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:O15"/>
+    <sheetView topLeftCell="A52" zoomScale="87" workbookViewId="0">
+      <selection activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3743,16 +3744,15 @@
       <c r="W44" s="8"/>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="9" t="s">
         <v>3</v>
       </c>
@@ -5880,29 +5880,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5910,6 +5887,29 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5921,7 +5921,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA92A643-5616-4555-BE1F-B51F814C90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755CCBBE-539C-4427-BF1C-BCA8EEFBC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,7 +178,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1515,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="87" workbookViewId="0">
-      <selection activeCell="W85" sqref="W85"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="87" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3752,7 +3751,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="9" t="s">
         <v>3</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>476.096</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" si="65"/>
+        <f>AVERAGE(U60:U64)</f>
         <v>99.99316553128449</v>
       </c>
       <c r="V65" s="8">
@@ -5880,6 +5879,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5887,29 +5909,6 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5920,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E6FA74-58D8-2745-A48E-13C60CDE5766}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755CCBBE-539C-4427-BF1C-BCA8EEFBC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005A9BC-E3F7-462E-A6BE-80FA8D930F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
@@ -142,12 +142,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +184,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1514,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="87" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -4150,8 +4158,8 @@
       <c r="F55" s="5">
         <v>94</v>
       </c>
-      <c r="G55" s="5">
-        <v>654230</v>
+      <c r="G55" s="11">
+        <v>65423</v>
       </c>
       <c r="I55" s="5">
         <v>5</v>
@@ -4220,9 +4228,9 @@
         <f t="shared" si="60"/>
         <v>93.6</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="12">
         <f t="shared" si="60"/>
-        <v>183819.6</v>
+        <v>66058.2</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>18</v>
@@ -5678,8 +5686,8 @@
       <c r="F81" s="5">
         <v>90</v>
       </c>
-      <c r="G81" s="5">
-        <v>6824</v>
+      <c r="G81" s="11">
+        <v>68240</v>
       </c>
       <c r="I81" s="5">
         <v>4</v>
@@ -5818,9 +5826,9 @@
         <f t="shared" si="69"/>
         <v>90.6</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="12">
         <f t="shared" si="69"/>
-        <v>55544</v>
+        <v>67827.199999999997</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>18</v>
@@ -5879,29 +5887,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5909,6 +5894,29 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/benchmarks/BenchmarksOverview.xlsx
+++ b/benchmarks/BenchmarksOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005A9BC-E3F7-462E-A6BE-80FA8D930F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EBBB2-41A2-4B78-9884-6AF1276FC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EB33065-7B02-8F40-AA24-6363AD3E5C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -142,18 +142,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,8 +178,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -502,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E627F5D-FFE4-2643-9D4B-9E18438983C0}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1522,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB541521-64F8-DE46-A0B5-E150B1049D8B}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="A52" zoomScale="87" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -5887,6 +5881,29 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="R67:W67"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R15:W15"/>
     <mergeCell ref="R24:W24"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B15:G15"/>
@@ -5894,29 +5911,6 @@
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="R49:W49"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="R67:W67"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="R76:W76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
